--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF074074-A8A8-4AF5-A81E-07BF17B96594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FC3719-0BEA-4256-B3F8-F17E8D69AB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxTower" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -907,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2146,9 +2146,48 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>9026</v>
+      </c>
+      <c r="D33">
+        <v>4100</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <f>VLOOKUP(A33+1,balacne!E:L,3,FALSE)</f>
+        <v>1.3622880000000003E+130</v>
+      </c>
+      <c r="G33">
+        <v>1000</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>8200</v>
+      </c>
+      <c r="K33">
+        <v>9026</v>
+      </c>
+      <c r="L33">
+        <v>4100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K32">
+  <conditionalFormatting sqref="A2:K33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2161,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3813,11 +3852,11 @@
         <v>31</v>
       </c>
       <c r="F39" s="20" t="str">
-        <f t="shared" ref="F39:F40" si="13">H39&amp;I39</f>
+        <f t="shared" ref="F39" si="13">H39&amp;I39</f>
         <v>1.3488위</v>
       </c>
       <c r="G39" s="20">
-        <f t="shared" ref="G39:G40" si="14">H39*J39</f>
+        <f t="shared" ref="G39" si="14">H39*J39</f>
         <v>1.3488000000000002E+128</v>
       </c>
       <c r="H39" s="20">
@@ -3833,11 +3872,11 @@
         <v>1E+128</v>
       </c>
       <c r="K39" s="17">
-        <f t="shared" ref="K39:K40" si="15">L39</f>
+        <f t="shared" ref="K39" si="15">L39</f>
         <v>4000</v>
       </c>
       <c r="L39" s="11">
-        <f t="shared" ref="L39:L40" si="16">($B$14*(E39-1)+2000)/2</f>
+        <f t="shared" ref="L39" si="16">($B$14*(E39-1)+2000)/2</f>
         <v>4000</v>
       </c>
       <c r="N39" s="19" t="s">
@@ -3860,11 +3899,11 @@
         <v>32</v>
       </c>
       <c r="F40" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f>H40&amp;I40</f>
         <v>136.2288위</v>
       </c>
       <c r="G40" s="20">
-        <f t="shared" si="14"/>
+        <f>H40*J40</f>
         <v>1.3622880000000003E+130</v>
       </c>
       <c r="H40" s="20">
@@ -3880,7 +3919,7 @@
         <v>1E+128</v>
       </c>
       <c r="K40" s="17">
-        <f t="shared" si="15"/>
+        <f>L40</f>
         <v>4200</v>
       </c>
       <c r="L40" s="11">

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FC3719-0BEA-4256-B3F8-F17E8D69AB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C224D65C-7CFA-461C-B498-9EA85169F8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,6 +315,10 @@
   </si>
   <si>
     <t>위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -907,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2185,9 +2189,87 @@
         <v>4100</v>
       </c>
     </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>9026</v>
+      </c>
+      <c r="D34">
+        <v>4200</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <f>VLOOKUP(A34+1,balacne!E:L,3,FALSE)</f>
+        <v>1.3759999999999999E+132</v>
+      </c>
+      <c r="G34">
+        <v>1000</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>8400</v>
+      </c>
+      <c r="K34">
+        <v>9026</v>
+      </c>
+      <c r="L34">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>9026</v>
+      </c>
+      <c r="D35">
+        <v>4300</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <f>VLOOKUP(A35+1,balacne!E:L,3,FALSE)</f>
+        <v>1.3897599999999999E+134</v>
+      </c>
+      <c r="G35">
+        <v>1000</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>8600</v>
+      </c>
+      <c r="K35">
+        <v>9026</v>
+      </c>
+      <c r="L35">
+        <v>4300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K33">
+  <conditionalFormatting sqref="A2:K35">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2198,10 +2280,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2463,7 +2545,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H40" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H42" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -3886,11 +3968,11 @@
         <v>128</v>
       </c>
       <c r="P39" s="20">
-        <f t="shared" ref="P39" si="17">POWER(10,O39)</f>
+        <f t="shared" ref="P39:P40" si="17">POWER(10,O39)</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="Q39" s="20" t="str">
-        <f t="shared" ref="Q39" si="18">RIGHT(P39,O39)</f>
+        <f t="shared" ref="Q39:Q40" si="18">RIGHT(P39,O39)</f>
         <v>1E+128</v>
       </c>
     </row>
@@ -3925,6 +4007,86 @@
       <c r="L40" s="11">
         <f>L39+200</f>
         <v>4200</v>
+      </c>
+      <c r="N40" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O40" s="19">
+        <v>132</v>
+      </c>
+      <c r="P40" s="9">
+        <f t="shared" si="17"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="Q40" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+132</v>
+      </c>
+    </row>
+    <row r="41" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E41" s="19">
+        <v>33</v>
+      </c>
+      <c r="F41" s="20" t="str">
+        <f t="shared" ref="F41:F42" si="19">H41&amp;I41</f>
+        <v>1.376설</v>
+      </c>
+      <c r="G41" s="20">
+        <f t="shared" ref="G41:G42" si="20">H41*J41</f>
+        <v>1.3759999999999999E+132</v>
+      </c>
+      <c r="H41" s="20">
+        <f t="shared" si="7"/>
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="I41" s="19" t="str" cm="1">
+        <f t="array" ref="I41">IF(AND(H40&gt;100,H41&lt;100),INDEX(N:N,MATCH(I40,N:N,0)+1,0),I40)</f>
+        <v>설</v>
+      </c>
+      <c r="J41" s="19" t="str">
+        <f t="shared" ref="J41:J42" si="21">VLOOKUP(I41,N:Q,4,FALSE)</f>
+        <v>1E+132</v>
+      </c>
+      <c r="K41" s="17">
+        <f t="shared" ref="K41:K42" si="22">L41</f>
+        <v>4200</v>
+      </c>
+      <c r="L41" s="11">
+        <f t="shared" ref="L41:L42" si="23">($B$14*(E41-1)+2000)/2</f>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="42" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E42" s="19">
+        <v>34</v>
+      </c>
+      <c r="F42" s="20" t="str">
+        <f t="shared" si="19"/>
+        <v>138.976설</v>
+      </c>
+      <c r="G42" s="20">
+        <f t="shared" si="20"/>
+        <v>1.3897599999999999E+134</v>
+      </c>
+      <c r="H42" s="20">
+        <f t="shared" si="7"/>
+        <v>138.976</v>
+      </c>
+      <c r="I42" s="19" t="str" cm="1">
+        <f t="array" ref="I42">IF(AND(H41&gt;100,H42&lt;100),INDEX(N:N,MATCH(I41,N:N,0)+1,0),I41)</f>
+        <v>설</v>
+      </c>
+      <c r="J42" s="19" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K42" s="17">
+        <f t="shared" si="22"/>
+        <v>4300</v>
+      </c>
+      <c r="L42" s="11">
+        <f t="shared" si="23"/>
+        <v>4300</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C224D65C-7CFA-461C-B498-9EA85169F8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7137E6-6FCC-4ED7-BE02-B25E64E4D51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxTower" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,10 @@
   </si>
   <si>
     <t>설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -911,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2161,6 +2165,7 @@
         <v>9026</v>
       </c>
       <c r="D33">
+        <f>VLOOKUP(A33+1,balacne!E:L,7,FALSE)</f>
         <v>4100</v>
       </c>
       <c r="E33">
@@ -2186,6 +2191,7 @@
         <v>9026</v>
       </c>
       <c r="L33">
+        <f>VLOOKUP(A33+1,balacne!E:L,8,FALSE)</f>
         <v>4100</v>
       </c>
     </row>
@@ -2200,6 +2206,7 @@
         <v>9026</v>
       </c>
       <c r="D34">
+        <f>VLOOKUP(A34+1,balacne!E:L,7,FALSE)</f>
         <v>4200</v>
       </c>
       <c r="E34">
@@ -2225,6 +2232,7 @@
         <v>9026</v>
       </c>
       <c r="L34">
+        <f>VLOOKUP(A34+1,balacne!E:L,8,FALSE)</f>
         <v>4200</v>
       </c>
     </row>
@@ -2239,6 +2247,7 @@
         <v>9026</v>
       </c>
       <c r="D35">
+        <f>VLOOKUP(A35+1,balacne!E:L,7,FALSE)</f>
         <v>4300</v>
       </c>
       <c r="E35">
@@ -2264,12 +2273,95 @@
         <v>9026</v>
       </c>
       <c r="L35">
+        <f>VLOOKUP(A35+1,balacne!E:L,8,FALSE)</f>
         <v>4300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>9026</v>
+      </c>
+      <c r="D36">
+        <f>VLOOKUP(A36+1,balacne!E:L,7,FALSE)</f>
+        <v>4400</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <f>VLOOKUP(A36+1,balacne!E:L,3,FALSE)</f>
+        <v>1.4037E+136</v>
+      </c>
+      <c r="G36">
+        <v>1000</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>8800</v>
+      </c>
+      <c r="K36">
+        <v>9026</v>
+      </c>
+      <c r="L36">
+        <f>VLOOKUP(A36+1,balacne!E:L,8,FALSE)</f>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>9026</v>
+      </c>
+      <c r="D37">
+        <f>VLOOKUP(A37+1,balacne!E:L,7,FALSE)</f>
+        <v>4500</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <f>VLOOKUP(A37+1,balacne!E:L,3,FALSE)</f>
+        <v>1.4177369999999999E+138</v>
+      </c>
+      <c r="G37">
+        <v>1000</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>9000</v>
+      </c>
+      <c r="K37">
+        <v>9026</v>
+      </c>
+      <c r="L37">
+        <f>VLOOKUP(A37+1,balacne!E:L,8,FALSE)</f>
+        <v>4500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K35">
+  <conditionalFormatting sqref="A2:K37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2280,10 +2372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z42"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2545,7 +2637,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H42" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H49" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -3674,11 +3766,11 @@
         <v>1E+116</v>
       </c>
       <c r="K34" s="17">
-        <f t="shared" si="5"/>
+        <f>L34</f>
         <v>3500</v>
       </c>
       <c r="L34" s="11">
-        <f t="shared" si="6"/>
+        <f>($B$14*(E34-1)+2000)/2</f>
         <v>3500</v>
       </c>
       <c r="N34" s="19" t="s">
@@ -3734,7 +3826,7 @@
         <v>3600</v>
       </c>
       <c r="L35" s="11">
-        <f t="shared" si="6"/>
+        <f>($B$14*(E35-1)+2000)/2</f>
         <v>3600</v>
       </c>
       <c r="N35" s="19" t="s">
@@ -3790,7 +3882,7 @@
         <v>3700</v>
       </c>
       <c r="L36" s="11">
-        <f t="shared" si="6"/>
+        <f>($B$14*(E36-1)+2000)/2</f>
         <v>3700</v>
       </c>
       <c r="N36" s="19" t="s">
@@ -3846,7 +3938,7 @@
         <v>3800</v>
       </c>
       <c r="L37" s="11">
-        <f t="shared" si="6"/>
+        <f>($B$14*(E37-1)+2000)/2</f>
         <v>3800</v>
       </c>
       <c r="N37" s="19" t="s">
@@ -3902,7 +3994,7 @@
         <v>3900</v>
       </c>
       <c r="L38" s="11">
-        <f t="shared" si="6"/>
+        <f>($B$14*(E38-1)+2000)/2</f>
         <v>3900</v>
       </c>
       <c r="N38" s="19" t="s">
@@ -3958,7 +4050,7 @@
         <v>4000</v>
       </c>
       <c r="L39" s="11">
-        <f t="shared" ref="L39" si="16">($B$14*(E39-1)+2000)/2</f>
+        <f>($B$14*(E39-1)+2000)/2</f>
         <v>4000</v>
       </c>
       <c r="N39" s="19" t="s">
@@ -3968,11 +4060,11 @@
         <v>128</v>
       </c>
       <c r="P39" s="20">
-        <f t="shared" ref="P39:P40" si="17">POWER(10,O39)</f>
+        <f t="shared" ref="P39:P40" si="16">POWER(10,O39)</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="Q39" s="20" t="str">
-        <f t="shared" ref="Q39:Q40" si="18">RIGHT(P39,O39)</f>
+        <f t="shared" ref="Q39:Q40" si="17">RIGHT(P39,O39)</f>
         <v>1E+128</v>
       </c>
     </row>
@@ -4002,11 +4094,11 @@
       </c>
       <c r="K40" s="17">
         <f>L40</f>
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="L40" s="11">
-        <f>L39+200</f>
-        <v>4200</v>
+        <f>($B$14*(E40-1)+2000)/2</f>
+        <v>4100</v>
       </c>
       <c r="N40" s="19" t="s">
         <v>65</v>
@@ -4014,12 +4106,12 @@
       <c r="O40" s="19">
         <v>132</v>
       </c>
-      <c r="P40" s="9">
-        <f t="shared" si="17"/>
+      <c r="P40" s="20">
+        <f t="shared" ref="P40:P41" si="18">POWER(10,O40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
-      <c r="Q40" s="9" t="str">
-        <f t="shared" si="18"/>
+      <c r="Q40" s="20" t="str">
+        <f t="shared" ref="Q40:Q41" si="19">RIGHT(P40,O40)</f>
         <v>1E+132</v>
       </c>
     </row>
@@ -4028,11 +4120,11 @@
         <v>33</v>
       </c>
       <c r="F41" s="20" t="str">
-        <f t="shared" ref="F41:F42" si="19">H41&amp;I41</f>
+        <f t="shared" ref="F41:F44" si="20">H41&amp;I41</f>
         <v>1.376설</v>
       </c>
       <c r="G41" s="20">
-        <f t="shared" ref="G41:G42" si="20">H41*J41</f>
+        <f t="shared" ref="G41:G44" si="21">H41*J41</f>
         <v>1.3759999999999999E+132</v>
       </c>
       <c r="H41" s="20">
@@ -4044,16 +4136,30 @@
         <v>설</v>
       </c>
       <c r="J41" s="19" t="str">
-        <f t="shared" ref="J41:J42" si="21">VLOOKUP(I41,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J41:J44" si="22">VLOOKUP(I41,N:Q,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K41" s="17">
-        <f t="shared" ref="K41:K42" si="22">L41</f>
+        <f>L41</f>
         <v>4200</v>
       </c>
       <c r="L41" s="11">
-        <f t="shared" ref="L41:L42" si="23">($B$14*(E41-1)+2000)/2</f>
+        <f>($B$14*(E41-1)+2000)/2</f>
         <v>4200</v>
+      </c>
+      <c r="N41" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="O41" s="19">
+        <v>136</v>
+      </c>
+      <c r="P41" s="20">
+        <f t="shared" si="18"/>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="Q41" s="20" t="str">
+        <f t="shared" si="19"/>
+        <v>1E+136</v>
       </c>
     </row>
     <row r="42" spans="5:26" x14ac:dyDescent="0.3">
@@ -4061,11 +4167,11 @@
         <v>34</v>
       </c>
       <c r="F42" s="20" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>138.976설</v>
       </c>
       <c r="G42" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.3897599999999999E+134</v>
       </c>
       <c r="H42" s="20">
@@ -4077,17 +4183,128 @@
         <v>설</v>
       </c>
       <c r="J42" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K42" s="17">
+        <f t="shared" ref="K41:K44" si="23">L42</f>
+        <v>4300</v>
+      </c>
+      <c r="L42" s="11">
+        <f t="shared" ref="L41:L44" si="24">($B$14*(E42-1)+2000)/2</f>
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="43" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E43" s="19">
+        <v>35</v>
+      </c>
+      <c r="F43" s="20" t="str">
+        <f t="shared" si="20"/>
+        <v>1.4037적</v>
+      </c>
+      <c r="G43" s="20">
         <f t="shared" si="21"/>
-        <v>1E+132</v>
-      </c>
-      <c r="K42" s="17">
+        <v>1.4037E+136</v>
+      </c>
+      <c r="H43" s="20">
+        <f t="shared" si="7"/>
+        <v>1.4036999999999999</v>
+      </c>
+      <c r="I43" s="19" t="str" cm="1">
+        <f t="array" ref="I43">IF(AND(H42&gt;100,H43&lt;100),INDEX(N:N,MATCH(I42,N:N,0)+1,0),I42)</f>
+        <v>적</v>
+      </c>
+      <c r="J43" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>4300</v>
-      </c>
-      <c r="L42" s="11">
+        <v>1E+136</v>
+      </c>
+      <c r="K43" s="17">
         <f t="shared" si="23"/>
-        <v>4300</v>
-      </c>
+        <v>4400</v>
+      </c>
+      <c r="L43" s="11">
+        <f t="shared" si="24"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="44" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E44" s="19">
+        <v>36</v>
+      </c>
+      <c r="F44" s="20" t="str">
+        <f t="shared" si="20"/>
+        <v>141.7737적</v>
+      </c>
+      <c r="G44" s="20">
+        <f t="shared" si="21"/>
+        <v>1.4177369999999999E+138</v>
+      </c>
+      <c r="H44" s="20">
+        <f t="shared" si="7"/>
+        <v>141.77369999999999</v>
+      </c>
+      <c r="I44" s="19" t="str" cm="1">
+        <f t="array" ref="I44">IF(AND(H43&gt;100,H44&lt;100),INDEX(N:N,MATCH(I43,N:N,0)+1,0),I43)</f>
+        <v>적</v>
+      </c>
+      <c r="J44" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K44" s="17">
+        <f t="shared" si="23"/>
+        <v>4500</v>
+      </c>
+      <c r="L44" s="11">
+        <f t="shared" si="24"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="45" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="17"/>
+    </row>
+    <row r="46" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="17"/>
+    </row>
+    <row r="47" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E47" s="19"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="17"/>
+    </row>
+    <row r="48" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E48" s="19"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="17"/>
+    </row>
+    <row r="49" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E49" s="19"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7137E6-6FCC-4ED7-BE02-B25E64E4D51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00007B9D-C71B-4B52-BD7D-02C07BF1B83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxTower" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,6 +323,10 @@
   </si>
   <si>
     <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2359,9 +2363,91 @@
         <v>4500</v>
       </c>
     </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>9026</v>
+      </c>
+      <c r="D38">
+        <f>VLOOKUP(A38+1,balacne!E:L,7,FALSE)</f>
+        <v>4600</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <f>VLOOKUP(A38+1,balacne!E:L,3,FALSE)</f>
+        <v>1.432E+140</v>
+      </c>
+      <c r="G38">
+        <v>1000</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>9200</v>
+      </c>
+      <c r="K38">
+        <v>9026</v>
+      </c>
+      <c r="L38">
+        <f>VLOOKUP(A38+1,balacne!E:L,8,FALSE)</f>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>9026</v>
+      </c>
+      <c r="D39">
+        <f>VLOOKUP(A39+1,balacne!E:L,7,FALSE)</f>
+        <v>4700</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <f>VLOOKUP(A39+1,balacne!E:L,3,FALSE)</f>
+        <v>1.4463200000000002E+142</v>
+      </c>
+      <c r="G39">
+        <v>1000</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>9400</v>
+      </c>
+      <c r="K39">
+        <v>9026</v>
+      </c>
+      <c r="L39">
+        <f>VLOOKUP(A39+1,balacne!E:L,8,FALSE)</f>
+        <v>4700</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K37">
+  <conditionalFormatting sqref="A2:K39">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2374,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2605,7 +2691,7 @@
         <v>1100</v>
       </c>
       <c r="L10" s="11">
-        <f t="shared" ref="L10:L38" si="6">($B$14*(E10-1)+2000)/2</f>
+        <f t="shared" ref="L10:L33" si="6">($B$14*(E10-1)+2000)/2</f>
         <v>1100</v>
       </c>
       <c r="N10" s="19" t="s">
@@ -2637,7 +2723,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H49" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H46" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -3770,7 +3856,7 @@
         <v>3500</v>
       </c>
       <c r="L34" s="11">
-        <f>($B$14*(E34-1)+2000)/2</f>
+        <f t="shared" ref="L34:L41" si="11">($B$14*(E34-1)+2000)/2</f>
         <v>3500</v>
       </c>
       <c r="N34" s="19" t="s">
@@ -3826,7 +3912,7 @@
         <v>3600</v>
       </c>
       <c r="L35" s="11">
-        <f>($B$14*(E35-1)+2000)/2</f>
+        <f t="shared" si="11"/>
         <v>3600</v>
       </c>
       <c r="N35" s="19" t="s">
@@ -3836,11 +3922,11 @@
         <v>112</v>
       </c>
       <c r="P35" s="20">
-        <f t="shared" ref="P35:P38" si="11">POWER(10,O35)</f>
+        <f t="shared" ref="P35:P38" si="12">POWER(10,O35)</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="Q35" s="20" t="str">
-        <f t="shared" ref="Q35:Q38" si="12">RIGHT(P35,O35)</f>
+        <f t="shared" ref="Q35:Q38" si="13">RIGHT(P35,O35)</f>
         <v>1E+112</v>
       </c>
       <c r="R35" s="11"/>
@@ -3882,7 +3968,7 @@
         <v>3700</v>
       </c>
       <c r="L36" s="11">
-        <f>($B$14*(E36-1)+2000)/2</f>
+        <f t="shared" si="11"/>
         <v>3700</v>
       </c>
       <c r="N36" s="19" t="s">
@@ -3892,11 +3978,11 @@
         <v>116</v>
       </c>
       <c r="P36" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1E+116</v>
       </c>
       <c r="Q36" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1E+116</v>
       </c>
       <c r="R36" s="11"/>
@@ -3938,7 +4024,7 @@
         <v>3800</v>
       </c>
       <c r="L37" s="11">
-        <f>($B$14*(E37-1)+2000)/2</f>
+        <f t="shared" si="11"/>
         <v>3800</v>
       </c>
       <c r="N37" s="19" t="s">
@@ -3948,11 +4034,11 @@
         <v>120</v>
       </c>
       <c r="P37" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="Q37" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1E+120</v>
       </c>
       <c r="R37" s="11"/>
@@ -3994,7 +4080,7 @@
         <v>3900</v>
       </c>
       <c r="L38" s="11">
-        <f>($B$14*(E38-1)+2000)/2</f>
+        <f t="shared" si="11"/>
         <v>3900</v>
       </c>
       <c r="N38" s="19" t="s">
@@ -4004,11 +4090,11 @@
         <v>124</v>
       </c>
       <c r="P38" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="Q38" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1E+124</v>
       </c>
       <c r="R38" s="11"/>
@@ -4026,11 +4112,11 @@
         <v>31</v>
       </c>
       <c r="F39" s="20" t="str">
-        <f t="shared" ref="F39" si="13">H39&amp;I39</f>
+        <f t="shared" ref="F39" si="14">H39&amp;I39</f>
         <v>1.3488위</v>
       </c>
       <c r="G39" s="20">
-        <f t="shared" ref="G39" si="14">H39*J39</f>
+        <f t="shared" ref="G39" si="15">H39*J39</f>
         <v>1.3488000000000002E+128</v>
       </c>
       <c r="H39" s="20">
@@ -4046,11 +4132,11 @@
         <v>1E+128</v>
       </c>
       <c r="K39" s="17">
-        <f t="shared" ref="K39" si="15">L39</f>
+        <f t="shared" ref="K39" si="16">L39</f>
         <v>4000</v>
       </c>
       <c r="L39" s="11">
-        <f>($B$14*(E39-1)+2000)/2</f>
+        <f t="shared" si="11"/>
         <v>4000</v>
       </c>
       <c r="N39" s="19" t="s">
@@ -4060,11 +4146,11 @@
         <v>128</v>
       </c>
       <c r="P39" s="20">
-        <f t="shared" ref="P39:P40" si="16">POWER(10,O39)</f>
+        <f t="shared" ref="P39" si="17">POWER(10,O39)</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="Q39" s="20" t="str">
-        <f t="shared" ref="Q39:Q40" si="17">RIGHT(P39,O39)</f>
+        <f t="shared" ref="Q39" si="18">RIGHT(P39,O39)</f>
         <v>1E+128</v>
       </c>
     </row>
@@ -4097,7 +4183,7 @@
         <v>4100</v>
       </c>
       <c r="L40" s="11">
-        <f>($B$14*(E40-1)+2000)/2</f>
+        <f t="shared" si="11"/>
         <v>4100</v>
       </c>
       <c r="N40" s="19" t="s">
@@ -4107,11 +4193,11 @@
         <v>132</v>
       </c>
       <c r="P40" s="20">
-        <f t="shared" ref="P40:P41" si="18">POWER(10,O40)</f>
+        <f t="shared" ref="P40:P41" si="19">POWER(10,O40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="Q40" s="20" t="str">
-        <f t="shared" ref="Q40:Q41" si="19">RIGHT(P40,O40)</f>
+        <f t="shared" ref="Q40:Q41" si="20">RIGHT(P40,O40)</f>
         <v>1E+132</v>
       </c>
     </row>
@@ -4120,11 +4206,11 @@
         <v>33</v>
       </c>
       <c r="F41" s="20" t="str">
-        <f t="shared" ref="F41:F44" si="20">H41&amp;I41</f>
+        <f t="shared" ref="F41:F44" si="21">H41&amp;I41</f>
         <v>1.376설</v>
       </c>
       <c r="G41" s="20">
-        <f t="shared" ref="G41:G44" si="21">H41*J41</f>
+        <f t="shared" ref="G41:G44" si="22">H41*J41</f>
         <v>1.3759999999999999E+132</v>
       </c>
       <c r="H41" s="20">
@@ -4136,7 +4222,7 @@
         <v>설</v>
       </c>
       <c r="J41" s="19" t="str">
-        <f t="shared" ref="J41:J44" si="22">VLOOKUP(I41,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J41:J44" si="23">VLOOKUP(I41,N:Q,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K41" s="17">
@@ -4144,7 +4230,7 @@
         <v>4200</v>
       </c>
       <c r="L41" s="11">
-        <f>($B$14*(E41-1)+2000)/2</f>
+        <f t="shared" si="11"/>
         <v>4200</v>
       </c>
       <c r="N41" s="19" t="s">
@@ -4154,11 +4240,11 @@
         <v>136</v>
       </c>
       <c r="P41" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="Q41" s="20" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1E+136</v>
       </c>
     </row>
@@ -4167,11 +4253,11 @@
         <v>34</v>
       </c>
       <c r="F42" s="20" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>138.976설</v>
       </c>
       <c r="G42" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.3897599999999999E+134</v>
       </c>
       <c r="H42" s="20">
@@ -4183,16 +4269,30 @@
         <v>설</v>
       </c>
       <c r="J42" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1E+132</v>
       </c>
       <c r="K42" s="17">
-        <f t="shared" ref="K41:K44" si="23">L42</f>
+        <f t="shared" ref="K42:K44" si="24">L42</f>
         <v>4300</v>
       </c>
       <c r="L42" s="11">
-        <f t="shared" ref="L41:L44" si="24">($B$14*(E42-1)+2000)/2</f>
+        <f t="shared" ref="L42:L44" si="25">($B$14*(E42-1)+2000)/2</f>
         <v>4300</v>
+      </c>
+      <c r="N42" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="O42" s="19">
+        <v>140</v>
+      </c>
+      <c r="P42" s="20">
+        <f t="shared" ref="P42" si="26">POWER(10,O42)</f>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="Q42" s="20" t="str">
+        <f t="shared" ref="Q42" si="27">RIGHT(P42,O42)</f>
+        <v>1E+140</v>
       </c>
     </row>
     <row r="43" spans="5:26" x14ac:dyDescent="0.3">
@@ -4200,11 +4300,11 @@
         <v>35</v>
       </c>
       <c r="F43" s="20" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.4037적</v>
       </c>
       <c r="G43" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.4037E+136</v>
       </c>
       <c r="H43" s="20">
@@ -4216,15 +4316,15 @@
         <v>적</v>
       </c>
       <c r="J43" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1E+136</v>
       </c>
       <c r="K43" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4400</v>
       </c>
       <c r="L43" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4400</v>
       </c>
     </row>
@@ -4233,11 +4333,11 @@
         <v>36</v>
       </c>
       <c r="F44" s="20" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>141.7737적</v>
       </c>
       <c r="G44" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.4177369999999999E+138</v>
       </c>
       <c r="H44" s="20">
@@ -4249,35 +4349,83 @@
         <v>적</v>
       </c>
       <c r="J44" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1E+136</v>
       </c>
       <c r="K44" s="17">
-        <f t="shared" si="23"/>
-        <v>4500</v>
-      </c>
-      <c r="L44" s="11">
         <f t="shared" si="24"/>
         <v>4500</v>
       </c>
+      <c r="L44" s="11">
+        <f t="shared" si="25"/>
+        <v>4500</v>
+      </c>
     </row>
     <row r="45" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E45" s="19"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="17"/>
+      <c r="E45" s="19">
+        <v>37</v>
+      </c>
+      <c r="F45" s="20" t="str">
+        <f t="shared" ref="F45:F46" si="28">H45&amp;I45</f>
+        <v>1.432고</v>
+      </c>
+      <c r="G45" s="20">
+        <f t="shared" ref="G45:G46" si="29">H45*J45</f>
+        <v>1.432E+140</v>
+      </c>
+      <c r="H45" s="20">
+        <f t="shared" si="7"/>
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="I45" s="19" t="str" cm="1">
+        <f t="array" ref="I45">IF(AND(H44&gt;100,H45&lt;100),INDEX(N:N,MATCH(I44,N:N,0)+1,0),I44)</f>
+        <v>고</v>
+      </c>
+      <c r="J45" s="19" t="str">
+        <f t="shared" ref="J45:J46" si="30">VLOOKUP(I45,N:Q,4,FALSE)</f>
+        <v>1E+140</v>
+      </c>
+      <c r="K45" s="17">
+        <f t="shared" ref="K45:K46" si="31">L45</f>
+        <v>4600</v>
+      </c>
+      <c r="L45" s="11">
+        <f t="shared" ref="L45:L46" si="32">($B$14*(E45-1)+2000)/2</f>
+        <v>4600</v>
+      </c>
     </row>
     <row r="46" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="17"/>
+      <c r="E46" s="19">
+        <v>38</v>
+      </c>
+      <c r="F46" s="20" t="str">
+        <f t="shared" si="28"/>
+        <v>144.632고</v>
+      </c>
+      <c r="G46" s="20">
+        <f t="shared" si="29"/>
+        <v>1.4463200000000002E+142</v>
+      </c>
+      <c r="H46" s="20">
+        <f t="shared" si="7"/>
+        <v>144.63200000000001</v>
+      </c>
+      <c r="I46" s="19" t="str" cm="1">
+        <f t="array" ref="I46">IF(AND(H45&gt;100,H46&lt;100),INDEX(N:N,MATCH(I45,N:N,0)+1,0),I45)</f>
+        <v>고</v>
+      </c>
+      <c r="J46" s="19" t="str">
+        <f t="shared" si="30"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K46" s="17">
+        <f t="shared" si="31"/>
+        <v>4700</v>
+      </c>
+      <c r="L46" s="11">
+        <f t="shared" si="32"/>
+        <v>4700</v>
+      </c>
     </row>
     <row r="47" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E47" s="19"/>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00007B9D-C71B-4B52-BD7D-02C07BF1B83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F181831F-515F-464A-9072-310A44CA54BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxTower" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,10 @@
   </si>
   <si>
     <t>고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -919,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2445,9 +2449,91 @@
         <v>4700</v>
       </c>
     </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>9026</v>
+      </c>
+      <c r="D40">
+        <f>VLOOKUP(A40+1,balacne!E:L,7,FALSE)</f>
+        <v>4800</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <f>VLOOKUP(A40+1,balacne!E:L,3,FALSE)</f>
+        <v>1.4608000000000002E+144</v>
+      </c>
+      <c r="G40">
+        <v>1000</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>9600</v>
+      </c>
+      <c r="K40">
+        <v>9026</v>
+      </c>
+      <c r="L40">
+        <f>VLOOKUP(A40+1,balacne!E:L,8,FALSE)</f>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>9026</v>
+      </c>
+      <c r="D41">
+        <f>VLOOKUP(A41+1,balacne!E:L,7,FALSE)</f>
+        <v>4900</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <f>VLOOKUP(A41+1,balacne!E:L,3,FALSE)</f>
+        <v>1.4754079999999999E+146</v>
+      </c>
+      <c r="G41">
+        <v>1000</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>9800</v>
+      </c>
+      <c r="K41">
+        <v>9026</v>
+      </c>
+      <c r="L41">
+        <f>VLOOKUP(A41+1,balacne!E:L,8,FALSE)</f>
+        <v>4900</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K39">
+  <conditionalFormatting sqref="A2:K41">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2461,7 +2547,7 @@
   <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2723,7 +2809,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H46" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H49" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -4327,6 +4413,20 @@
         <f t="shared" si="25"/>
         <v>4400</v>
       </c>
+      <c r="N43" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O43" s="19">
+        <v>144</v>
+      </c>
+      <c r="P43" s="20">
+        <f t="shared" ref="P43" si="28">POWER(10,O43)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="Q43" s="20" t="str">
+        <f t="shared" ref="Q43" si="29">RIGHT(P43,O43)</f>
+        <v>1E+144</v>
+      </c>
     </row>
     <row r="44" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E44" s="19">
@@ -4366,11 +4466,11 @@
         <v>37</v>
       </c>
       <c r="F45" s="20" t="str">
-        <f t="shared" ref="F45:F46" si="28">H45&amp;I45</f>
+        <f t="shared" ref="F45:F49" si="30">H45&amp;I45</f>
         <v>1.432고</v>
       </c>
       <c r="G45" s="20">
-        <f t="shared" ref="G45:G46" si="29">H45*J45</f>
+        <f t="shared" ref="G45:G49" si="31">H45*J45</f>
         <v>1.432E+140</v>
       </c>
       <c r="H45" s="20">
@@ -4382,15 +4482,15 @@
         <v>고</v>
       </c>
       <c r="J45" s="19" t="str">
-        <f t="shared" ref="J45:J46" si="30">VLOOKUP(I45,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J45:J49" si="32">VLOOKUP(I45,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K45" s="17">
-        <f t="shared" ref="K45:K46" si="31">L45</f>
+        <f t="shared" ref="K45:K49" si="33">L45</f>
         <v>4600</v>
       </c>
       <c r="L45" s="11">
-        <f t="shared" ref="L45:L46" si="32">($B$14*(E45-1)+2000)/2</f>
+        <f t="shared" ref="L45:L49" si="34">($B$14*(E45-1)+2000)/2</f>
         <v>4600</v>
       </c>
     </row>
@@ -4399,11 +4499,11 @@
         <v>38</v>
       </c>
       <c r="F46" s="20" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>144.632고</v>
       </c>
       <c r="G46" s="20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.4463200000000002E+142</v>
       </c>
       <c r="H46" s="20">
@@ -4415,35 +4515,83 @@
         <v>고</v>
       </c>
       <c r="J46" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K46" s="17">
+        <f t="shared" si="33"/>
+        <v>4700</v>
+      </c>
+      <c r="L46" s="11">
+        <f t="shared" si="34"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="47" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E47" s="19">
+        <v>39</v>
+      </c>
+      <c r="F47" s="20" t="str">
         <f t="shared" si="30"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K46" s="17">
+        <v>1.4608화</v>
+      </c>
+      <c r="G47" s="20">
         <f t="shared" si="31"/>
-        <v>4700</v>
-      </c>
-      <c r="L46" s="11">
+        <v>1.4608000000000002E+144</v>
+      </c>
+      <c r="H47" s="20">
+        <f t="shared" si="7"/>
+        <v>1.4608000000000001</v>
+      </c>
+      <c r="I47" s="19" t="str" cm="1">
+        <f t="array" ref="I47">IF(AND(H46&gt;100,H47&lt;100),INDEX(N:N,MATCH(I46,N:N,0)+1,0),I46)</f>
+        <v>화</v>
+      </c>
+      <c r="J47" s="19" t="str">
         <f t="shared" si="32"/>
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="47" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E47" s="19"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="17"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K47" s="17">
+        <f t="shared" si="33"/>
+        <v>4800</v>
+      </c>
+      <c r="L47" s="11">
+        <f t="shared" si="34"/>
+        <v>4800</v>
+      </c>
     </row>
     <row r="48" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E48" s="19"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="17"/>
+      <c r="E48" s="19">
+        <v>40</v>
+      </c>
+      <c r="F48" s="20" t="str">
+        <f t="shared" si="30"/>
+        <v>147.5408화</v>
+      </c>
+      <c r="G48" s="20">
+        <f t="shared" si="31"/>
+        <v>1.4754079999999999E+146</v>
+      </c>
+      <c r="H48" s="20">
+        <f t="shared" si="7"/>
+        <v>147.54079999999999</v>
+      </c>
+      <c r="I48" s="19" t="str" cm="1">
+        <f t="array" ref="I48">IF(AND(H47&gt;100,H48&lt;100),INDEX(N:N,MATCH(I47,N:N,0)+1,0),I47)</f>
+        <v>화</v>
+      </c>
+      <c r="J48" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K48" s="17">
+        <f t="shared" si="33"/>
+        <v>4900</v>
+      </c>
+      <c r="L48" s="11">
+        <f t="shared" si="34"/>
+        <v>4900</v>
+      </c>
     </row>
     <row r="49" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E49" s="19"/>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F181831F-515F-464A-9072-310A44CA54BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770E2284-52B2-4655-B10E-8BFE023090AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +331,18 @@
   </si>
   <si>
     <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2531,9 +2543,91 @@
         <v>4900</v>
       </c>
     </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>9026</v>
+      </c>
+      <c r="D42">
+        <f>VLOOKUP(A42+1,balacne!E:L,7,FALSE)</f>
+        <v>5000</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <f>VLOOKUP(A42+1,balacne!E:L,3,FALSE)</f>
+        <v>1.4901999999999999E+148</v>
+      </c>
+      <c r="G42">
+        <v>1000</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>10000</v>
+      </c>
+      <c r="K42">
+        <v>9026</v>
+      </c>
+      <c r="L42">
+        <f>VLOOKUP(A42+1,balacne!E:L,8,FALSE)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>9026</v>
+      </c>
+      <c r="D43">
+        <f>VLOOKUP(A43+1,balacne!E:L,7,FALSE)</f>
+        <v>5100</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <f>VLOOKUP(A43+1,balacne!E:L,3,FALSE)</f>
+        <v>1.505102E+150</v>
+      </c>
+      <c r="G43">
+        <v>1000</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>10200</v>
+      </c>
+      <c r="K43">
+        <v>9026</v>
+      </c>
+      <c r="L43">
+        <f>VLOOKUP(A43+1,balacne!E:L,8,FALSE)</f>
+        <v>5100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K41">
+  <conditionalFormatting sqref="A2:K43">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2544,10 +2638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2809,7 +2903,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H49" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H52" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -4460,17 +4554,31 @@
         <f t="shared" si="25"/>
         <v>4500</v>
       </c>
+      <c r="N44" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O44" s="19">
+        <v>148</v>
+      </c>
+      <c r="P44" s="20">
+        <f t="shared" ref="P44:P45" si="30">POWER(10,O44)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="Q44" s="20" t="str">
+        <f t="shared" ref="Q44:Q45" si="31">RIGHT(P44,O44)</f>
+        <v>1E+148</v>
+      </c>
     </row>
     <row r="45" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E45" s="19">
         <v>37</v>
       </c>
       <c r="F45" s="20" t="str">
-        <f t="shared" ref="F45:F49" si="30">H45&amp;I45</f>
+        <f t="shared" ref="F45:F48" si="32">H45&amp;I45</f>
         <v>1.432고</v>
       </c>
       <c r="G45" s="20">
-        <f t="shared" ref="G45:G49" si="31">H45*J45</f>
+        <f t="shared" ref="G45:G48" si="33">H45*J45</f>
         <v>1.432E+140</v>
       </c>
       <c r="H45" s="20">
@@ -4482,16 +4590,30 @@
         <v>고</v>
       </c>
       <c r="J45" s="19" t="str">
-        <f t="shared" ref="J45:J49" si="32">VLOOKUP(I45,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J45:J48" si="34">VLOOKUP(I45,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K45" s="17">
-        <f t="shared" ref="K45:K49" si="33">L45</f>
+        <f t="shared" ref="K45:K48" si="35">L45</f>
         <v>4600</v>
       </c>
       <c r="L45" s="11">
-        <f t="shared" ref="L45:L49" si="34">($B$14*(E45-1)+2000)/2</f>
+        <f t="shared" ref="L45:L48" si="36">($B$14*(E45-1)+2000)/2</f>
         <v>4600</v>
+      </c>
+      <c r="N45" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O45" s="19">
+        <v>152</v>
+      </c>
+      <c r="P45" s="20">
+        <f t="shared" ref="P45" si="37">POWER(10,O45)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="Q45" s="20" t="str">
+        <f t="shared" ref="Q45" si="38">RIGHT(P45,O45)</f>
+        <v>1E+152</v>
       </c>
     </row>
     <row r="46" spans="5:26" x14ac:dyDescent="0.3">
@@ -4499,11 +4621,11 @@
         <v>38</v>
       </c>
       <c r="F46" s="20" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>144.632고</v>
       </c>
       <c r="G46" s="20">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.4463200000000002E+142</v>
       </c>
       <c r="H46" s="20">
@@ -4515,16 +4637,30 @@
         <v>고</v>
       </c>
       <c r="J46" s="19" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+140</v>
       </c>
       <c r="K46" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4700</v>
       </c>
       <c r="L46" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4700</v>
+      </c>
+      <c r="N46" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O46" s="19">
+        <v>156</v>
+      </c>
+      <c r="P46" s="20">
+        <f t="shared" ref="P46" si="39">POWER(10,O46)</f>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="Q46" s="20" t="str">
+        <f t="shared" ref="Q46" si="40">RIGHT(P46,O46)</f>
+        <v>1E+156</v>
       </c>
     </row>
     <row r="47" spans="5:26" x14ac:dyDescent="0.3">
@@ -4532,11 +4668,11 @@
         <v>39</v>
       </c>
       <c r="F47" s="20" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.4608화</v>
       </c>
       <c r="G47" s="20">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.4608000000000002E+144</v>
       </c>
       <c r="H47" s="20">
@@ -4548,15 +4684,15 @@
         <v>화</v>
       </c>
       <c r="J47" s="19" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+144</v>
       </c>
       <c r="K47" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4800</v>
       </c>
       <c r="L47" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4800</v>
       </c>
     </row>
@@ -4565,11 +4701,11 @@
         <v>40</v>
       </c>
       <c r="F48" s="20" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>147.5408화</v>
       </c>
       <c r="G48" s="20">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.4754079999999999E+146</v>
       </c>
       <c r="H48" s="20">
@@ -4581,26 +4717,149 @@
         <v>화</v>
       </c>
       <c r="J48" s="19" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+144</v>
       </c>
       <c r="K48" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4900</v>
       </c>
       <c r="L48" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4900</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E49" s="19"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="17"/>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E49" s="19">
+        <v>41</v>
+      </c>
+      <c r="F49" s="20" t="str">
+        <f t="shared" ref="F49:F52" si="41">H49&amp;I49</f>
+        <v>1.4902명</v>
+      </c>
+      <c r="G49" s="20">
+        <f t="shared" ref="G49:G52" si="42">H49*J49</f>
+        <v>1.4901999999999999E+148</v>
+      </c>
+      <c r="H49" s="20">
+        <f t="shared" si="7"/>
+        <v>1.4902</v>
+      </c>
+      <c r="I49" s="19" t="str" cm="1">
+        <f t="array" ref="I49">IF(AND(H48&gt;100,H49&lt;100),INDEX(N:N,MATCH(I48,N:N,0)+1,0),I48)</f>
+        <v>명</v>
+      </c>
+      <c r="J49" s="19" t="str">
+        <f t="shared" ref="J49:J52" si="43">VLOOKUP(I49,N:Q,4,FALSE)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="K49" s="17">
+        <f t="shared" ref="K49:K52" si="44">L49</f>
+        <v>5000</v>
+      </c>
+      <c r="L49" s="11">
+        <f t="shared" ref="L49:L52" si="45">($B$14*(E49-1)+2000)/2</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E50" s="19">
+        <v>42</v>
+      </c>
+      <c r="F50" s="20" t="str">
+        <f t="shared" si="41"/>
+        <v>150.5102명</v>
+      </c>
+      <c r="G50" s="20">
+        <f t="shared" si="42"/>
+        <v>1.505102E+150</v>
+      </c>
+      <c r="H50" s="20">
+        <f t="shared" si="7"/>
+        <v>150.5102</v>
+      </c>
+      <c r="I50" s="19" t="str" cm="1">
+        <f t="array" ref="I50">IF(AND(H49&gt;100,H50&lt;100),INDEX(N:N,MATCH(I49,N:N,0)+1,0),I49)</f>
+        <v>명</v>
+      </c>
+      <c r="J50" s="19" t="str">
+        <f t="shared" si="43"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K50" s="17">
+        <f t="shared" si="44"/>
+        <v>5100</v>
+      </c>
+      <c r="L50" s="11">
+        <f t="shared" si="45"/>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E51" s="19">
+        <v>43</v>
+      </c>
+      <c r="F51" s="20" t="str">
+        <f t="shared" si="41"/>
+        <v>1.5202a</v>
+      </c>
+      <c r="G51" s="20">
+        <f t="shared" si="42"/>
+        <v>1.5202000000000001E+152</v>
+      </c>
+      <c r="H51" s="20">
+        <f t="shared" si="7"/>
+        <v>1.5202</v>
+      </c>
+      <c r="I51" s="19" t="str" cm="1">
+        <f t="array" ref="I51">IF(AND(H50&gt;100,H51&lt;100),INDEX(N:N,MATCH(I50,N:N,0)+1,0),I50)</f>
+        <v>a</v>
+      </c>
+      <c r="J51" s="19" t="str">
+        <f t="shared" si="43"/>
+        <v>1E+152</v>
+      </c>
+      <c r="K51" s="17">
+        <f t="shared" si="44"/>
+        <v>5200</v>
+      </c>
+      <c r="L51" s="11">
+        <f t="shared" si="45"/>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E52" s="19">
+        <v>44</v>
+      </c>
+      <c r="F52" s="20" t="str">
+        <f t="shared" si="41"/>
+        <v>153.5402a</v>
+      </c>
+      <c r="G52" s="20">
+        <f t="shared" si="42"/>
+        <v>1.5354020000000001E+154</v>
+      </c>
+      <c r="H52" s="20">
+        <f t="shared" si="7"/>
+        <v>153.5402</v>
+      </c>
+      <c r="I52" s="19" t="str" cm="1">
+        <f t="array" ref="I52">IF(AND(H51&gt;100,H52&lt;100),INDEX(N:N,MATCH(I51,N:N,0)+1,0),I51)</f>
+        <v>a</v>
+      </c>
+      <c r="J52" s="19" t="str">
+        <f t="shared" si="43"/>
+        <v>1E+152</v>
+      </c>
+      <c r="K52" s="17">
+        <f t="shared" si="44"/>
+        <v>5300</v>
+      </c>
+      <c r="L52" s="11">
+        <f t="shared" si="45"/>
+        <v>5300</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770E2284-52B2-4655-B10E-8BFE023090AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A4CFA4-963F-4E4D-9ED7-FF7DB3CC9DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxTower" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,11 +338,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2625,9 +2625,91 @@
         <v>5100</v>
       </c>
     </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>9026</v>
+      </c>
+      <c r="D44">
+        <f>VLOOKUP(A44+1,balacne!E:L,7,FALSE)</f>
+        <v>5200</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <f>VLOOKUP(A44+1,balacne!E:L,3,FALSE)</f>
+        <v>1.5202000000000001E+152</v>
+      </c>
+      <c r="G44">
+        <v>1000</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>10400</v>
+      </c>
+      <c r="K44">
+        <v>9026</v>
+      </c>
+      <c r="L44">
+        <f>VLOOKUP(A44+1,balacne!E:L,8,FALSE)</f>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>9026</v>
+      </c>
+      <c r="D45">
+        <f>VLOOKUP(A45+1,balacne!E:L,7,FALSE)</f>
+        <v>5300</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <f>VLOOKUP(A45+1,balacne!E:L,3,FALSE)</f>
+        <v>1.5354020000000001E+154</v>
+      </c>
+      <c r="G45">
+        <v>1000</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>10600</v>
+      </c>
+      <c r="K45">
+        <v>9026</v>
+      </c>
+      <c r="L45">
+        <f>VLOOKUP(A45+1,balacne!E:L,8,FALSE)</f>
+        <v>5300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K43">
+  <conditionalFormatting sqref="A2:K45">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2641,7 +2723,7 @@
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2903,7 +2985,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H52" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H54" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -4561,11 +4643,11 @@
         <v>148</v>
       </c>
       <c r="P44" s="20">
-        <f t="shared" ref="P44:P45" si="30">POWER(10,O44)</f>
+        <f t="shared" ref="P44" si="30">POWER(10,O44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="20" t="str">
-        <f t="shared" ref="Q44:Q45" si="31">RIGHT(P44,O44)</f>
+        <f t="shared" ref="Q44" si="31">RIGHT(P44,O44)</f>
         <v>1E+148</v>
       </c>
     </row>
@@ -4602,7 +4684,7 @@
         <v>4600</v>
       </c>
       <c r="N45" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O45" s="19">
         <v>152</v>
@@ -4649,7 +4731,7 @@
         <v>4700</v>
       </c>
       <c r="N46" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O46" s="19">
         <v>156</v>
@@ -4734,11 +4816,11 @@
         <v>41</v>
       </c>
       <c r="F49" s="20" t="str">
-        <f t="shared" ref="F49:F52" si="41">H49&amp;I49</f>
+        <f t="shared" ref="F49:F53" si="41">H49&amp;I49</f>
         <v>1.4902명</v>
       </c>
       <c r="G49" s="20">
-        <f t="shared" ref="G49:G52" si="42">H49*J49</f>
+        <f t="shared" ref="G49:G53" si="42">H49*J49</f>
         <v>1.4901999999999999E+148</v>
       </c>
       <c r="H49" s="20">
@@ -4750,15 +4832,15 @@
         <v>명</v>
       </c>
       <c r="J49" s="19" t="str">
-        <f t="shared" ref="J49:J52" si="43">VLOOKUP(I49,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J49:J53" si="43">VLOOKUP(I49,N:Q,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K49" s="17">
-        <f t="shared" ref="K49:K52" si="44">L49</f>
+        <f t="shared" ref="K49:K53" si="44">L49</f>
         <v>5000</v>
       </c>
       <c r="L49" s="11">
-        <f t="shared" ref="L49:L52" si="45">($B$14*(E49-1)+2000)/2</f>
+        <f t="shared" ref="L49:L53" si="45">($B$14*(E49-1)+2000)/2</f>
         <v>5000</v>
       </c>
     </row>
@@ -4801,7 +4883,7 @@
       </c>
       <c r="F51" s="20" t="str">
         <f t="shared" si="41"/>
-        <v>1.5202a</v>
+        <v>1.5202월</v>
       </c>
       <c r="G51" s="20">
         <f t="shared" si="42"/>
@@ -4813,7 +4895,7 @@
       </c>
       <c r="I51" s="19" t="str" cm="1">
         <f t="array" ref="I51">IF(AND(H50&gt;100,H51&lt;100),INDEX(N:N,MATCH(I50,N:N,0)+1,0),I50)</f>
-        <v>a</v>
+        <v>월</v>
       </c>
       <c r="J51" s="19" t="str">
         <f t="shared" si="43"/>
@@ -4834,7 +4916,7 @@
       </c>
       <c r="F52" s="20" t="str">
         <f t="shared" si="41"/>
-        <v>153.5402a</v>
+        <v>153.5402월</v>
       </c>
       <c r="G52" s="20">
         <f t="shared" si="42"/>
@@ -4846,7 +4928,7 @@
       </c>
       <c r="I52" s="19" t="str" cm="1">
         <f t="array" ref="I52">IF(AND(H51&gt;100,H52&lt;100),INDEX(N:N,MATCH(I51,N:N,0)+1,0),I51)</f>
-        <v>a</v>
+        <v>월</v>
       </c>
       <c r="J52" s="19" t="str">
         <f t="shared" si="43"/>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A4CFA4-963F-4E4D-9ED7-FF7DB3CC9DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B3F417-6646-4B57-A0BB-5C1CA0A34DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxTower" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,11 +338,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2707,9 +2711,91 @@
         <v>5300</v>
       </c>
     </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>9026</v>
+      </c>
+      <c r="D46">
+        <f>VLOOKUP(A46+1,balacne!E:L,7,FALSE)</f>
+        <v>5400</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <f>VLOOKUP(A46+1,balacne!E:L,3,FALSE)</f>
+        <v>1.5508E+156</v>
+      </c>
+      <c r="G46">
+        <v>1000</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>10800</v>
+      </c>
+      <c r="K46">
+        <v>9026</v>
+      </c>
+      <c r="L46">
+        <f>VLOOKUP(A46+1,balacne!E:L,8,FALSE)</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>9026</v>
+      </c>
+      <c r="D47">
+        <f>VLOOKUP(A47+1,balacne!E:L,7,FALSE)</f>
+        <v>5500</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <f>VLOOKUP(A47+1,balacne!E:L,3,FALSE)</f>
+        <v>1.5663079999999999E+158</v>
+      </c>
+      <c r="G47">
+        <v>1000</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>11000</v>
+      </c>
+      <c r="K47">
+        <v>9026</v>
+      </c>
+      <c r="L47">
+        <f>VLOOKUP(A47+1,balacne!E:L,8,FALSE)</f>
+        <v>5500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K45">
+  <conditionalFormatting sqref="A2:K47">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2720,10 +2806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z52"/>
+  <dimension ref="A1:Z54"/>
   <sheetViews>
     <sheetView topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2985,7 +3071,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H54" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H55" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -4684,7 +4770,7 @@
         <v>4600</v>
       </c>
       <c r="N45" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O45" s="19">
         <v>152</v>
@@ -4731,7 +4817,7 @@
         <v>4700</v>
       </c>
       <c r="N46" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O46" s="19">
         <v>156</v>
@@ -4777,6 +4863,20 @@
         <f t="shared" si="36"/>
         <v>4800</v>
       </c>
+      <c r="N47" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="O47" s="19">
+        <v>160</v>
+      </c>
+      <c r="P47" s="20">
+        <f t="shared" ref="P47" si="41">POWER(10,O47)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="Q47" s="20" t="str">
+        <f t="shared" ref="Q47" si="42">RIGHT(P47,O47)</f>
+        <v>1E+160</v>
+      </c>
     </row>
     <row r="48" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E48" s="19">
@@ -4816,11 +4916,11 @@
         <v>41</v>
       </c>
       <c r="F49" s="20" t="str">
-        <f t="shared" ref="F49:F53" si="41">H49&amp;I49</f>
+        <f t="shared" ref="F49:F52" si="43">H49&amp;I49</f>
         <v>1.4902명</v>
       </c>
       <c r="G49" s="20">
-        <f t="shared" ref="G49:G53" si="42">H49*J49</f>
+        <f t="shared" ref="G49:G52" si="44">H49*J49</f>
         <v>1.4901999999999999E+148</v>
       </c>
       <c r="H49" s="20">
@@ -4832,15 +4932,15 @@
         <v>명</v>
       </c>
       <c r="J49" s="19" t="str">
-        <f t="shared" ref="J49:J53" si="43">VLOOKUP(I49,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J49:J52" si="45">VLOOKUP(I49,N:Q,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K49" s="17">
-        <f t="shared" ref="K49:K53" si="44">L49</f>
+        <f t="shared" ref="K49:K52" si="46">L49</f>
         <v>5000</v>
       </c>
       <c r="L49" s="11">
-        <f t="shared" ref="L49:L53" si="45">($B$14*(E49-1)+2000)/2</f>
+        <f t="shared" ref="L49:L52" si="47">($B$14*(E49-1)+2000)/2</f>
         <v>5000</v>
       </c>
     </row>
@@ -4849,11 +4949,11 @@
         <v>42</v>
       </c>
       <c r="F50" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>150.5102명</v>
       </c>
       <c r="G50" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1.505102E+150</v>
       </c>
       <c r="H50" s="20">
@@ -4865,15 +4965,15 @@
         <v>명</v>
       </c>
       <c r="J50" s="19" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+148</v>
       </c>
       <c r="K50" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5100</v>
       </c>
       <c r="L50" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>5100</v>
       </c>
     </row>
@@ -4882,11 +4982,11 @@
         <v>43</v>
       </c>
       <c r="F51" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.5202월</v>
       </c>
       <c r="G51" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1.5202000000000001E+152</v>
       </c>
       <c r="H51" s="20">
@@ -4898,15 +4998,15 @@
         <v>월</v>
       </c>
       <c r="J51" s="19" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+152</v>
       </c>
       <c r="K51" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5200</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>5200</v>
       </c>
     </row>
@@ -4915,11 +5015,11 @@
         <v>44</v>
       </c>
       <c r="F52" s="20" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>153.5402월</v>
       </c>
       <c r="G52" s="20">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1.5354020000000001E+154</v>
       </c>
       <c r="H52" s="20">
@@ -4931,16 +5031,82 @@
         <v>월</v>
       </c>
       <c r="J52" s="19" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+152</v>
       </c>
       <c r="K52" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5300</v>
       </c>
       <c r="L52" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>5300</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E53" s="19">
+        <v>45</v>
+      </c>
+      <c r="F53" s="20" t="str">
+        <f t="shared" ref="F53:F55" si="48">H53&amp;I53</f>
+        <v>1.5508후</v>
+      </c>
+      <c r="G53" s="20">
+        <f t="shared" ref="G53:G55" si="49">H53*J53</f>
+        <v>1.5508E+156</v>
+      </c>
+      <c r="H53" s="20">
+        <f t="shared" si="7"/>
+        <v>1.5508</v>
+      </c>
+      <c r="I53" s="19" t="str" cm="1">
+        <f t="array" ref="I53">IF(AND(H52&gt;100,H53&lt;100),INDEX(N:N,MATCH(I52,N:N,0)+1,0),I52)</f>
+        <v>후</v>
+      </c>
+      <c r="J53" s="19" t="str">
+        <f t="shared" ref="J53:J55" si="50">VLOOKUP(I53,N:Q,4,FALSE)</f>
+        <v>1E+156</v>
+      </c>
+      <c r="K53" s="17">
+        <f t="shared" ref="K53:K55" si="51">L53</f>
+        <v>5400</v>
+      </c>
+      <c r="L53" s="11">
+        <f t="shared" ref="L53:L55" si="52">($B$14*(E53-1)+2000)/2</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E54" s="19">
+        <v>46</v>
+      </c>
+      <c r="F54" s="20" t="str">
+        <f t="shared" si="48"/>
+        <v>156.6308후</v>
+      </c>
+      <c r="G54" s="20">
+        <f t="shared" si="49"/>
+        <v>1.5663079999999999E+158</v>
+      </c>
+      <c r="H54" s="20">
+        <f t="shared" si="7"/>
+        <v>156.63079999999999</v>
+      </c>
+      <c r="I54" s="19" t="str" cm="1">
+        <f t="array" ref="I54">IF(AND(H53&gt;100,H54&lt;100),INDEX(N:N,MATCH(I53,N:N,0)+1,0),I53)</f>
+        <v>후</v>
+      </c>
+      <c r="J54" s="19" t="str">
+        <f t="shared" si="50"/>
+        <v>1E+156</v>
+      </c>
+      <c r="K54" s="17">
+        <f t="shared" si="51"/>
+        <v>5500</v>
+      </c>
+      <c r="L54" s="11">
+        <f t="shared" si="52"/>
+        <v>5500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B3F417-6646-4B57-A0BB-5C1CA0A34DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE5042E-6C04-41B2-9BC1-EABB109432F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxTower" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,14 @@
   </si>
   <si>
     <t>단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -939,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2793,9 +2801,91 @@
         <v>5500</v>
       </c>
     </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>9026</v>
+      </c>
+      <c r="D48">
+        <f>VLOOKUP(A48+1,balacne!E:L,7,FALSE)</f>
+        <v>5600</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <f>VLOOKUP(A48+1,balacne!E:L,3,FALSE)</f>
+        <v>1.582E+160</v>
+      </c>
+      <c r="G48">
+        <v>1000</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>11200</v>
+      </c>
+      <c r="K48">
+        <v>9026</v>
+      </c>
+      <c r="L48">
+        <f>VLOOKUP(A48+1,balacne!E:L,8,FALSE)</f>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>9026</v>
+      </c>
+      <c r="D49">
+        <f>VLOOKUP(A49+1,balacne!E:L,7,FALSE)</f>
+        <v>5700</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <f>VLOOKUP(A49+1,balacne!E:L,3,FALSE)</f>
+        <v>1.59782E+162</v>
+      </c>
+      <c r="G49">
+        <v>1000</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>11400</v>
+      </c>
+      <c r="K49">
+        <v>9026</v>
+      </c>
+      <c r="L49">
+        <f>VLOOKUP(A49+1,balacne!E:L,8,FALSE)</f>
+        <v>5700</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K47">
+  <conditionalFormatting sqref="A2:K49">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2806,10 +2896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:Z57"/>
   <sheetViews>
     <sheetView topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+      <selection activeCell="E57" sqref="E57:L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3071,7 +3161,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H55" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H57" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -4910,17 +5000,31 @@
         <f t="shared" si="36"/>
         <v>4900</v>
       </c>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="N48" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="O48" s="19">
+        <v>164</v>
+      </c>
+      <c r="P48" s="20">
+        <f t="shared" ref="P48:P49" si="43">POWER(10,O48)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="Q48" s="20" t="str">
+        <f t="shared" ref="Q48:Q49" si="44">RIGHT(P48,O48)</f>
+        <v>1E+164</v>
+      </c>
+    </row>
+    <row r="49" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E49" s="19">
         <v>41</v>
       </c>
       <c r="F49" s="20" t="str">
-        <f t="shared" ref="F49:F52" si="43">H49&amp;I49</f>
+        <f t="shared" ref="F49:F52" si="45">H49&amp;I49</f>
         <v>1.4902명</v>
       </c>
       <c r="G49" s="20">
-        <f t="shared" ref="G49:G52" si="44">H49*J49</f>
+        <f t="shared" ref="G49:G52" si="46">H49*J49</f>
         <v>1.4901999999999999E+148</v>
       </c>
       <c r="H49" s="20">
@@ -4932,28 +5036,42 @@
         <v>명</v>
       </c>
       <c r="J49" s="19" t="str">
-        <f t="shared" ref="J49:J52" si="45">VLOOKUP(I49,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J49:J52" si="47">VLOOKUP(I49,N:Q,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K49" s="17">
-        <f t="shared" ref="K49:K52" si="46">L49</f>
+        <f t="shared" ref="K49:K52" si="48">L49</f>
         <v>5000</v>
       </c>
       <c r="L49" s="11">
-        <f t="shared" ref="L49:L52" si="47">($B$14*(E49-1)+2000)/2</f>
+        <f t="shared" ref="L49:L52" si="49">($B$14*(E49-1)+2000)/2</f>
         <v>5000</v>
       </c>
-    </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="N49" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="O49" s="19">
+        <v>168</v>
+      </c>
+      <c r="P49" s="20">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="Q49" s="20" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+168</v>
+      </c>
+    </row>
+    <row r="50" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E50" s="19">
         <v>42</v>
       </c>
       <c r="F50" s="20" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>150.5102명</v>
       </c>
       <c r="G50" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.505102E+150</v>
       </c>
       <c r="H50" s="20">
@@ -4965,28 +5083,28 @@
         <v>명</v>
       </c>
       <c r="J50" s="19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+148</v>
       </c>
       <c r="K50" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>5100</v>
       </c>
       <c r="L50" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>5100</v>
       </c>
     </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E51" s="19">
         <v>43</v>
       </c>
       <c r="F51" s="20" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.5202월</v>
       </c>
       <c r="G51" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.5202000000000001E+152</v>
       </c>
       <c r="H51" s="20">
@@ -4998,28 +5116,28 @@
         <v>월</v>
       </c>
       <c r="J51" s="19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+152</v>
       </c>
       <c r="K51" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>5200</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>5200</v>
       </c>
     </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E52" s="19">
         <v>44</v>
       </c>
       <c r="F52" s="20" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>153.5402월</v>
       </c>
       <c r="G52" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.5354020000000001E+154</v>
       </c>
       <c r="H52" s="20">
@@ -5031,28 +5149,28 @@
         <v>월</v>
       </c>
       <c r="J52" s="19" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+152</v>
       </c>
       <c r="K52" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>5300</v>
       </c>
       <c r="L52" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>5300</v>
       </c>
     </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E53" s="19">
         <v>45</v>
       </c>
       <c r="F53" s="20" t="str">
-        <f t="shared" ref="F53:F55" si="48">H53&amp;I53</f>
+        <f t="shared" ref="F53:F57" si="50">H53&amp;I53</f>
         <v>1.5508후</v>
       </c>
       <c r="G53" s="20">
-        <f t="shared" ref="G53:G55" si="49">H53*J53</f>
+        <f t="shared" ref="G53:G57" si="51">H53*J53</f>
         <v>1.5508E+156</v>
       </c>
       <c r="H53" s="20">
@@ -5064,28 +5182,28 @@
         <v>후</v>
       </c>
       <c r="J53" s="19" t="str">
-        <f t="shared" ref="J53:J55" si="50">VLOOKUP(I53,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J53:J57" si="52">VLOOKUP(I53,N:Q,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K53" s="17">
-        <f t="shared" ref="K53:K55" si="51">L53</f>
+        <f t="shared" ref="K53:K57" si="53">L53</f>
         <v>5400</v>
       </c>
       <c r="L53" s="11">
-        <f t="shared" ref="L53:L55" si="52">($B$14*(E53-1)+2000)/2</f>
+        <f t="shared" ref="L53:L57" si="54">($B$14*(E53-1)+2000)/2</f>
         <v>5400</v>
       </c>
     </row>
-    <row r="54" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E54" s="19">
         <v>46</v>
       </c>
       <c r="F54" s="20" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>156.6308후</v>
       </c>
       <c r="G54" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.5663079999999999E+158</v>
       </c>
       <c r="H54" s="20">
@@ -5097,17 +5215,92 @@
         <v>후</v>
       </c>
       <c r="J54" s="19" t="str">
+        <f t="shared" si="52"/>
+        <v>1E+156</v>
+      </c>
+      <c r="K54" s="17">
+        <f t="shared" si="53"/>
+        <v>5500</v>
+      </c>
+      <c r="L54" s="11">
+        <f t="shared" si="54"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="55" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E55" s="19">
+        <v>47</v>
+      </c>
+      <c r="F55" s="20" t="str">
         <f t="shared" si="50"/>
-        <v>1E+156</v>
-      </c>
-      <c r="K54" s="17">
+        <v>1.582단</v>
+      </c>
+      <c r="G55" s="20">
         <f t="shared" si="51"/>
-        <v>5500</v>
-      </c>
-      <c r="L54" s="11">
+        <v>1.582E+160</v>
+      </c>
+      <c r="H55" s="20">
+        <f t="shared" si="7"/>
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="I55" s="19" t="str" cm="1">
+        <f t="array" ref="I55">IF(AND(H54&gt;100,H55&lt;100),INDEX(N:N,MATCH(I54,N:N,0)+1,0),I54)</f>
+        <v>단</v>
+      </c>
+      <c r="J55" s="19" t="str">
         <f t="shared" si="52"/>
-        <v>5500</v>
-      </c>
+        <v>1E+160</v>
+      </c>
+      <c r="K55" s="17">
+        <f t="shared" si="53"/>
+        <v>5600</v>
+      </c>
+      <c r="L55" s="11">
+        <f t="shared" si="54"/>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="56" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E56" s="19">
+        <v>48</v>
+      </c>
+      <c r="F56" s="20" t="str">
+        <f t="shared" si="50"/>
+        <v>159.782단</v>
+      </c>
+      <c r="G56" s="20">
+        <f t="shared" si="51"/>
+        <v>1.59782E+162</v>
+      </c>
+      <c r="H56" s="20">
+        <f t="shared" si="7"/>
+        <v>159.78200000000001</v>
+      </c>
+      <c r="I56" s="19" t="str" cm="1">
+        <f t="array" ref="I56">IF(AND(H55&gt;100,H56&lt;100),INDEX(N:N,MATCH(I55,N:N,0)+1,0),I55)</f>
+        <v>단</v>
+      </c>
+      <c r="J56" s="19" t="str">
+        <f t="shared" si="52"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K56" s="17">
+        <f t="shared" si="53"/>
+        <v>5700</v>
+      </c>
+      <c r="L56" s="11">
+        <f t="shared" si="54"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="57" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E57" s="19"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE5042E-6C04-41B2-9BC1-EABB109432F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBECEFB-2A33-4180-81CE-AC37E097A2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxTower" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,11 +350,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2883,9 +2883,91 @@
         <v>5700</v>
       </c>
     </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>9026</v>
+      </c>
+      <c r="D50">
+        <f>VLOOKUP(A50+1,balacne!E:L,7,FALSE)</f>
+        <v>5800</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <f>VLOOKUP(A50+1,balacne!E:L,3,FALSE)</f>
+        <v>1.6137999999999999E+164</v>
+      </c>
+      <c r="G50">
+        <v>1000</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>11600</v>
+      </c>
+      <c r="K50">
+        <v>9026</v>
+      </c>
+      <c r="L50">
+        <f>VLOOKUP(A50+1,balacne!E:L,8,FALSE)</f>
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>9026</v>
+      </c>
+      <c r="D51">
+        <f>VLOOKUP(A51+1,balacne!E:L,7,FALSE)</f>
+        <v>5900</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <f>VLOOKUP(A51+1,balacne!E:L,3,FALSE)</f>
+        <v>1.6299379999999998E+166</v>
+      </c>
+      <c r="G51">
+        <v>1000</v>
+      </c>
+      <c r="H51">
+        <v>8</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>11800</v>
+      </c>
+      <c r="K51">
+        <v>9026</v>
+      </c>
+      <c r="L51">
+        <f>VLOOKUP(A51+1,balacne!E:L,8,FALSE)</f>
+        <v>5900</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K49">
+  <conditionalFormatting sqref="A2:K51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2896,10 +2978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z57"/>
+  <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57:L57"/>
+    <sheetView topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3161,7 +3243,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H57" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H58" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -5001,7 +5083,7 @@
         <v>4900</v>
       </c>
       <c r="N48" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O48" s="19">
         <v>164</v>
@@ -5048,7 +5130,7 @@
         <v>5000</v>
       </c>
       <c r="N49" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O49" s="19">
         <v>168</v>
@@ -5166,11 +5248,11 @@
         <v>45</v>
       </c>
       <c r="F53" s="20" t="str">
-        <f t="shared" ref="F53:F57" si="50">H53&amp;I53</f>
+        <f t="shared" ref="F53:F58" si="50">H53&amp;I53</f>
         <v>1.5508후</v>
       </c>
       <c r="G53" s="20">
-        <f t="shared" ref="G53:G57" si="51">H53*J53</f>
+        <f t="shared" ref="G53:G58" si="51">H53*J53</f>
         <v>1.5508E+156</v>
       </c>
       <c r="H53" s="20">
@@ -5182,15 +5264,15 @@
         <v>후</v>
       </c>
       <c r="J53" s="19" t="str">
-        <f t="shared" ref="J53:J57" si="52">VLOOKUP(I53,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J53:J58" si="52">VLOOKUP(I53,N:Q,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K53" s="17">
-        <f t="shared" ref="K53:K57" si="53">L53</f>
+        <f t="shared" ref="K53:K58" si="53">L53</f>
         <v>5400</v>
       </c>
       <c r="L53" s="11">
-        <f t="shared" ref="L53:L57" si="54">($B$14*(E53-1)+2000)/2</f>
+        <f t="shared" ref="L53:L58" si="54">($B$14*(E53-1)+2000)/2</f>
         <v>5400</v>
       </c>
     </row>
@@ -5294,13 +5376,70 @@
       </c>
     </row>
     <row r="57" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E57" s="19"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="17"/>
+      <c r="E57" s="19">
+        <v>49</v>
+      </c>
+      <c r="F57" s="20" t="str">
+        <f t="shared" si="50"/>
+        <v>1.6138절</v>
+      </c>
+      <c r="G57" s="20">
+        <f t="shared" si="51"/>
+        <v>1.6137999999999999E+164</v>
+      </c>
+      <c r="H57" s="20">
+        <f t="shared" si="7"/>
+        <v>1.6137999999999999</v>
+      </c>
+      <c r="I57" s="19" t="str" cm="1">
+        <f t="array" ref="I57">IF(AND(H56&gt;100,H57&lt;100),INDEX(N:N,MATCH(I56,N:N,0)+1,0),I56)</f>
+        <v>절</v>
+      </c>
+      <c r="J57" s="19" t="str">
+        <f t="shared" si="52"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K57" s="17">
+        <f t="shared" si="53"/>
+        <v>5800</v>
+      </c>
+      <c r="L57" s="11">
+        <f t="shared" si="54"/>
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="58" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E58" s="19">
+        <v>50</v>
+      </c>
+      <c r="F58" s="20" t="str">
+        <f t="shared" si="50"/>
+        <v>162.9938절</v>
+      </c>
+      <c r="G58" s="20">
+        <f t="shared" si="51"/>
+        <v>1.6299379999999998E+166</v>
+      </c>
+      <c r="H58" s="20">
+        <f t="shared" si="7"/>
+        <v>162.99379999999999</v>
+      </c>
+      <c r="I58" s="19" t="str" cm="1">
+        <f t="array" ref="I58">IF(AND(H57&gt;100,H58&lt;100),INDEX(N:N,MATCH(I57,N:N,0)+1,0),I57)</f>
+        <v>절</v>
+      </c>
+      <c r="J58" s="19" t="str">
+        <f t="shared" si="52"/>
+        <v>1E+164</v>
+      </c>
+      <c r="K58" s="17">
+        <f t="shared" si="53"/>
+        <v>5900</v>
+      </c>
+      <c r="L58" s="11">
+        <f t="shared" si="54"/>
+        <v>5900</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBECEFB-2A33-4180-81CE-AC37E097A2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100023A1-87E1-415D-8A35-AFC703EADDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxTower" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,11 +350,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2965,9 +2965,91 @@
         <v>5900</v>
       </c>
     </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>9026</v>
+      </c>
+      <c r="D52">
+        <f>VLOOKUP(A52+1,balacne!E:L,7,FALSE)</f>
+        <v>6000</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <f>VLOOKUP(A52+1,balacne!E:L,3,FALSE)</f>
+        <v>1.6463E+168</v>
+      </c>
+      <c r="G52">
+        <v>1000</v>
+      </c>
+      <c r="H52">
+        <v>8</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>12000</v>
+      </c>
+      <c r="K52">
+        <v>9026</v>
+      </c>
+      <c r="L52">
+        <f>VLOOKUP(A52+1,balacne!E:L,8,FALSE)</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>9026</v>
+      </c>
+      <c r="D53">
+        <f>VLOOKUP(A53+1,balacne!E:L,7,FALSE)</f>
+        <v>6100</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <f>VLOOKUP(A53+1,balacne!E:L,3,FALSE)</f>
+        <v>1.6627629999999998E+170</v>
+      </c>
+      <c r="G53">
+        <v>1000</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>12200</v>
+      </c>
+      <c r="K53">
+        <v>9026</v>
+      </c>
+      <c r="L53">
+        <f>VLOOKUP(A53+1,balacne!E:L,8,FALSE)</f>
+        <v>6100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K51">
+  <conditionalFormatting sqref="A2:K53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2978,10 +3060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z58"/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+      <selection activeCell="E57" sqref="E57:L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3243,7 +3325,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H58" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H61" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -5083,7 +5165,7 @@
         <v>4900</v>
       </c>
       <c r="N48" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O48" s="19">
         <v>164</v>
@@ -5130,7 +5212,7 @@
         <v>5000</v>
       </c>
       <c r="N49" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O49" s="19">
         <v>168</v>
@@ -5439,6 +5521,72 @@
       <c r="L58" s="11">
         <f t="shared" si="54"/>
         <v>5900</v>
+      </c>
+    </row>
+    <row r="59" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E59" s="19">
+        <v>51</v>
+      </c>
+      <c r="F59" s="20" t="str">
+        <f t="shared" ref="F59:F61" si="55">H59&amp;I59</f>
+        <v>1.6463격</v>
+      </c>
+      <c r="G59" s="20">
+        <f t="shared" ref="G59:G61" si="56">H59*J59</f>
+        <v>1.6463E+168</v>
+      </c>
+      <c r="H59" s="20">
+        <f t="shared" si="7"/>
+        <v>1.6463000000000001</v>
+      </c>
+      <c r="I59" s="19" t="str" cm="1">
+        <f t="array" ref="I59">IF(AND(H58&gt;100,H59&lt;100),INDEX(N:N,MATCH(I58,N:N,0)+1,0),I58)</f>
+        <v>격</v>
+      </c>
+      <c r="J59" s="19" t="str">
+        <f t="shared" ref="J59:J61" si="57">VLOOKUP(I59,N:Q,4,FALSE)</f>
+        <v>1E+168</v>
+      </c>
+      <c r="K59" s="17">
+        <f t="shared" ref="K59:K61" si="58">L59</f>
+        <v>6000</v>
+      </c>
+      <c r="L59" s="11">
+        <f t="shared" ref="L59:L61" si="59">($B$14*(E59-1)+2000)/2</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="60" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E60" s="19">
+        <v>52</v>
+      </c>
+      <c r="F60" s="20" t="str">
+        <f t="shared" si="55"/>
+        <v>166.2763격</v>
+      </c>
+      <c r="G60" s="20">
+        <f t="shared" si="56"/>
+        <v>1.6627629999999998E+170</v>
+      </c>
+      <c r="H60" s="20">
+        <f t="shared" si="7"/>
+        <v>166.27629999999999</v>
+      </c>
+      <c r="I60" s="19" t="str" cm="1">
+        <f t="array" ref="I60">IF(AND(H59&gt;100,H60&lt;100),INDEX(N:N,MATCH(I59,N:N,0)+1,0),I59)</f>
+        <v>격</v>
+      </c>
+      <c r="J60" s="19" t="str">
+        <f t="shared" si="57"/>
+        <v>1E+168</v>
+      </c>
+      <c r="K60" s="17">
+        <f t="shared" si="58"/>
+        <v>6100</v>
+      </c>
+      <c r="L60" s="11">
+        <f t="shared" si="59"/>
+        <v>6100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100023A1-87E1-415D-8A35-AFC703EADDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD3C8CF-36B6-4DA0-974F-F96A806CDD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxTower" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="79">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,22 @@
   </si>
   <si>
     <t>격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3047,9 +3063,173 @@
         <v>6100</v>
       </c>
     </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>9026</v>
+      </c>
+      <c r="D54">
+        <f>VLOOKUP(A54+1,balacne!E:L,7,FALSE)</f>
+        <v>6200</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <f>VLOOKUP(A54+1,balacne!E:L,3,FALSE)</f>
+        <v>1.6794000000000001E+172</v>
+      </c>
+      <c r="G54">
+        <v>1000</v>
+      </c>
+      <c r="H54">
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>12400</v>
+      </c>
+      <c r="K54">
+        <v>9026</v>
+      </c>
+      <c r="L54">
+        <f>VLOOKUP(A54+1,balacne!E:L,8,FALSE)</f>
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>9026</v>
+      </c>
+      <c r="D55">
+        <f>VLOOKUP(A55+1,balacne!E:L,7,FALSE)</f>
+        <v>6300</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <f>VLOOKUP(A55+1,balacne!E:L,3,FALSE)</f>
+        <v>1.6961940000000003E+174</v>
+      </c>
+      <c r="G55">
+        <v>1000</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>12600</v>
+      </c>
+      <c r="K55">
+        <v>9026</v>
+      </c>
+      <c r="L55">
+        <f>VLOOKUP(A55+1,balacne!E:L,8,FALSE)</f>
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56">
+        <v>9026</v>
+      </c>
+      <c r="D56">
+        <f>VLOOKUP(A56+1,balacne!E:L,7,FALSE)</f>
+        <v>6400</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <f>VLOOKUP(A56+1,balacne!E:L,3,FALSE)</f>
+        <v>1.7132000000000001E+176</v>
+      </c>
+      <c r="G56">
+        <v>1000</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>12800</v>
+      </c>
+      <c r="K56">
+        <v>9026</v>
+      </c>
+      <c r="L56">
+        <f>VLOOKUP(A56+1,balacne!E:L,8,FALSE)</f>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <v>9026</v>
+      </c>
+      <c r="D57">
+        <f>VLOOKUP(A57+1,balacne!E:L,7,FALSE)</f>
+        <v>6500</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <f>VLOOKUP(A57+1,balacne!E:L,3,FALSE)</f>
+        <v>1.7303319999999999E+178</v>
+      </c>
+      <c r="G57">
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>8</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>13000</v>
+      </c>
+      <c r="K57">
+        <v>9026</v>
+      </c>
+      <c r="L57">
+        <f>VLOOKUP(A57+1,balacne!E:L,8,FALSE)</f>
+        <v>6500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K53">
+  <conditionalFormatting sqref="A2:K57">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3060,10 +3240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z60"/>
+  <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57:L60"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3325,7 +3505,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H61" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H66" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -5258,6 +5438,20 @@
         <f t="shared" si="49"/>
         <v>5100</v>
       </c>
+      <c r="N50" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="O50" s="19">
+        <v>172</v>
+      </c>
+      <c r="P50" s="20">
+        <f t="shared" ref="P50:P53" si="50">POWER(10,O50)</f>
+        <v>1.0000000000000001E+172</v>
+      </c>
+      <c r="Q50" s="20" t="str">
+        <f t="shared" ref="Q50:Q53" si="51">RIGHT(P50,O50)</f>
+        <v>1E+172</v>
+      </c>
     </row>
     <row r="51" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E51" s="19">
@@ -5291,6 +5485,20 @@
         <f t="shared" si="49"/>
         <v>5200</v>
       </c>
+      <c r="N51" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="O51" s="19">
+        <v>176</v>
+      </c>
+      <c r="P51" s="20">
+        <f t="shared" si="50"/>
+        <v>1E+176</v>
+      </c>
+      <c r="Q51" s="20" t="str">
+        <f t="shared" si="51"/>
+        <v>1E+176</v>
+      </c>
     </row>
     <row r="52" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E52" s="19">
@@ -5324,17 +5532,31 @@
         <f t="shared" si="49"/>
         <v>5300</v>
       </c>
+      <c r="N52" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="O52" s="19">
+        <v>180</v>
+      </c>
+      <c r="P52" s="20">
+        <f t="shared" si="50"/>
+        <v>1E+180</v>
+      </c>
+      <c r="Q52" s="20" t="str">
+        <f t="shared" si="51"/>
+        <v>1E+180</v>
+      </c>
     </row>
     <row r="53" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E53" s="19">
         <v>45</v>
       </c>
       <c r="F53" s="20" t="str">
-        <f t="shared" ref="F53:F58" si="50">H53&amp;I53</f>
+        <f t="shared" ref="F53:F58" si="52">H53&amp;I53</f>
         <v>1.5508후</v>
       </c>
       <c r="G53" s="20">
-        <f t="shared" ref="G53:G58" si="51">H53*J53</f>
+        <f t="shared" ref="G53:G58" si="53">H53*J53</f>
         <v>1.5508E+156</v>
       </c>
       <c r="H53" s="20">
@@ -5346,16 +5568,30 @@
         <v>후</v>
       </c>
       <c r="J53" s="19" t="str">
-        <f t="shared" ref="J53:J58" si="52">VLOOKUP(I53,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J53:J58" si="54">VLOOKUP(I53,N:Q,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K53" s="17">
-        <f t="shared" ref="K53:K58" si="53">L53</f>
+        <f t="shared" ref="K53:K58" si="55">L53</f>
         <v>5400</v>
       </c>
       <c r="L53" s="11">
-        <f t="shared" ref="L53:L58" si="54">($B$14*(E53-1)+2000)/2</f>
+        <f t="shared" ref="L53:L58" si="56">($B$14*(E53-1)+2000)/2</f>
         <v>5400</v>
+      </c>
+      <c r="N53" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O53" s="19">
+        <v>184</v>
+      </c>
+      <c r="P53" s="20">
+        <f t="shared" si="50"/>
+        <v>1E+184</v>
+      </c>
+      <c r="Q53" s="20" t="str">
+        <f t="shared" si="51"/>
+        <v>1E+184</v>
       </c>
     </row>
     <row r="54" spans="5:17" x14ac:dyDescent="0.3">
@@ -5363,11 +5599,11 @@
         <v>46</v>
       </c>
       <c r="F54" s="20" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>156.6308후</v>
       </c>
       <c r="G54" s="20">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.5663079999999999E+158</v>
       </c>
       <c r="H54" s="20">
@@ -5379,15 +5615,15 @@
         <v>후</v>
       </c>
       <c r="J54" s="19" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+156</v>
       </c>
       <c r="K54" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>5500</v>
       </c>
       <c r="L54" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>5500</v>
       </c>
     </row>
@@ -5396,11 +5632,11 @@
         <v>47</v>
       </c>
       <c r="F55" s="20" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.582단</v>
       </c>
       <c r="G55" s="20">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.582E+160</v>
       </c>
       <c r="H55" s="20">
@@ -5412,15 +5648,15 @@
         <v>단</v>
       </c>
       <c r="J55" s="19" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+160</v>
       </c>
       <c r="K55" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>5600</v>
       </c>
       <c r="L55" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>5600</v>
       </c>
     </row>
@@ -5429,11 +5665,11 @@
         <v>48</v>
       </c>
       <c r="F56" s="20" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>159.782단</v>
       </c>
       <c r="G56" s="20">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.59782E+162</v>
       </c>
       <c r="H56" s="20">
@@ -5445,15 +5681,15 @@
         <v>단</v>
       </c>
       <c r="J56" s="19" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+160</v>
       </c>
       <c r="K56" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>5700</v>
       </c>
       <c r="L56" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>5700</v>
       </c>
     </row>
@@ -5462,11 +5698,11 @@
         <v>49</v>
       </c>
       <c r="F57" s="20" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.6138절</v>
       </c>
       <c r="G57" s="20">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.6137999999999999E+164</v>
       </c>
       <c r="H57" s="20">
@@ -5478,15 +5714,15 @@
         <v>절</v>
       </c>
       <c r="J57" s="19" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+164</v>
       </c>
       <c r="K57" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>5800</v>
       </c>
       <c r="L57" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>5800</v>
       </c>
     </row>
@@ -5495,11 +5731,11 @@
         <v>50</v>
       </c>
       <c r="F58" s="20" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>162.9938절</v>
       </c>
       <c r="G58" s="20">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.6299379999999998E+166</v>
       </c>
       <c r="H58" s="20">
@@ -5511,15 +5747,15 @@
         <v>절</v>
       </c>
       <c r="J58" s="19" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+164</v>
       </c>
       <c r="K58" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>5900</v>
       </c>
       <c r="L58" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>5900</v>
       </c>
     </row>
@@ -5528,11 +5764,11 @@
         <v>51</v>
       </c>
       <c r="F59" s="20" t="str">
-        <f t="shared" ref="F59:F61" si="55">H59&amp;I59</f>
+        <f t="shared" ref="F59:F63" si="57">H59&amp;I59</f>
         <v>1.6463격</v>
       </c>
       <c r="G59" s="20">
-        <f t="shared" ref="G59:G61" si="56">H59*J59</f>
+        <f t="shared" ref="G59:G63" si="58">H59*J59</f>
         <v>1.6463E+168</v>
       </c>
       <c r="H59" s="20">
@@ -5544,15 +5780,15 @@
         <v>격</v>
       </c>
       <c r="J59" s="19" t="str">
-        <f t="shared" ref="J59:J61" si="57">VLOOKUP(I59,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J59:J63" si="59">VLOOKUP(I59,N:Q,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K59" s="17">
-        <f t="shared" ref="K59:K61" si="58">L59</f>
+        <f t="shared" ref="K59:K63" si="60">L59</f>
         <v>6000</v>
       </c>
       <c r="L59" s="11">
-        <f t="shared" ref="L59:L61" si="59">($B$14*(E59-1)+2000)/2</f>
+        <f t="shared" ref="L59:L63" si="61">($B$14*(E59-1)+2000)/2</f>
         <v>6000</v>
       </c>
     </row>
@@ -5561,11 +5797,11 @@
         <v>52</v>
       </c>
       <c r="F60" s="20" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>166.2763격</v>
       </c>
       <c r="G60" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.6627629999999998E+170</v>
       </c>
       <c r="H60" s="20">
@@ -5577,17 +5813,167 @@
         <v>격</v>
       </c>
       <c r="J60" s="19" t="str">
+        <f t="shared" si="59"/>
+        <v>1E+168</v>
+      </c>
+      <c r="K60" s="17">
+        <f t="shared" si="60"/>
+        <v>6100</v>
+      </c>
+      <c r="L60" s="11">
+        <f t="shared" si="61"/>
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="61" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E61" s="19">
+        <v>53</v>
+      </c>
+      <c r="F61" s="20" t="str">
         <f t="shared" si="57"/>
-        <v>1E+168</v>
-      </c>
-      <c r="K60" s="17">
+        <v>1.6794창</v>
+      </c>
+      <c r="G61" s="20">
         <f t="shared" si="58"/>
-        <v>6100</v>
-      </c>
-      <c r="L60" s="11">
+        <v>1.6794000000000001E+172</v>
+      </c>
+      <c r="H61" s="20">
+        <f t="shared" si="7"/>
+        <v>1.6794</v>
+      </c>
+      <c r="I61" s="19" t="str" cm="1">
+        <f t="array" ref="I61">IF(AND(H60&gt;100,H61&lt;100),INDEX(N:N,MATCH(I60,N:N,0)+1,0),I60)</f>
+        <v>창</v>
+      </c>
+      <c r="J61" s="19" t="str">
         <f t="shared" si="59"/>
-        <v>6100</v>
-      </c>
+        <v>1E+172</v>
+      </c>
+      <c r="K61" s="17">
+        <f t="shared" si="60"/>
+        <v>6200</v>
+      </c>
+      <c r="L61" s="11">
+        <f t="shared" si="61"/>
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="62" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E62" s="19">
+        <v>54</v>
+      </c>
+      <c r="F62" s="20" t="str">
+        <f t="shared" si="57"/>
+        <v>169.6194창</v>
+      </c>
+      <c r="G62" s="20">
+        <f t="shared" si="58"/>
+        <v>1.6961940000000003E+174</v>
+      </c>
+      <c r="H62" s="20">
+        <f t="shared" si="7"/>
+        <v>169.61940000000001</v>
+      </c>
+      <c r="I62" s="19" t="str" cm="1">
+        <f t="array" ref="I62">IF(AND(H61&gt;100,H62&lt;100),INDEX(N:N,MATCH(I61,N:N,0)+1,0),I61)</f>
+        <v>창</v>
+      </c>
+      <c r="J62" s="19" t="str">
+        <f t="shared" si="59"/>
+        <v>1E+172</v>
+      </c>
+      <c r="K62" s="17">
+        <f t="shared" si="60"/>
+        <v>6300</v>
+      </c>
+      <c r="L62" s="11">
+        <f t="shared" si="61"/>
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="63" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E63" s="19">
+        <v>55</v>
+      </c>
+      <c r="F63" s="20" t="str">
+        <f t="shared" si="57"/>
+        <v>1.7132공</v>
+      </c>
+      <c r="G63" s="20">
+        <f t="shared" si="58"/>
+        <v>1.7132000000000001E+176</v>
+      </c>
+      <c r="H63" s="20">
+        <f t="shared" si="7"/>
+        <v>1.7132000000000001</v>
+      </c>
+      <c r="I63" s="19" t="str" cm="1">
+        <f t="array" ref="I63">IF(AND(H62&gt;100,H63&lt;100),INDEX(N:N,MATCH(I62,N:N,0)+1,0),I62)</f>
+        <v>공</v>
+      </c>
+      <c r="J63" s="19" t="str">
+        <f t="shared" si="59"/>
+        <v>1E+176</v>
+      </c>
+      <c r="K63" s="17">
+        <f t="shared" si="60"/>
+        <v>6400</v>
+      </c>
+      <c r="L63" s="11">
+        <f t="shared" si="61"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="64" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E64" s="19">
+        <v>56</v>
+      </c>
+      <c r="F64" s="20" t="str">
+        <f t="shared" ref="F64:F66" si="62">H64&amp;I64</f>
+        <v>173.0332공</v>
+      </c>
+      <c r="G64" s="20">
+        <f t="shared" ref="G64:G66" si="63">H64*J64</f>
+        <v>1.7303319999999999E+178</v>
+      </c>
+      <c r="H64" s="20">
+        <f t="shared" si="7"/>
+        <v>173.03319999999999</v>
+      </c>
+      <c r="I64" s="19" t="str" cm="1">
+        <f t="array" ref="I64">IF(AND(H63&gt;100,H64&lt;100),INDEX(N:N,MATCH(I63,N:N,0)+1,0),I63)</f>
+        <v>공</v>
+      </c>
+      <c r="J64" s="19" t="str">
+        <f t="shared" ref="J64:J66" si="64">VLOOKUP(I64,N:Q,4,FALSE)</f>
+        <v>1E+176</v>
+      </c>
+      <c r="K64" s="17">
+        <f t="shared" ref="K64:K66" si="65">L64</f>
+        <v>6500</v>
+      </c>
+      <c r="L64" s="11">
+        <f t="shared" ref="L64:L66" si="66">($B$14*(E64-1)+2000)/2</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E65" s="19"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="17"/>
+    </row>
+    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD3C8CF-36B6-4DA0-974F-F96A806CDD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691EA73C-3688-499F-BBC4-AC30FCBC5BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,11 +366,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
+    <t>채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -963,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3227,9 +3227,173 @@
         <v>6500</v>
       </c>
     </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58">
+        <v>9026</v>
+      </c>
+      <c r="D58">
+        <f>VLOOKUP(A58+1,balacne!E:L,7,FALSE)</f>
+        <v>6600</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <f>VLOOKUP(A58+1,balacne!E:L,3,FALSE)</f>
+        <v>1.7477E+180</v>
+      </c>
+      <c r="G58">
+        <v>1000</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>13200</v>
+      </c>
+      <c r="K58">
+        <v>9026</v>
+      </c>
+      <c r="L58">
+        <f>VLOOKUP(A58+1,balacne!E:L,8,FALSE)</f>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>9026</v>
+      </c>
+      <c r="D59">
+        <f>VLOOKUP(A59+1,balacne!E:L,7,FALSE)</f>
+        <v>6700</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <f>VLOOKUP(A59+1,balacne!E:L,3,FALSE)</f>
+        <v>1.7651769999999998E+182</v>
+      </c>
+      <c r="G59">
+        <v>1000</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>13400</v>
+      </c>
+      <c r="K59">
+        <v>9026</v>
+      </c>
+      <c r="L59">
+        <f>VLOOKUP(A59+1,balacne!E:L,8,FALSE)</f>
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>9026</v>
+      </c>
+      <c r="D60">
+        <f>VLOOKUP(A60+1,balacne!E:L,7,FALSE)</f>
+        <v>6800</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <f>VLOOKUP(A60+1,balacne!E:L,3,FALSE)</f>
+        <v>1.7829E+184</v>
+      </c>
+      <c r="G60">
+        <v>1000</v>
+      </c>
+      <c r="H60">
+        <v>8</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>13600</v>
+      </c>
+      <c r="K60">
+        <v>9026</v>
+      </c>
+      <c r="L60">
+        <f>VLOOKUP(A60+1,balacne!E:L,8,FALSE)</f>
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>9026</v>
+      </c>
+      <c r="D61">
+        <f>VLOOKUP(A61+1,balacne!E:L,7,FALSE)</f>
+        <v>6900</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <f>VLOOKUP(A61+1,balacne!E:L,3,FALSE)</f>
+        <v>1.8007290000000001E+186</v>
+      </c>
+      <c r="G61">
+        <v>1000</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>13800</v>
+      </c>
+      <c r="K61">
+        <v>9026</v>
+      </c>
+      <c r="L61">
+        <f>VLOOKUP(A61+1,balacne!E:L,8,FALSE)</f>
+        <v>6900</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K57">
+  <conditionalFormatting sqref="A2:K61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3240,10 +3404,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z66"/>
+  <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69:L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3505,7 +3669,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H66" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H69" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -5929,11 +6093,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="20" t="str">
-        <f t="shared" ref="F64:F66" si="62">H64&amp;I64</f>
+        <f t="shared" ref="F64:F68" si="62">H64&amp;I64</f>
         <v>173.0332공</v>
       </c>
       <c r="G64" s="20">
-        <f t="shared" ref="G64:G66" si="63">H64*J64</f>
+        <f t="shared" ref="G64:G68" si="63">H64*J64</f>
         <v>1.7303319999999999E+178</v>
       </c>
       <c r="H64" s="20">
@@ -5945,35 +6109,158 @@
         <v>공</v>
       </c>
       <c r="J64" s="19" t="str">
-        <f t="shared" ref="J64:J66" si="64">VLOOKUP(I64,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J64:J68" si="64">VLOOKUP(I64,N:Q,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K64" s="17">
-        <f t="shared" ref="K64:K66" si="65">L64</f>
+        <f t="shared" ref="K64:K68" si="65">L64</f>
         <v>6500</v>
       </c>
       <c r="L64" s="11">
-        <f t="shared" ref="L64:L66" si="66">($B$14*(E64-1)+2000)/2</f>
+        <f t="shared" ref="L64:L68" si="66">($B$14*(E64-1)+2000)/2</f>
         <v>6500</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E65" s="19"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="17"/>
-    </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E66" s="19"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="17"/>
+    <row r="65" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E65" s="19">
+        <v>57</v>
+      </c>
+      <c r="F65" s="20" t="str">
+        <f t="shared" si="62"/>
+        <v>1.7477채</v>
+      </c>
+      <c r="G65" s="20">
+        <f t="shared" si="63"/>
+        <v>1.7477E+180</v>
+      </c>
+      <c r="H65" s="20">
+        <f t="shared" si="7"/>
+        <v>1.7477</v>
+      </c>
+      <c r="I65" s="19" t="str" cm="1">
+        <f t="array" ref="I65">IF(AND(H64&gt;100,H65&lt;100),INDEX(N:N,MATCH(I64,N:N,0)+1,0),I64)</f>
+        <v>채</v>
+      </c>
+      <c r="J65" s="19" t="str">
+        <f t="shared" si="64"/>
+        <v>1E+180</v>
+      </c>
+      <c r="K65" s="17">
+        <f t="shared" si="65"/>
+        <v>6600</v>
+      </c>
+      <c r="L65" s="11">
+        <f t="shared" si="66"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="66" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E66" s="19">
+        <v>58</v>
+      </c>
+      <c r="F66" s="20" t="str">
+        <f t="shared" si="62"/>
+        <v>176.5177채</v>
+      </c>
+      <c r="G66" s="20">
+        <f t="shared" si="63"/>
+        <v>1.7651769999999998E+182</v>
+      </c>
+      <c r="H66" s="20">
+        <f t="shared" si="7"/>
+        <v>176.51769999999999</v>
+      </c>
+      <c r="I66" s="19" t="str" cm="1">
+        <f t="array" ref="I66">IF(AND(H65&gt;100,H66&lt;100),INDEX(N:N,MATCH(I65,N:N,0)+1,0),I65)</f>
+        <v>채</v>
+      </c>
+      <c r="J66" s="19" t="str">
+        <f t="shared" si="64"/>
+        <v>1E+180</v>
+      </c>
+      <c r="K66" s="17">
+        <f t="shared" si="65"/>
+        <v>6700</v>
+      </c>
+      <c r="L66" s="11">
+        <f t="shared" si="66"/>
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="67" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E67" s="19">
+        <v>59</v>
+      </c>
+      <c r="F67" s="20" t="str">
+        <f t="shared" si="62"/>
+        <v>1.7829연</v>
+      </c>
+      <c r="G67" s="20">
+        <f t="shared" si="63"/>
+        <v>1.7829E+184</v>
+      </c>
+      <c r="H67" s="20">
+        <f t="shared" si="7"/>
+        <v>1.7828999999999999</v>
+      </c>
+      <c r="I67" s="19" t="str" cm="1">
+        <f t="array" ref="I67">IF(AND(H66&gt;100,H67&lt;100),INDEX(N:N,MATCH(I66,N:N,0)+1,0),I66)</f>
+        <v>연</v>
+      </c>
+      <c r="J67" s="19" t="str">
+        <f t="shared" si="64"/>
+        <v>1E+184</v>
+      </c>
+      <c r="K67" s="17">
+        <f t="shared" si="65"/>
+        <v>6800</v>
+      </c>
+      <c r="L67" s="11">
+        <f t="shared" si="66"/>
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="68" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E68" s="19">
+        <v>60</v>
+      </c>
+      <c r="F68" s="20" t="str">
+        <f t="shared" si="62"/>
+        <v>180.0729연</v>
+      </c>
+      <c r="G68" s="20">
+        <f t="shared" si="63"/>
+        <v>1.8007290000000001E+186</v>
+      </c>
+      <c r="H68" s="20">
+        <f t="shared" si="7"/>
+        <v>180.0729</v>
+      </c>
+      <c r="I68" s="19" t="str" cm="1">
+        <f t="array" ref="I68">IF(AND(H67&gt;100,H68&lt;100),INDEX(N:N,MATCH(I67,N:N,0)+1,0),I67)</f>
+        <v>연</v>
+      </c>
+      <c r="J68" s="19" t="str">
+        <f t="shared" si="64"/>
+        <v>1E+184</v>
+      </c>
+      <c r="K68" s="17">
+        <f t="shared" si="65"/>
+        <v>6900</v>
+      </c>
+      <c r="L68" s="11">
+        <f t="shared" si="66"/>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="69" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E69" s="19"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691EA73C-3688-499F-BBC4-AC30FCBC5BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A24C2F-EBD8-46D4-92A2-96618DDE4AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxTower" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -370,7 +370,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연</t>
+    <t>피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -963,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3391,9 +3395,91 @@
         <v>6900</v>
       </c>
     </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>9026</v>
+      </c>
+      <c r="D62">
+        <f>VLOOKUP(A62+1,balacne!E:L,7,FALSE)</f>
+        <v>7000</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2">
+        <f>VLOOKUP(A62+1,balacne!E:L,3,FALSE)</f>
+        <v>1.8188000000000001E+188</v>
+      </c>
+      <c r="G62">
+        <v>1000</v>
+      </c>
+      <c r="H62">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>14000</v>
+      </c>
+      <c r="K62">
+        <v>9026</v>
+      </c>
+      <c r="L62">
+        <f>VLOOKUP(A62+1,balacne!E:L,8,FALSE)</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>9026</v>
+      </c>
+      <c r="D63">
+        <f>VLOOKUP(A63+1,balacne!E:L,7,FALSE)</f>
+        <v>7100</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <f>VLOOKUP(A63+1,balacne!E:L,3,FALSE)</f>
+        <v>1.8369879999999999E+190</v>
+      </c>
+      <c r="G63">
+        <v>1000</v>
+      </c>
+      <c r="H63">
+        <v>8</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>14200</v>
+      </c>
+      <c r="K63">
+        <v>9026</v>
+      </c>
+      <c r="L63">
+        <f>VLOOKUP(A63+1,balacne!E:L,8,FALSE)</f>
+        <v>7100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K61">
+  <conditionalFormatting sqref="A2:K63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3404,10 +3490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z69"/>
+  <dimension ref="A1:Z70"/>
   <sheetViews>
     <sheetView topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69:L69"/>
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3669,7 +3755,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H69" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H70" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -5790,6 +5876,20 @@
         <f t="shared" si="56"/>
         <v>5500</v>
       </c>
+      <c r="N54" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="O54" s="19">
+        <v>188</v>
+      </c>
+      <c r="P54" s="20">
+        <f t="shared" ref="P54" si="57">POWER(10,O54)</f>
+        <v>1E+188</v>
+      </c>
+      <c r="Q54" s="20" t="str">
+        <f t="shared" ref="Q54" si="58">RIGHT(P54,O54)</f>
+        <v>1E+188</v>
+      </c>
     </row>
     <row r="55" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E55" s="19">
@@ -5928,11 +6028,11 @@
         <v>51</v>
       </c>
       <c r="F59" s="20" t="str">
-        <f t="shared" ref="F59:F63" si="57">H59&amp;I59</f>
+        <f t="shared" ref="F59:F63" si="59">H59&amp;I59</f>
         <v>1.6463격</v>
       </c>
       <c r="G59" s="20">
-        <f t="shared" ref="G59:G63" si="58">H59*J59</f>
+        <f t="shared" ref="G59:G63" si="60">H59*J59</f>
         <v>1.6463E+168</v>
       </c>
       <c r="H59" s="20">
@@ -5944,15 +6044,15 @@
         <v>격</v>
       </c>
       <c r="J59" s="19" t="str">
-        <f t="shared" ref="J59:J63" si="59">VLOOKUP(I59,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J59:J63" si="61">VLOOKUP(I59,N:Q,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K59" s="17">
-        <f t="shared" ref="K59:K63" si="60">L59</f>
+        <f t="shared" ref="K59:K63" si="62">L59</f>
         <v>6000</v>
       </c>
       <c r="L59" s="11">
-        <f t="shared" ref="L59:L63" si="61">($B$14*(E59-1)+2000)/2</f>
+        <f t="shared" ref="L59:L63" si="63">($B$14*(E59-1)+2000)/2</f>
         <v>6000</v>
       </c>
     </row>
@@ -5961,11 +6061,11 @@
         <v>52</v>
       </c>
       <c r="F60" s="20" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>166.2763격</v>
       </c>
       <c r="G60" s="20">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1.6627629999999998E+170</v>
       </c>
       <c r="H60" s="20">
@@ -5977,15 +6077,15 @@
         <v>격</v>
       </c>
       <c r="J60" s="19" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+168</v>
       </c>
       <c r="K60" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>6100</v>
       </c>
       <c r="L60" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>6100</v>
       </c>
     </row>
@@ -5994,11 +6094,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="20" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1.6794창</v>
       </c>
       <c r="G61" s="20">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1.6794000000000001E+172</v>
       </c>
       <c r="H61" s="20">
@@ -6010,15 +6110,15 @@
         <v>창</v>
       </c>
       <c r="J61" s="19" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+172</v>
       </c>
       <c r="K61" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>6200</v>
       </c>
       <c r="L61" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>6200</v>
       </c>
     </row>
@@ -6027,11 +6127,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="20" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>169.6194창</v>
       </c>
       <c r="G62" s="20">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1.6961940000000003E+174</v>
       </c>
       <c r="H62" s="20">
@@ -6043,15 +6143,15 @@
         <v>창</v>
       </c>
       <c r="J62" s="19" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+172</v>
       </c>
       <c r="K62" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>6300</v>
       </c>
       <c r="L62" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>6300</v>
       </c>
     </row>
@@ -6060,11 +6160,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="20" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1.7132공</v>
       </c>
       <c r="G63" s="20">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1.7132000000000001E+176</v>
       </c>
       <c r="H63" s="20">
@@ -6076,15 +6176,15 @@
         <v>공</v>
       </c>
       <c r="J63" s="19" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+176</v>
       </c>
       <c r="K63" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>6400</v>
       </c>
       <c r="L63" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>6400</v>
       </c>
     </row>
@@ -6093,11 +6193,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="20" t="str">
-        <f t="shared" ref="F64:F68" si="62">H64&amp;I64</f>
+        <f t="shared" ref="F64:F70" si="64">H64&amp;I64</f>
         <v>173.0332공</v>
       </c>
       <c r="G64" s="20">
-        <f t="shared" ref="G64:G68" si="63">H64*J64</f>
+        <f t="shared" ref="G64:G70" si="65">H64*J64</f>
         <v>1.7303319999999999E+178</v>
       </c>
       <c r="H64" s="20">
@@ -6109,15 +6209,15 @@
         <v>공</v>
       </c>
       <c r="J64" s="19" t="str">
-        <f t="shared" ref="J64:J68" si="64">VLOOKUP(I64,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J64:J70" si="66">VLOOKUP(I64,N:Q,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K64" s="17">
-        <f t="shared" ref="K64:K68" si="65">L64</f>
+        <f t="shared" ref="K64:K70" si="67">L64</f>
         <v>6500</v>
       </c>
       <c r="L64" s="11">
-        <f t="shared" ref="L64:L68" si="66">($B$14*(E64-1)+2000)/2</f>
+        <f t="shared" ref="L64:L70" si="68">($B$14*(E64-1)+2000)/2</f>
         <v>6500</v>
       </c>
     </row>
@@ -6126,11 +6226,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="20" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1.7477채</v>
       </c>
       <c r="G65" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.7477E+180</v>
       </c>
       <c r="H65" s="20">
@@ -6142,15 +6242,15 @@
         <v>채</v>
       </c>
       <c r="J65" s="19" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+180</v>
       </c>
       <c r="K65" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>6600</v>
       </c>
       <c r="L65" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>6600</v>
       </c>
     </row>
@@ -6159,11 +6259,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="20" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>176.5177채</v>
       </c>
       <c r="G66" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.7651769999999998E+182</v>
       </c>
       <c r="H66" s="20">
@@ -6175,15 +6275,15 @@
         <v>채</v>
       </c>
       <c r="J66" s="19" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+180</v>
       </c>
       <c r="K66" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>6700</v>
       </c>
       <c r="L66" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>6700</v>
       </c>
     </row>
@@ -6192,11 +6292,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="20" t="str">
-        <f t="shared" si="62"/>
-        <v>1.7829연</v>
+        <f t="shared" si="64"/>
+        <v>1.7829피</v>
       </c>
       <c r="G67" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.7829E+184</v>
       </c>
       <c r="H67" s="20">
@@ -6205,18 +6305,18 @@
       </c>
       <c r="I67" s="19" t="str" cm="1">
         <f t="array" ref="I67">IF(AND(H66&gt;100,H67&lt;100),INDEX(N:N,MATCH(I66,N:N,0)+1,0),I66)</f>
-        <v>연</v>
+        <v>피</v>
       </c>
       <c r="J67" s="19" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+184</v>
       </c>
       <c r="K67" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>6800</v>
       </c>
       <c r="L67" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>6800</v>
       </c>
     </row>
@@ -6225,11 +6325,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="20" t="str">
-        <f t="shared" si="62"/>
-        <v>180.0729연</v>
+        <f t="shared" si="64"/>
+        <v>180.0729피</v>
       </c>
       <c r="G68" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.8007290000000001E+186</v>
       </c>
       <c r="H68" s="20">
@@ -6238,29 +6338,86 @@
       </c>
       <c r="I68" s="19" t="str" cm="1">
         <f t="array" ref="I68">IF(AND(H67&gt;100,H68&lt;100),INDEX(N:N,MATCH(I67,N:N,0)+1,0),I67)</f>
-        <v>연</v>
+        <v>피</v>
       </c>
       <c r="J68" s="19" t="str">
+        <f t="shared" si="66"/>
+        <v>1E+184</v>
+      </c>
+      <c r="K68" s="17">
+        <f t="shared" si="67"/>
+        <v>6900</v>
+      </c>
+      <c r="L68" s="11">
+        <f t="shared" si="68"/>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="69" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E69" s="19">
+        <v>61</v>
+      </c>
+      <c r="F69" s="20" t="str">
         <f t="shared" si="64"/>
-        <v>1E+184</v>
-      </c>
-      <c r="K68" s="17">
+        <v>1.8188동</v>
+      </c>
+      <c r="G69" s="20">
         <f t="shared" si="65"/>
-        <v>6900</v>
-      </c>
-      <c r="L68" s="11">
+        <v>1.8188000000000001E+188</v>
+      </c>
+      <c r="H69" s="20">
+        <f t="shared" si="7"/>
+        <v>1.8188</v>
+      </c>
+      <c r="I69" s="19" t="str" cm="1">
+        <f t="array" ref="I69">IF(AND(H68&gt;100,H69&lt;100),INDEX(N:N,MATCH(I68,N:N,0)+1,0),I68)</f>
+        <v>동</v>
+      </c>
+      <c r="J69" s="19" t="str">
         <f t="shared" si="66"/>
-        <v>6900</v>
-      </c>
-    </row>
-    <row r="69" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E69" s="19"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="17"/>
+        <v>1E+188</v>
+      </c>
+      <c r="K69" s="17">
+        <f t="shared" si="67"/>
+        <v>7000</v>
+      </c>
+      <c r="L69" s="11">
+        <f t="shared" si="68"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="70" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E70" s="19">
+        <v>62</v>
+      </c>
+      <c r="F70" s="20" t="str">
+        <f t="shared" si="64"/>
+        <v>183.6988동</v>
+      </c>
+      <c r="G70" s="20">
+        <f t="shared" si="65"/>
+        <v>1.8369879999999999E+190</v>
+      </c>
+      <c r="H70" s="20">
+        <f t="shared" si="7"/>
+        <v>183.69880000000001</v>
+      </c>
+      <c r="I70" s="19" t="str" cm="1">
+        <f t="array" ref="I70">IF(AND(H69&gt;100,H70&lt;100),INDEX(N:N,MATCH(I69,N:N,0)+1,0),I69)</f>
+        <v>동</v>
+      </c>
+      <c r="J70" s="19" t="str">
+        <f t="shared" si="66"/>
+        <v>1E+188</v>
+      </c>
+      <c r="K70" s="17">
+        <f t="shared" si="67"/>
+        <v>7100</v>
+      </c>
+      <c r="L70" s="11">
+        <f t="shared" si="68"/>
+        <v>7100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A24C2F-EBD8-46D4-92A2-96618DDE4AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD8977B-A5AD-4C07-BFF3-57CF8C26E0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="81">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,10 @@
   </si>
   <si>
     <t>동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -967,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3477,9 +3481,91 @@
         <v>7100</v>
       </c>
     </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>9026</v>
+      </c>
+      <c r="D64">
+        <f>VLOOKUP(A64+1,balacne!E:L,7,FALSE)</f>
+        <v>7200</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <f>VLOOKUP(A64+1,balacne!E:L,3,FALSE)</f>
+        <v>1.8554000000000001E+192</v>
+      </c>
+      <c r="G64">
+        <v>1000</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>14400</v>
+      </c>
+      <c r="K64">
+        <v>9026</v>
+      </c>
+      <c r="L64">
+        <f>VLOOKUP(A64+1,balacne!E:L,8,FALSE)</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65">
+        <v>9026</v>
+      </c>
+      <c r="D65">
+        <f>VLOOKUP(A65+1,balacne!E:L,7,FALSE)</f>
+        <v>7300</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <f>VLOOKUP(A65+1,balacne!E:L,3,FALSE)</f>
+        <v>1.873954E+194</v>
+      </c>
+      <c r="G65">
+        <v>1000</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>14600</v>
+      </c>
+      <c r="K65">
+        <v>9026</v>
+      </c>
+      <c r="L65">
+        <f>VLOOKUP(A65+1,balacne!E:L,8,FALSE)</f>
+        <v>7300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K63">
+  <conditionalFormatting sqref="A2:K65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3490,10 +3576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z70"/>
+  <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3755,7 +3841,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H70" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H72" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -5923,6 +6009,20 @@
         <f t="shared" si="56"/>
         <v>5600</v>
       </c>
+      <c r="N55" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O55" s="19">
+        <v>192</v>
+      </c>
+      <c r="P55" s="20">
+        <f t="shared" ref="P55" si="59">POWER(10,O55)</f>
+        <v>1E+192</v>
+      </c>
+      <c r="Q55" s="20" t="str">
+        <f t="shared" ref="Q55" si="60">RIGHT(P55,O55)</f>
+        <v>1E+192</v>
+      </c>
     </row>
     <row r="56" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E56" s="19">
@@ -6028,11 +6128,11 @@
         <v>51</v>
       </c>
       <c r="F59" s="20" t="str">
-        <f t="shared" ref="F59:F63" si="59">H59&amp;I59</f>
+        <f t="shared" ref="F59:F63" si="61">H59&amp;I59</f>
         <v>1.6463격</v>
       </c>
       <c r="G59" s="20">
-        <f t="shared" ref="G59:G63" si="60">H59*J59</f>
+        <f t="shared" ref="G59:G63" si="62">H59*J59</f>
         <v>1.6463E+168</v>
       </c>
       <c r="H59" s="20">
@@ -6044,15 +6144,15 @@
         <v>격</v>
       </c>
       <c r="J59" s="19" t="str">
-        <f t="shared" ref="J59:J63" si="61">VLOOKUP(I59,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J59:J63" si="63">VLOOKUP(I59,N:Q,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K59" s="17">
-        <f t="shared" ref="K59:K63" si="62">L59</f>
+        <f t="shared" ref="K59:K63" si="64">L59</f>
         <v>6000</v>
       </c>
       <c r="L59" s="11">
-        <f t="shared" ref="L59:L63" si="63">($B$14*(E59-1)+2000)/2</f>
+        <f t="shared" ref="L59:L63" si="65">($B$14*(E59-1)+2000)/2</f>
         <v>6000</v>
       </c>
     </row>
@@ -6061,11 +6161,11 @@
         <v>52</v>
       </c>
       <c r="F60" s="20" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>166.2763격</v>
       </c>
       <c r="G60" s="20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1.6627629999999998E+170</v>
       </c>
       <c r="H60" s="20">
@@ -6077,15 +6177,15 @@
         <v>격</v>
       </c>
       <c r="J60" s="19" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+168</v>
       </c>
       <c r="K60" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>6100</v>
       </c>
       <c r="L60" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>6100</v>
       </c>
     </row>
@@ -6094,11 +6194,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="20" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.6794창</v>
       </c>
       <c r="G61" s="20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1.6794000000000001E+172</v>
       </c>
       <c r="H61" s="20">
@@ -6110,15 +6210,15 @@
         <v>창</v>
       </c>
       <c r="J61" s="19" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+172</v>
       </c>
       <c r="K61" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>6200</v>
       </c>
       <c r="L61" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>6200</v>
       </c>
     </row>
@@ -6127,11 +6227,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="20" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>169.6194창</v>
       </c>
       <c r="G62" s="20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1.6961940000000003E+174</v>
       </c>
       <c r="H62" s="20">
@@ -6143,15 +6243,15 @@
         <v>창</v>
       </c>
       <c r="J62" s="19" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+172</v>
       </c>
       <c r="K62" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>6300</v>
       </c>
       <c r="L62" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>6300</v>
       </c>
     </row>
@@ -6160,11 +6260,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="20" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.7132공</v>
       </c>
       <c r="G63" s="20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1.7132000000000001E+176</v>
       </c>
       <c r="H63" s="20">
@@ -6176,15 +6276,15 @@
         <v>공</v>
       </c>
       <c r="J63" s="19" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+176</v>
       </c>
       <c r="K63" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>6400</v>
       </c>
       <c r="L63" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>6400</v>
       </c>
     </row>
@@ -6193,11 +6293,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="20" t="str">
-        <f t="shared" ref="F64:F70" si="64">H64&amp;I64</f>
+        <f t="shared" ref="F64:F70" si="66">H64&amp;I64</f>
         <v>173.0332공</v>
       </c>
       <c r="G64" s="20">
-        <f t="shared" ref="G64:G70" si="65">H64*J64</f>
+        <f t="shared" ref="G64:G70" si="67">H64*J64</f>
         <v>1.7303319999999999E+178</v>
       </c>
       <c r="H64" s="20">
@@ -6209,15 +6309,15 @@
         <v>공</v>
       </c>
       <c r="J64" s="19" t="str">
-        <f t="shared" ref="J64:J70" si="66">VLOOKUP(I64,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J64:J70" si="68">VLOOKUP(I64,N:Q,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K64" s="17">
-        <f t="shared" ref="K64:K70" si="67">L64</f>
+        <f t="shared" ref="K64:K70" si="69">L64</f>
         <v>6500</v>
       </c>
       <c r="L64" s="11">
-        <f t="shared" ref="L64:L70" si="68">($B$14*(E64-1)+2000)/2</f>
+        <f t="shared" ref="L64:L70" si="70">($B$14*(E64-1)+2000)/2</f>
         <v>6500</v>
       </c>
     </row>
@@ -6226,11 +6326,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="20" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1.7477채</v>
       </c>
       <c r="G65" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1.7477E+180</v>
       </c>
       <c r="H65" s="20">
@@ -6242,15 +6342,15 @@
         <v>채</v>
       </c>
       <c r="J65" s="19" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+180</v>
       </c>
       <c r="K65" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>6600</v>
       </c>
       <c r="L65" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>6600</v>
       </c>
     </row>
@@ -6259,11 +6359,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="20" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>176.5177채</v>
       </c>
       <c r="G66" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1.7651769999999998E+182</v>
       </c>
       <c r="H66" s="20">
@@ -6275,15 +6375,15 @@
         <v>채</v>
       </c>
       <c r="J66" s="19" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+180</v>
       </c>
       <c r="K66" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>6700</v>
       </c>
       <c r="L66" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>6700</v>
       </c>
     </row>
@@ -6292,11 +6392,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="20" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1.7829피</v>
       </c>
       <c r="G67" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1.7829E+184</v>
       </c>
       <c r="H67" s="20">
@@ -6308,15 +6408,15 @@
         <v>피</v>
       </c>
       <c r="J67" s="19" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+184</v>
       </c>
       <c r="K67" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>6800</v>
       </c>
       <c r="L67" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>6800</v>
       </c>
     </row>
@@ -6325,11 +6425,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="20" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>180.0729피</v>
       </c>
       <c r="G68" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1.8007290000000001E+186</v>
       </c>
       <c r="H68" s="20">
@@ -6341,15 +6441,15 @@
         <v>피</v>
       </c>
       <c r="J68" s="19" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+184</v>
       </c>
       <c r="K68" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>6900</v>
       </c>
       <c r="L68" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>6900</v>
       </c>
     </row>
@@ -6358,11 +6458,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="20" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1.8188동</v>
       </c>
       <c r="G69" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1.8188000000000001E+188</v>
       </c>
       <c r="H69" s="20">
@@ -6374,15 +6474,15 @@
         <v>동</v>
       </c>
       <c r="J69" s="19" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+188</v>
       </c>
       <c r="K69" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>7000</v>
       </c>
       <c r="L69" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>7000</v>
       </c>
     </row>
@@ -6391,11 +6491,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="20" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>183.6988동</v>
       </c>
       <c r="G70" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1.8369879999999999E+190</v>
       </c>
       <c r="H70" s="20">
@@ -6407,16 +6507,82 @@
         <v>동</v>
       </c>
       <c r="J70" s="19" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+188</v>
       </c>
       <c r="K70" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>7100</v>
       </c>
       <c r="L70" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>7100</v>
+      </c>
+    </row>
+    <row r="71" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E71" s="19">
+        <v>63</v>
+      </c>
+      <c r="F71" s="20" t="str">
+        <f t="shared" ref="F71:F72" si="71">H71&amp;I71</f>
+        <v>1.8554멸</v>
+      </c>
+      <c r="G71" s="20">
+        <f t="shared" ref="G71:G72" si="72">H71*J71</f>
+        <v>1.8554000000000001E+192</v>
+      </c>
+      <c r="H71" s="20">
+        <f t="shared" si="7"/>
+        <v>1.8553999999999999</v>
+      </c>
+      <c r="I71" s="19" t="str" cm="1">
+        <f t="array" ref="I71">IF(AND(H70&gt;100,H71&lt;100),INDEX(N:N,MATCH(I70,N:N,0)+1,0),I70)</f>
+        <v>멸</v>
+      </c>
+      <c r="J71" s="19" t="str">
+        <f t="shared" ref="J71:J72" si="73">VLOOKUP(I71,N:Q,4,FALSE)</f>
+        <v>1E+192</v>
+      </c>
+      <c r="K71" s="17">
+        <f t="shared" ref="K71:K72" si="74">L71</f>
+        <v>7200</v>
+      </c>
+      <c r="L71" s="11">
+        <f t="shared" ref="L71:L72" si="75">($B$14*(E71-1)+2000)/2</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="72" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E72" s="19">
+        <v>64</v>
+      </c>
+      <c r="F72" s="20" t="str">
+        <f t="shared" si="71"/>
+        <v>187.3954멸</v>
+      </c>
+      <c r="G72" s="20">
+        <f t="shared" si="72"/>
+        <v>1.873954E+194</v>
+      </c>
+      <c r="H72" s="20">
+        <f t="shared" si="7"/>
+        <v>187.3954</v>
+      </c>
+      <c r="I72" s="19" t="str" cm="1">
+        <f t="array" ref="I72">IF(AND(H71&gt;100,H72&lt;100),INDEX(N:N,MATCH(I71,N:N,0)+1,0),I71)</f>
+        <v>멸</v>
+      </c>
+      <c r="J72" s="19" t="str">
+        <f t="shared" si="73"/>
+        <v>1E+192</v>
+      </c>
+      <c r="K72" s="17">
+        <f t="shared" si="74"/>
+        <v>7300</v>
+      </c>
+      <c r="L72" s="11">
+        <f t="shared" si="75"/>
+        <v>7300</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD8977B-A5AD-4C07-BFF3-57CF8C26E0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C4F70F-40A4-4672-B223-CED84046807B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxTower" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,14 @@
   </si>
   <si>
     <t>멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -971,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3563,9 +3571,173 @@
         <v>7300</v>
       </c>
     </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66">
+        <v>9026</v>
+      </c>
+      <c r="D66">
+        <f>VLOOKUP(A66+1,balacne!E:L,7,FALSE)</f>
+        <v>7400</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
+        <f>VLOOKUP(A66+1,balacne!E:L,3,FALSE)</f>
+        <v>1.8927000000000001E+196</v>
+      </c>
+      <c r="G66">
+        <v>1000</v>
+      </c>
+      <c r="H66">
+        <v>8</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>14800</v>
+      </c>
+      <c r="K66">
+        <v>9026</v>
+      </c>
+      <c r="L66">
+        <f>VLOOKUP(A66+1,balacne!E:L,8,FALSE)</f>
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67">
+        <v>9026</v>
+      </c>
+      <c r="D67">
+        <f>VLOOKUP(A67+1,balacne!E:L,7,FALSE)</f>
+        <v>7500</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <f>VLOOKUP(A67+1,balacne!E:L,3,FALSE)</f>
+        <v>1.911627E+198</v>
+      </c>
+      <c r="G67">
+        <v>1000</v>
+      </c>
+      <c r="H67">
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>15000</v>
+      </c>
+      <c r="K67">
+        <v>9026</v>
+      </c>
+      <c r="L67">
+        <f>VLOOKUP(A67+1,balacne!E:L,8,FALSE)</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>9026</v>
+      </c>
+      <c r="D68">
+        <f>VLOOKUP(A68+1,balacne!E:L,7,FALSE)</f>
+        <v>7600</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <f>VLOOKUP(A68+1,balacne!E:L,3,FALSE)</f>
+        <v>1.9308E+200</v>
+      </c>
+      <c r="G68">
+        <v>1000</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>15200</v>
+      </c>
+      <c r="K68">
+        <v>9026</v>
+      </c>
+      <c r="L68">
+        <f>VLOOKUP(A68+1,balacne!E:L,8,FALSE)</f>
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>9026</v>
+      </c>
+      <c r="D69">
+        <f>VLOOKUP(A69+1,balacne!E:L,7,FALSE)</f>
+        <v>7700</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <f>VLOOKUP(A69+1,balacne!E:L,3,FALSE)</f>
+        <v>1.9501079999999999E+202</v>
+      </c>
+      <c r="G69">
+        <v>1000</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>15400</v>
+      </c>
+      <c r="K69">
+        <v>9026</v>
+      </c>
+      <c r="L69">
+        <f>VLOOKUP(A69+1,balacne!E:L,8,FALSE)</f>
+        <v>7700</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K65">
+  <conditionalFormatting sqref="A2:K69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3576,10 +3748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z72"/>
+  <dimension ref="A1:Z76"/>
   <sheetViews>
     <sheetView topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3841,7 +4013,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H72" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H76" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -6056,6 +6228,20 @@
         <f t="shared" si="56"/>
         <v>5700</v>
       </c>
+      <c r="N56" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="O56" s="19">
+        <v>196</v>
+      </c>
+      <c r="P56" s="20">
+        <f t="shared" ref="P56:P57" si="61">POWER(10,O56)</f>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="Q56" s="20" t="str">
+        <f t="shared" ref="Q56:Q57" si="62">RIGHT(P56,O56)</f>
+        <v>1E+196</v>
+      </c>
     </row>
     <row r="57" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E57" s="19">
@@ -6089,6 +6275,20 @@
         <f t="shared" si="56"/>
         <v>5800</v>
       </c>
+      <c r="N57" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O57" s="19">
+        <v>200</v>
+      </c>
+      <c r="P57" s="20">
+        <f t="shared" si="61"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="Q57" s="20" t="str">
+        <f t="shared" si="62"/>
+        <v>1E+200</v>
+      </c>
     </row>
     <row r="58" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E58" s="19">
@@ -6128,11 +6328,11 @@
         <v>51</v>
       </c>
       <c r="F59" s="20" t="str">
-        <f t="shared" ref="F59:F63" si="61">H59&amp;I59</f>
+        <f t="shared" ref="F59:F63" si="63">H59&amp;I59</f>
         <v>1.6463격</v>
       </c>
       <c r="G59" s="20">
-        <f t="shared" ref="G59:G63" si="62">H59*J59</f>
+        <f t="shared" ref="G59:G63" si="64">H59*J59</f>
         <v>1.6463E+168</v>
       </c>
       <c r="H59" s="20">
@@ -6144,15 +6344,15 @@
         <v>격</v>
       </c>
       <c r="J59" s="19" t="str">
-        <f t="shared" ref="J59:J63" si="63">VLOOKUP(I59,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J59:J63" si="65">VLOOKUP(I59,N:Q,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K59" s="17">
-        <f t="shared" ref="K59:K63" si="64">L59</f>
+        <f t="shared" ref="K59:K63" si="66">L59</f>
         <v>6000</v>
       </c>
       <c r="L59" s="11">
-        <f t="shared" ref="L59:L63" si="65">($B$14*(E59-1)+2000)/2</f>
+        <f t="shared" ref="L59:L63" si="67">($B$14*(E59-1)+2000)/2</f>
         <v>6000</v>
       </c>
     </row>
@@ -6161,11 +6361,11 @@
         <v>52</v>
       </c>
       <c r="F60" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>166.2763격</v>
       </c>
       <c r="G60" s="20">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1.6627629999999998E+170</v>
       </c>
       <c r="H60" s="20">
@@ -6177,15 +6377,15 @@
         <v>격</v>
       </c>
       <c r="J60" s="19" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+168</v>
       </c>
       <c r="K60" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>6100</v>
       </c>
       <c r="L60" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>6100</v>
       </c>
     </row>
@@ -6194,11 +6394,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1.6794창</v>
       </c>
       <c r="G61" s="20">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1.6794000000000001E+172</v>
       </c>
       <c r="H61" s="20">
@@ -6210,15 +6410,15 @@
         <v>창</v>
       </c>
       <c r="J61" s="19" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+172</v>
       </c>
       <c r="K61" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>6200</v>
       </c>
       <c r="L61" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>6200</v>
       </c>
     </row>
@@ -6227,11 +6427,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>169.6194창</v>
       </c>
       <c r="G62" s="20">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1.6961940000000003E+174</v>
       </c>
       <c r="H62" s="20">
@@ -6243,15 +6443,15 @@
         <v>창</v>
       </c>
       <c r="J62" s="19" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+172</v>
       </c>
       <c r="K62" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>6300</v>
       </c>
       <c r="L62" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>6300</v>
       </c>
     </row>
@@ -6260,11 +6460,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="20" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1.7132공</v>
       </c>
       <c r="G63" s="20">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1.7132000000000001E+176</v>
       </c>
       <c r="H63" s="20">
@@ -6276,15 +6476,15 @@
         <v>공</v>
       </c>
       <c r="J63" s="19" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+176</v>
       </c>
       <c r="K63" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>6400</v>
       </c>
       <c r="L63" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>6400</v>
       </c>
     </row>
@@ -6293,11 +6493,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="20" t="str">
-        <f t="shared" ref="F64:F70" si="66">H64&amp;I64</f>
+        <f t="shared" ref="F64:F70" si="68">H64&amp;I64</f>
         <v>173.0332공</v>
       </c>
       <c r="G64" s="20">
-        <f t="shared" ref="G64:G70" si="67">H64*J64</f>
+        <f t="shared" ref="G64:G70" si="69">H64*J64</f>
         <v>1.7303319999999999E+178</v>
       </c>
       <c r="H64" s="20">
@@ -6309,15 +6509,15 @@
         <v>공</v>
       </c>
       <c r="J64" s="19" t="str">
-        <f t="shared" ref="J64:J70" si="68">VLOOKUP(I64,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J64:J70" si="70">VLOOKUP(I64,N:Q,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K64" s="17">
-        <f t="shared" ref="K64:K70" si="69">L64</f>
+        <f t="shared" ref="K64:K70" si="71">L64</f>
         <v>6500</v>
       </c>
       <c r="L64" s="11">
-        <f t="shared" ref="L64:L70" si="70">($B$14*(E64-1)+2000)/2</f>
+        <f t="shared" ref="L64:L70" si="72">($B$14*(E64-1)+2000)/2</f>
         <v>6500</v>
       </c>
     </row>
@@ -6326,11 +6526,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="20" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1.7477채</v>
       </c>
       <c r="G65" s="20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1.7477E+180</v>
       </c>
       <c r="H65" s="20">
@@ -6342,15 +6542,15 @@
         <v>채</v>
       </c>
       <c r="J65" s="19" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1E+180</v>
       </c>
       <c r="K65" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>6600</v>
       </c>
       <c r="L65" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>6600</v>
       </c>
     </row>
@@ -6359,11 +6559,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="20" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>176.5177채</v>
       </c>
       <c r="G66" s="20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1.7651769999999998E+182</v>
       </c>
       <c r="H66" s="20">
@@ -6375,15 +6575,15 @@
         <v>채</v>
       </c>
       <c r="J66" s="19" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1E+180</v>
       </c>
       <c r="K66" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>6700</v>
       </c>
       <c r="L66" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>6700</v>
       </c>
     </row>
@@ -6392,11 +6592,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="20" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1.7829피</v>
       </c>
       <c r="G67" s="20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1.7829E+184</v>
       </c>
       <c r="H67" s="20">
@@ -6408,15 +6608,15 @@
         <v>피</v>
       </c>
       <c r="J67" s="19" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1E+184</v>
       </c>
       <c r="K67" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>6800</v>
       </c>
       <c r="L67" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>6800</v>
       </c>
     </row>
@@ -6425,11 +6625,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="20" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>180.0729피</v>
       </c>
       <c r="G68" s="20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1.8007290000000001E+186</v>
       </c>
       <c r="H68" s="20">
@@ -6441,15 +6641,15 @@
         <v>피</v>
       </c>
       <c r="J68" s="19" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1E+184</v>
       </c>
       <c r="K68" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>6900</v>
       </c>
       <c r="L68" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>6900</v>
       </c>
     </row>
@@ -6458,11 +6658,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="20" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1.8188동</v>
       </c>
       <c r="G69" s="20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1.8188000000000001E+188</v>
       </c>
       <c r="H69" s="20">
@@ -6474,15 +6674,15 @@
         <v>동</v>
       </c>
       <c r="J69" s="19" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1E+188</v>
       </c>
       <c r="K69" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>7000</v>
       </c>
       <c r="L69" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>7000</v>
       </c>
     </row>
@@ -6491,11 +6691,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="20" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>183.6988동</v>
       </c>
       <c r="G70" s="20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1.8369879999999999E+190</v>
       </c>
       <c r="H70" s="20">
@@ -6507,15 +6707,15 @@
         <v>동</v>
       </c>
       <c r="J70" s="19" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1E+188</v>
       </c>
       <c r="K70" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>7100</v>
       </c>
       <c r="L70" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>7100</v>
       </c>
     </row>
@@ -6524,11 +6724,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="20" t="str">
-        <f t="shared" ref="F71:F72" si="71">H71&amp;I71</f>
+        <f t="shared" ref="F71:F74" si="73">H71&amp;I71</f>
         <v>1.8554멸</v>
       </c>
       <c r="G71" s="20">
-        <f t="shared" ref="G71:G72" si="72">H71*J71</f>
+        <f t="shared" ref="G71:G74" si="74">H71*J71</f>
         <v>1.8554000000000001E+192</v>
       </c>
       <c r="H71" s="20">
@@ -6540,15 +6740,15 @@
         <v>멸</v>
       </c>
       <c r="J71" s="19" t="str">
-        <f t="shared" ref="J71:J72" si="73">VLOOKUP(I71,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J71:J74" si="75">VLOOKUP(I71,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K71" s="17">
-        <f t="shared" ref="K71:K72" si="74">L71</f>
+        <f t="shared" ref="K71:K74" si="76">L71</f>
         <v>7200</v>
       </c>
       <c r="L71" s="11">
-        <f t="shared" ref="L71:L72" si="75">($B$14*(E71-1)+2000)/2</f>
+        <f t="shared" ref="L71:L74" si="77">($B$14*(E71-1)+2000)/2</f>
         <v>7200</v>
       </c>
     </row>
@@ -6557,11 +6757,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="20" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>187.3954멸</v>
       </c>
       <c r="G72" s="20">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1.873954E+194</v>
       </c>
       <c r="H72" s="20">
@@ -6573,16 +6773,148 @@
         <v>멸</v>
       </c>
       <c r="J72" s="19" t="str">
+        <f t="shared" si="75"/>
+        <v>1E+192</v>
+      </c>
+      <c r="K72" s="17">
+        <f t="shared" si="76"/>
+        <v>7300</v>
+      </c>
+      <c r="L72" s="11">
+        <f t="shared" si="77"/>
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="73" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E73" s="19">
+        <v>65</v>
+      </c>
+      <c r="F73" s="20" t="str">
         <f t="shared" si="73"/>
-        <v>1E+192</v>
-      </c>
-      <c r="K72" s="17">
+        <v>1.8927향</v>
+      </c>
+      <c r="G73" s="20">
         <f t="shared" si="74"/>
-        <v>7300</v>
-      </c>
-      <c r="L72" s="11">
+        <v>1.8927000000000001E+196</v>
+      </c>
+      <c r="H73" s="20">
+        <f t="shared" si="7"/>
+        <v>1.8927</v>
+      </c>
+      <c r="I73" s="19" t="str" cm="1">
+        <f t="array" ref="I73">IF(AND(H72&gt;100,H73&lt;100),INDEX(N:N,MATCH(I72,N:N,0)+1,0),I72)</f>
+        <v>향</v>
+      </c>
+      <c r="J73" s="19" t="str">
         <f t="shared" si="75"/>
-        <v>7300</v>
+        <v>1E+196</v>
+      </c>
+      <c r="K73" s="17">
+        <f t="shared" si="76"/>
+        <v>7400</v>
+      </c>
+      <c r="L73" s="11">
+        <f t="shared" si="77"/>
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="74" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E74" s="19">
+        <v>66</v>
+      </c>
+      <c r="F74" s="20" t="str">
+        <f t="shared" si="73"/>
+        <v>191.1627향</v>
+      </c>
+      <c r="G74" s="20">
+        <f t="shared" si="74"/>
+        <v>1.911627E+198</v>
+      </c>
+      <c r="H74" s="20">
+        <f t="shared" si="7"/>
+        <v>191.1627</v>
+      </c>
+      <c r="I74" s="19" t="str" cm="1">
+        <f t="array" ref="I74">IF(AND(H73&gt;100,H74&lt;100),INDEX(N:N,MATCH(I73,N:N,0)+1,0),I73)</f>
+        <v>향</v>
+      </c>
+      <c r="J74" s="19" t="str">
+        <f t="shared" si="75"/>
+        <v>1E+196</v>
+      </c>
+      <c r="K74" s="17">
+        <f t="shared" si="76"/>
+        <v>7500</v>
+      </c>
+      <c r="L74" s="11">
+        <f t="shared" si="77"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="75" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E75" s="19">
+        <v>67</v>
+      </c>
+      <c r="F75" s="20" t="str">
+        <f t="shared" ref="F75:F76" si="78">H75&amp;I75</f>
+        <v>1.9308증</v>
+      </c>
+      <c r="G75" s="20">
+        <f t="shared" ref="G75:G76" si="79">H75*J75</f>
+        <v>1.9308E+200</v>
+      </c>
+      <c r="H75" s="20">
+        <f t="shared" si="7"/>
+        <v>1.9308000000000001</v>
+      </c>
+      <c r="I75" s="19" t="str" cm="1">
+        <f t="array" ref="I75">IF(AND(H74&gt;100,H75&lt;100),INDEX(N:N,MATCH(I74,N:N,0)+1,0),I74)</f>
+        <v>증</v>
+      </c>
+      <c r="J75" s="19" t="str">
+        <f t="shared" ref="J75:J76" si="80">VLOOKUP(I75,N:Q,4,FALSE)</f>
+        <v>1E+200</v>
+      </c>
+      <c r="K75" s="17">
+        <f t="shared" ref="K75:K76" si="81">L75</f>
+        <v>7600</v>
+      </c>
+      <c r="L75" s="11">
+        <f t="shared" ref="L75:L76" si="82">($B$14*(E75-1)+2000)/2</f>
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="76" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E76" s="19">
+        <v>68</v>
+      </c>
+      <c r="F76" s="20" t="str">
+        <f t="shared" si="78"/>
+        <v>195.0108증</v>
+      </c>
+      <c r="G76" s="20">
+        <f t="shared" si="79"/>
+        <v>1.9501079999999999E+202</v>
+      </c>
+      <c r="H76" s="20">
+        <f t="shared" si="7"/>
+        <v>195.01079999999999</v>
+      </c>
+      <c r="I76" s="19" t="str" cm="1">
+        <f t="array" ref="I76">IF(AND(H75&gt;100,H76&lt;100),INDEX(N:N,MATCH(I75,N:N,0)+1,0),I75)</f>
+        <v>증</v>
+      </c>
+      <c r="J76" s="19" t="str">
+        <f t="shared" si="80"/>
+        <v>1E+200</v>
+      </c>
+      <c r="K76" s="17">
+        <f t="shared" si="81"/>
+        <v>7700</v>
+      </c>
+      <c r="L76" s="11">
+        <f t="shared" si="82"/>
+        <v>7700</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C4F70F-40A4-4672-B223-CED84046807B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A52D4E-8307-43A3-9B47-A86407768310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,6 +387,14 @@
   </si>
   <si>
     <t>증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3735,9 +3743,91 @@
         <v>7700</v>
       </c>
     </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70">
+        <v>9026</v>
+      </c>
+      <c r="D70">
+        <f>VLOOKUP(A70+1,balacne!E:L,7,FALSE)</f>
+        <v>7800</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <f>VLOOKUP(A70+1,balacne!E:L,3,FALSE)</f>
+        <v>1.9696999999999999E+204</v>
+      </c>
+      <c r="G70">
+        <v>1000</v>
+      </c>
+      <c r="H70">
+        <v>8</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>15600</v>
+      </c>
+      <c r="K70">
+        <v>9026</v>
+      </c>
+      <c r="L70">
+        <f>VLOOKUP(A70+1,balacne!E:L,8,FALSE)</f>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71">
+        <v>9026</v>
+      </c>
+      <c r="D71">
+        <f>VLOOKUP(A71+1,balacne!E:L,7,FALSE)</f>
+        <v>7900</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <f>VLOOKUP(A71+1,balacne!E:L,3,FALSE)</f>
+        <v>1.9893969999999998E+206</v>
+      </c>
+      <c r="G71">
+        <v>1000</v>
+      </c>
+      <c r="H71">
+        <v>8</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>15800</v>
+      </c>
+      <c r="K71">
+        <v>9026</v>
+      </c>
+      <c r="L71">
+        <f>VLOOKUP(A71+1,balacne!E:L,8,FALSE)</f>
+        <v>7900</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K69">
+  <conditionalFormatting sqref="A2:K71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3748,10 +3838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z76"/>
+  <dimension ref="A1:Z79"/>
   <sheetViews>
-    <sheetView topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView topLeftCell="B57" workbookViewId="0">
+      <selection activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4013,7 +4103,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H76" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H79" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -6322,17 +6412,31 @@
         <f t="shared" si="56"/>
         <v>5900</v>
       </c>
+      <c r="N58" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="O58" s="19">
+        <v>204</v>
+      </c>
+      <c r="P58" s="20">
+        <f t="shared" ref="P58:P59" si="63">POWER(10,O58)</f>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="Q58" s="20" t="str">
+        <f t="shared" ref="Q58:Q59" si="64">RIGHT(P58,O58)</f>
+        <v>1E+204</v>
+      </c>
     </row>
     <row r="59" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E59" s="19">
         <v>51</v>
       </c>
       <c r="F59" s="20" t="str">
-        <f t="shared" ref="F59:F63" si="63">H59&amp;I59</f>
+        <f t="shared" ref="F59:F63" si="65">H59&amp;I59</f>
         <v>1.6463격</v>
       </c>
       <c r="G59" s="20">
-        <f t="shared" ref="G59:G63" si="64">H59*J59</f>
+        <f t="shared" ref="G59:G63" si="66">H59*J59</f>
         <v>1.6463E+168</v>
       </c>
       <c r="H59" s="20">
@@ -6344,16 +6448,30 @@
         <v>격</v>
       </c>
       <c r="J59" s="19" t="str">
-        <f t="shared" ref="J59:J63" si="65">VLOOKUP(I59,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J59:J63" si="67">VLOOKUP(I59,N:Q,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K59" s="17">
-        <f t="shared" ref="K59:K63" si="66">L59</f>
+        <f t="shared" ref="K59:K63" si="68">L59</f>
         <v>6000</v>
       </c>
       <c r="L59" s="11">
-        <f t="shared" ref="L59:L63" si="67">($B$14*(E59-1)+2000)/2</f>
+        <f t="shared" ref="L59:L63" si="69">($B$14*(E59-1)+2000)/2</f>
         <v>6000</v>
+      </c>
+      <c r="N59" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O59" s="19">
+        <v>208</v>
+      </c>
+      <c r="P59" s="20">
+        <f t="shared" si="63"/>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="Q59" s="20" t="str">
+        <f t="shared" si="64"/>
+        <v>1E+208</v>
       </c>
     </row>
     <row r="60" spans="5:17" x14ac:dyDescent="0.3">
@@ -6361,11 +6479,11 @@
         <v>52</v>
       </c>
       <c r="F60" s="20" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>166.2763격</v>
       </c>
       <c r="G60" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1.6627629999999998E+170</v>
       </c>
       <c r="H60" s="20">
@@ -6377,15 +6495,15 @@
         <v>격</v>
       </c>
       <c r="J60" s="19" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+168</v>
       </c>
       <c r="K60" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>6100</v>
       </c>
       <c r="L60" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>6100</v>
       </c>
     </row>
@@ -6394,11 +6512,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="20" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.6794창</v>
       </c>
       <c r="G61" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1.6794000000000001E+172</v>
       </c>
       <c r="H61" s="20">
@@ -6410,15 +6528,15 @@
         <v>창</v>
       </c>
       <c r="J61" s="19" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+172</v>
       </c>
       <c r="K61" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>6200</v>
       </c>
       <c r="L61" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>6200</v>
       </c>
     </row>
@@ -6427,11 +6545,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="20" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>169.6194창</v>
       </c>
       <c r="G62" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1.6961940000000003E+174</v>
       </c>
       <c r="H62" s="20">
@@ -6443,15 +6561,15 @@
         <v>창</v>
       </c>
       <c r="J62" s="19" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+172</v>
       </c>
       <c r="K62" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>6300</v>
       </c>
       <c r="L62" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>6300</v>
       </c>
     </row>
@@ -6460,11 +6578,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="20" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.7132공</v>
       </c>
       <c r="G63" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1.7132000000000001E+176</v>
       </c>
       <c r="H63" s="20">
@@ -6476,15 +6594,15 @@
         <v>공</v>
       </c>
       <c r="J63" s="19" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+176</v>
       </c>
       <c r="K63" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>6400</v>
       </c>
       <c r="L63" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>6400</v>
       </c>
     </row>
@@ -6493,11 +6611,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="20" t="str">
-        <f t="shared" ref="F64:F70" si="68">H64&amp;I64</f>
+        <f t="shared" ref="F64:F70" si="70">H64&amp;I64</f>
         <v>173.0332공</v>
       </c>
       <c r="G64" s="20">
-        <f t="shared" ref="G64:G70" si="69">H64*J64</f>
+        <f t="shared" ref="G64:G70" si="71">H64*J64</f>
         <v>1.7303319999999999E+178</v>
       </c>
       <c r="H64" s="20">
@@ -6509,15 +6627,15 @@
         <v>공</v>
       </c>
       <c r="J64" s="19" t="str">
-        <f t="shared" ref="J64:J70" si="70">VLOOKUP(I64,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J64:J70" si="72">VLOOKUP(I64,N:Q,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K64" s="17">
-        <f t="shared" ref="K64:K70" si="71">L64</f>
+        <f t="shared" ref="K64:K70" si="73">L64</f>
         <v>6500</v>
       </c>
       <c r="L64" s="11">
-        <f t="shared" ref="L64:L70" si="72">($B$14*(E64-1)+2000)/2</f>
+        <f t="shared" ref="L64:L70" si="74">($B$14*(E64-1)+2000)/2</f>
         <v>6500</v>
       </c>
     </row>
@@ -6526,11 +6644,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="20" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1.7477채</v>
       </c>
       <c r="G65" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1.7477E+180</v>
       </c>
       <c r="H65" s="20">
@@ -6542,15 +6660,15 @@
         <v>채</v>
       </c>
       <c r="J65" s="19" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+180</v>
       </c>
       <c r="K65" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>6600</v>
       </c>
       <c r="L65" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>6600</v>
       </c>
     </row>
@@ -6559,11 +6677,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="20" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>176.5177채</v>
       </c>
       <c r="G66" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1.7651769999999998E+182</v>
       </c>
       <c r="H66" s="20">
@@ -6575,15 +6693,15 @@
         <v>채</v>
       </c>
       <c r="J66" s="19" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+180</v>
       </c>
       <c r="K66" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>6700</v>
       </c>
       <c r="L66" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>6700</v>
       </c>
     </row>
@@ -6592,11 +6710,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="20" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1.7829피</v>
       </c>
       <c r="G67" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1.7829E+184</v>
       </c>
       <c r="H67" s="20">
@@ -6608,15 +6726,15 @@
         <v>피</v>
       </c>
       <c r="J67" s="19" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+184</v>
       </c>
       <c r="K67" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>6800</v>
       </c>
       <c r="L67" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>6800</v>
       </c>
     </row>
@@ -6625,11 +6743,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="20" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>180.0729피</v>
       </c>
       <c r="G68" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1.8007290000000001E+186</v>
       </c>
       <c r="H68" s="20">
@@ -6641,15 +6759,15 @@
         <v>피</v>
       </c>
       <c r="J68" s="19" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+184</v>
       </c>
       <c r="K68" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>6900</v>
       </c>
       <c r="L68" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>6900</v>
       </c>
     </row>
@@ -6658,11 +6776,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="20" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1.8188동</v>
       </c>
       <c r="G69" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1.8188000000000001E+188</v>
       </c>
       <c r="H69" s="20">
@@ -6674,15 +6792,15 @@
         <v>동</v>
       </c>
       <c r="J69" s="19" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+188</v>
       </c>
       <c r="K69" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>7000</v>
       </c>
       <c r="L69" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>7000</v>
       </c>
     </row>
@@ -6691,11 +6809,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="20" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>183.6988동</v>
       </c>
       <c r="G70" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1.8369879999999999E+190</v>
       </c>
       <c r="H70" s="20">
@@ -6707,15 +6825,15 @@
         <v>동</v>
       </c>
       <c r="J70" s="19" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+188</v>
       </c>
       <c r="K70" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>7100</v>
       </c>
       <c r="L70" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>7100</v>
       </c>
     </row>
@@ -6724,11 +6842,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="20" t="str">
-        <f t="shared" ref="F71:F74" si="73">H71&amp;I71</f>
+        <f t="shared" ref="F71:F74" si="75">H71&amp;I71</f>
         <v>1.8554멸</v>
       </c>
       <c r="G71" s="20">
-        <f t="shared" ref="G71:G74" si="74">H71*J71</f>
+        <f t="shared" ref="G71:G74" si="76">H71*J71</f>
         <v>1.8554000000000001E+192</v>
       </c>
       <c r="H71" s="20">
@@ -6740,15 +6858,15 @@
         <v>멸</v>
       </c>
       <c r="J71" s="19" t="str">
-        <f t="shared" ref="J71:J74" si="75">VLOOKUP(I71,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J71:J74" si="77">VLOOKUP(I71,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K71" s="17">
-        <f t="shared" ref="K71:K74" si="76">L71</f>
+        <f t="shared" ref="K71:K74" si="78">L71</f>
         <v>7200</v>
       </c>
       <c r="L71" s="11">
-        <f t="shared" ref="L71:L74" si="77">($B$14*(E71-1)+2000)/2</f>
+        <f t="shared" ref="L71:L74" si="79">($B$14*(E71-1)+2000)/2</f>
         <v>7200</v>
       </c>
     </row>
@@ -6757,11 +6875,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="20" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>187.3954멸</v>
       </c>
       <c r="G72" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1.873954E+194</v>
       </c>
       <c r="H72" s="20">
@@ -6773,15 +6891,15 @@
         <v>멸</v>
       </c>
       <c r="J72" s="19" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+192</v>
       </c>
       <c r="K72" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>7300</v>
       </c>
       <c r="L72" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>7300</v>
       </c>
     </row>
@@ -6790,11 +6908,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="20" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.8927향</v>
       </c>
       <c r="G73" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1.8927000000000001E+196</v>
       </c>
       <c r="H73" s="20">
@@ -6806,15 +6924,15 @@
         <v>향</v>
       </c>
       <c r="J73" s="19" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+196</v>
       </c>
       <c r="K73" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>7400</v>
       </c>
       <c r="L73" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>7400</v>
       </c>
     </row>
@@ -6823,11 +6941,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="20" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>191.1627향</v>
       </c>
       <c r="G74" s="20">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1.911627E+198</v>
       </c>
       <c r="H74" s="20">
@@ -6839,15 +6957,15 @@
         <v>향</v>
       </c>
       <c r="J74" s="19" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+196</v>
       </c>
       <c r="K74" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>7500</v>
       </c>
       <c r="L74" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>7500</v>
       </c>
     </row>
@@ -6856,11 +6974,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="20" t="str">
-        <f t="shared" ref="F75:F76" si="78">H75&amp;I75</f>
+        <f t="shared" ref="F75:F77" si="80">H75&amp;I75</f>
         <v>1.9308증</v>
       </c>
       <c r="G75" s="20">
-        <f t="shared" ref="G75:G76" si="79">H75*J75</f>
+        <f t="shared" ref="G75:G77" si="81">H75*J75</f>
         <v>1.9308E+200</v>
       </c>
       <c r="H75" s="20">
@@ -6872,15 +6990,15 @@
         <v>증</v>
       </c>
       <c r="J75" s="19" t="str">
-        <f t="shared" ref="J75:J76" si="80">VLOOKUP(I75,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J75:J77" si="82">VLOOKUP(I75,N:Q,4,FALSE)</f>
         <v>1E+200</v>
       </c>
       <c r="K75" s="17">
-        <f t="shared" ref="K75:K76" si="81">L75</f>
+        <f t="shared" ref="K75:K77" si="83">L75</f>
         <v>7600</v>
       </c>
       <c r="L75" s="11">
-        <f t="shared" ref="L75:L76" si="82">($B$14*(E75-1)+2000)/2</f>
+        <f t="shared" ref="L75:L77" si="84">($B$14*(E75-1)+2000)/2</f>
         <v>7600</v>
       </c>
     </row>
@@ -6889,11 +7007,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="20" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>195.0108증</v>
       </c>
       <c r="G76" s="20">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1.9501079999999999E+202</v>
       </c>
       <c r="H76" s="20">
@@ -6905,17 +7023,92 @@
         <v>증</v>
       </c>
       <c r="J76" s="19" t="str">
+        <f t="shared" si="82"/>
+        <v>1E+200</v>
+      </c>
+      <c r="K76" s="17">
+        <f t="shared" si="83"/>
+        <v>7700</v>
+      </c>
+      <c r="L76" s="11">
+        <f t="shared" si="84"/>
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="77" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E77" s="19">
+        <v>69</v>
+      </c>
+      <c r="F77" s="20" t="str">
         <f t="shared" si="80"/>
-        <v>1E+200</v>
-      </c>
-      <c r="K76" s="17">
+        <v>1.9697쾌</v>
+      </c>
+      <c r="G77" s="20">
         <f t="shared" si="81"/>
-        <v>7700</v>
-      </c>
-      <c r="L76" s="11">
+        <v>1.9696999999999999E+204</v>
+      </c>
+      <c r="H77" s="20">
+        <f t="shared" si="7"/>
+        <v>1.9697</v>
+      </c>
+      <c r="I77" s="19" t="str" cm="1">
+        <f t="array" ref="I77">IF(AND(H76&gt;100,H77&lt;100),INDEX(N:N,MATCH(I76,N:N,0)+1,0),I76)</f>
+        <v>쾌</v>
+      </c>
+      <c r="J77" s="19" t="str">
         <f t="shared" si="82"/>
-        <v>7700</v>
-      </c>
+        <v>1E+204</v>
+      </c>
+      <c r="K77" s="17">
+        <f t="shared" si="83"/>
+        <v>7800</v>
+      </c>
+      <c r="L77" s="11">
+        <f t="shared" si="84"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="78" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E78" s="19">
+        <v>70</v>
+      </c>
+      <c r="F78" s="20" t="str">
+        <f t="shared" ref="F78:F79" si="85">H78&amp;I78</f>
+        <v>198.9397쾌</v>
+      </c>
+      <c r="G78" s="20">
+        <f t="shared" ref="G78:G79" si="86">H78*J78</f>
+        <v>1.9893969999999998E+206</v>
+      </c>
+      <c r="H78" s="20">
+        <f t="shared" si="7"/>
+        <v>198.93969999999999</v>
+      </c>
+      <c r="I78" s="19" t="str" cm="1">
+        <f t="array" ref="I78">IF(AND(H77&gt;100,H78&lt;100),INDEX(N:N,MATCH(I77,N:N,0)+1,0),I77)</f>
+        <v>쾌</v>
+      </c>
+      <c r="J78" s="19" t="str">
+        <f t="shared" ref="J78:J79" si="87">VLOOKUP(I78,N:Q,4,FALSE)</f>
+        <v>1E+204</v>
+      </c>
+      <c r="K78" s="17">
+        <f t="shared" ref="K78:K79" si="88">L78</f>
+        <v>7900</v>
+      </c>
+      <c r="L78" s="11">
+        <f t="shared" ref="L78:L79" si="89">($B$14*(E78-1)+2000)/2</f>
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="79" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E79" s="19"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A52D4E-8307-43A3-9B47-A86407768310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37026EBB-9472-4EB2-8C42-6F5E9EA8A204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxTower" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,10 @@
   </si>
   <si>
     <t>우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -987,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3825,9 +3829,91 @@
         <v>7900</v>
       </c>
     </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>9026</v>
+      </c>
+      <c r="D72">
+        <f>VLOOKUP(A72+1,balacne!E:L,7,FALSE)</f>
+        <v>8000</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
+        <f>VLOOKUP(A72+1,balacne!E:L,3,FALSE)</f>
+        <v>2.0093000000000001E+208</v>
+      </c>
+      <c r="G72">
+        <v>1000</v>
+      </c>
+      <c r="H72">
+        <v>8</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>16000</v>
+      </c>
+      <c r="K72">
+        <v>9026</v>
+      </c>
+      <c r="L72">
+        <f>VLOOKUP(A72+1,balacne!E:L,8,FALSE)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73">
+        <v>9026</v>
+      </c>
+      <c r="D73">
+        <f>VLOOKUP(A73+1,balacne!E:L,7,FALSE)</f>
+        <v>8100</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
+        <f>VLOOKUP(A73+1,balacne!E:L,3,FALSE)</f>
+        <v>2.0293929999999999E+210</v>
+      </c>
+      <c r="G73">
+        <v>1000</v>
+      </c>
+      <c r="H73">
+        <v>8</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>16200</v>
+      </c>
+      <c r="K73">
+        <v>9026</v>
+      </c>
+      <c r="L73">
+        <f>VLOOKUP(A73+1,balacne!E:L,8,FALSE)</f>
+        <v>8100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K71">
+  <conditionalFormatting sqref="A2:K73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3838,10 +3924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z79"/>
+  <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="B57" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView topLeftCell="B66" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4103,7 +4189,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H79" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H80" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -6506,6 +6592,20 @@
         <f t="shared" si="69"/>
         <v>6100</v>
       </c>
+      <c r="N60" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="O60" s="19">
+        <v>212</v>
+      </c>
+      <c r="P60" s="20">
+        <f t="shared" ref="P60" si="70">POWER(10,O60)</f>
+        <v>9.9999999999999991E+211</v>
+      </c>
+      <c r="Q60" s="20" t="str">
+        <f t="shared" ref="Q60" si="71">RIGHT(P60,O60)</f>
+        <v>1E+212</v>
+      </c>
     </row>
     <row r="61" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E61" s="19">
@@ -6611,11 +6711,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="20" t="str">
-        <f t="shared" ref="F64:F70" si="70">H64&amp;I64</f>
+        <f t="shared" ref="F64:F70" si="72">H64&amp;I64</f>
         <v>173.0332공</v>
       </c>
       <c r="G64" s="20">
-        <f t="shared" ref="G64:G70" si="71">H64*J64</f>
+        <f t="shared" ref="G64:G70" si="73">H64*J64</f>
         <v>1.7303319999999999E+178</v>
       </c>
       <c r="H64" s="20">
@@ -6627,15 +6727,15 @@
         <v>공</v>
       </c>
       <c r="J64" s="19" t="str">
-        <f t="shared" ref="J64:J70" si="72">VLOOKUP(I64,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J64:J70" si="74">VLOOKUP(I64,N:Q,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K64" s="17">
-        <f t="shared" ref="K64:K70" si="73">L64</f>
+        <f t="shared" ref="K64:K70" si="75">L64</f>
         <v>6500</v>
       </c>
       <c r="L64" s="11">
-        <f t="shared" ref="L64:L70" si="74">($B$14*(E64-1)+2000)/2</f>
+        <f t="shared" ref="L64:L70" si="76">($B$14*(E64-1)+2000)/2</f>
         <v>6500</v>
       </c>
     </row>
@@ -6644,11 +6744,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="20" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1.7477채</v>
       </c>
       <c r="G65" s="20">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1.7477E+180</v>
       </c>
       <c r="H65" s="20">
@@ -6660,15 +6760,15 @@
         <v>채</v>
       </c>
       <c r="J65" s="19" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+180</v>
       </c>
       <c r="K65" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>6600</v>
       </c>
       <c r="L65" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>6600</v>
       </c>
     </row>
@@ -6677,11 +6777,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="20" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>176.5177채</v>
       </c>
       <c r="G66" s="20">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1.7651769999999998E+182</v>
       </c>
       <c r="H66" s="20">
@@ -6693,15 +6793,15 @@
         <v>채</v>
       </c>
       <c r="J66" s="19" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+180</v>
       </c>
       <c r="K66" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>6700</v>
       </c>
       <c r="L66" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>6700</v>
       </c>
     </row>
@@ -6710,11 +6810,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="20" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1.7829피</v>
       </c>
       <c r="G67" s="20">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1.7829E+184</v>
       </c>
       <c r="H67" s="20">
@@ -6726,15 +6826,15 @@
         <v>피</v>
       </c>
       <c r="J67" s="19" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+184</v>
       </c>
       <c r="K67" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>6800</v>
       </c>
       <c r="L67" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>6800</v>
       </c>
     </row>
@@ -6743,11 +6843,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="20" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>180.0729피</v>
       </c>
       <c r="G68" s="20">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1.8007290000000001E+186</v>
       </c>
       <c r="H68" s="20">
@@ -6759,15 +6859,15 @@
         <v>피</v>
       </c>
       <c r="J68" s="19" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+184</v>
       </c>
       <c r="K68" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>6900</v>
       </c>
       <c r="L68" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>6900</v>
       </c>
     </row>
@@ -6776,11 +6876,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="20" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1.8188동</v>
       </c>
       <c r="G69" s="20">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1.8188000000000001E+188</v>
       </c>
       <c r="H69" s="20">
@@ -6792,15 +6892,15 @@
         <v>동</v>
       </c>
       <c r="J69" s="19" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+188</v>
       </c>
       <c r="K69" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>7000</v>
       </c>
       <c r="L69" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>7000</v>
       </c>
     </row>
@@ -6809,11 +6909,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="20" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>183.6988동</v>
       </c>
       <c r="G70" s="20">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1.8369879999999999E+190</v>
       </c>
       <c r="H70" s="20">
@@ -6825,15 +6925,15 @@
         <v>동</v>
       </c>
       <c r="J70" s="19" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+188</v>
       </c>
       <c r="K70" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>7100</v>
       </c>
       <c r="L70" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>7100</v>
       </c>
     </row>
@@ -6842,11 +6942,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="20" t="str">
-        <f t="shared" ref="F71:F74" si="75">H71&amp;I71</f>
+        <f t="shared" ref="F71:F74" si="77">H71&amp;I71</f>
         <v>1.8554멸</v>
       </c>
       <c r="G71" s="20">
-        <f t="shared" ref="G71:G74" si="76">H71*J71</f>
+        <f t="shared" ref="G71:G74" si="78">H71*J71</f>
         <v>1.8554000000000001E+192</v>
       </c>
       <c r="H71" s="20">
@@ -6858,15 +6958,15 @@
         <v>멸</v>
       </c>
       <c r="J71" s="19" t="str">
-        <f t="shared" ref="J71:J74" si="77">VLOOKUP(I71,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J71:J74" si="79">VLOOKUP(I71,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K71" s="17">
-        <f t="shared" ref="K71:K74" si="78">L71</f>
+        <f t="shared" ref="K71:K74" si="80">L71</f>
         <v>7200</v>
       </c>
       <c r="L71" s="11">
-        <f t="shared" ref="L71:L74" si="79">($B$14*(E71-1)+2000)/2</f>
+        <f t="shared" ref="L71:L74" si="81">($B$14*(E71-1)+2000)/2</f>
         <v>7200</v>
       </c>
     </row>
@@ -6875,11 +6975,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="20" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>187.3954멸</v>
       </c>
       <c r="G72" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.873954E+194</v>
       </c>
       <c r="H72" s="20">
@@ -6891,15 +6991,15 @@
         <v>멸</v>
       </c>
       <c r="J72" s="19" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1E+192</v>
       </c>
       <c r="K72" s="17">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>7300</v>
       </c>
       <c r="L72" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>7300</v>
       </c>
     </row>
@@ -6908,11 +7008,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="20" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.8927향</v>
       </c>
       <c r="G73" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.8927000000000001E+196</v>
       </c>
       <c r="H73" s="20">
@@ -6924,15 +7024,15 @@
         <v>향</v>
       </c>
       <c r="J73" s="19" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1E+196</v>
       </c>
       <c r="K73" s="17">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>7400</v>
       </c>
       <c r="L73" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>7400</v>
       </c>
     </row>
@@ -6941,11 +7041,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="20" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>191.1627향</v>
       </c>
       <c r="G74" s="20">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.911627E+198</v>
       </c>
       <c r="H74" s="20">
@@ -6957,15 +7057,15 @@
         <v>향</v>
       </c>
       <c r="J74" s="19" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1E+196</v>
       </c>
       <c r="K74" s="17">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>7500</v>
       </c>
       <c r="L74" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>7500</v>
       </c>
     </row>
@@ -6974,11 +7074,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="20" t="str">
-        <f t="shared" ref="F75:F77" si="80">H75&amp;I75</f>
+        <f t="shared" ref="F75:F77" si="82">H75&amp;I75</f>
         <v>1.9308증</v>
       </c>
       <c r="G75" s="20">
-        <f t="shared" ref="G75:G77" si="81">H75*J75</f>
+        <f t="shared" ref="G75:G77" si="83">H75*J75</f>
         <v>1.9308E+200</v>
       </c>
       <c r="H75" s="20">
@@ -6990,15 +7090,15 @@
         <v>증</v>
       </c>
       <c r="J75" s="19" t="str">
-        <f t="shared" ref="J75:J77" si="82">VLOOKUP(I75,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J75:J77" si="84">VLOOKUP(I75,N:Q,4,FALSE)</f>
         <v>1E+200</v>
       </c>
       <c r="K75" s="17">
-        <f t="shared" ref="K75:K77" si="83">L75</f>
+        <f t="shared" ref="K75:K77" si="85">L75</f>
         <v>7600</v>
       </c>
       <c r="L75" s="11">
-        <f t="shared" ref="L75:L77" si="84">($B$14*(E75-1)+2000)/2</f>
+        <f t="shared" ref="L75:L77" si="86">($B$14*(E75-1)+2000)/2</f>
         <v>7600</v>
       </c>
     </row>
@@ -7007,11 +7107,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="20" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>195.0108증</v>
       </c>
       <c r="G76" s="20">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1.9501079999999999E+202</v>
       </c>
       <c r="H76" s="20">
@@ -7023,15 +7123,15 @@
         <v>증</v>
       </c>
       <c r="J76" s="19" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+200</v>
       </c>
       <c r="K76" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>7700</v>
       </c>
       <c r="L76" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>7700</v>
       </c>
     </row>
@@ -7040,11 +7140,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="20" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1.9697쾌</v>
       </c>
       <c r="G77" s="20">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1.9696999999999999E+204</v>
       </c>
       <c r="H77" s="20">
@@ -7056,15 +7156,15 @@
         <v>쾌</v>
       </c>
       <c r="J77" s="19" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+204</v>
       </c>
       <c r="K77" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>7800</v>
       </c>
       <c r="L77" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>7800</v>
       </c>
     </row>
@@ -7073,11 +7173,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="20" t="str">
-        <f t="shared" ref="F78:F79" si="85">H78&amp;I78</f>
+        <f t="shared" ref="F78:F79" si="87">H78&amp;I78</f>
         <v>198.9397쾌</v>
       </c>
       <c r="G78" s="20">
-        <f t="shared" ref="G78:G79" si="86">H78*J78</f>
+        <f t="shared" ref="G78:G79" si="88">H78*J78</f>
         <v>1.9893969999999998E+206</v>
       </c>
       <c r="H78" s="20">
@@ -7089,26 +7189,83 @@
         <v>쾌</v>
       </c>
       <c r="J78" s="19" t="str">
-        <f t="shared" ref="J78:J79" si="87">VLOOKUP(I78,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J78:J79" si="89">VLOOKUP(I78,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K78" s="17">
-        <f t="shared" ref="K78:K79" si="88">L78</f>
+        <f t="shared" ref="K78:K79" si="90">L78</f>
         <v>7900</v>
       </c>
       <c r="L78" s="11">
-        <f t="shared" ref="L78:L79" si="89">($B$14*(E78-1)+2000)/2</f>
+        <f t="shared" ref="L78:L79" si="91">($B$14*(E78-1)+2000)/2</f>
         <v>7900</v>
       </c>
     </row>
     <row r="79" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E79" s="19"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="17"/>
+      <c r="E79" s="19">
+        <v>71</v>
+      </c>
+      <c r="F79" s="20" t="str">
+        <f t="shared" si="87"/>
+        <v>2.0093우</v>
+      </c>
+      <c r="G79" s="20">
+        <f t="shared" si="88"/>
+        <v>2.0093000000000001E+208</v>
+      </c>
+      <c r="H79" s="20">
+        <f t="shared" si="7"/>
+        <v>2.0093000000000001</v>
+      </c>
+      <c r="I79" s="19" t="str" cm="1">
+        <f t="array" ref="I79">IF(AND(H78&gt;100,H79&lt;100),INDEX(N:N,MATCH(I78,N:N,0)+1,0),I78)</f>
+        <v>우</v>
+      </c>
+      <c r="J79" s="19" t="str">
+        <f t="shared" si="89"/>
+        <v>1E+208</v>
+      </c>
+      <c r="K79" s="17">
+        <f t="shared" si="90"/>
+        <v>8000</v>
+      </c>
+      <c r="L79" s="11">
+        <f t="shared" si="91"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="80" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E80" s="19">
+        <v>72</v>
+      </c>
+      <c r="F80" s="20" t="str">
+        <f t="shared" ref="F80" si="92">H80&amp;I80</f>
+        <v>202.9393우</v>
+      </c>
+      <c r="G80" s="20">
+        <f t="shared" ref="G80" si="93">H80*J80</f>
+        <v>2.0293929999999999E+210</v>
+      </c>
+      <c r="H80" s="20">
+        <f t="shared" si="7"/>
+        <v>202.9393</v>
+      </c>
+      <c r="I80" s="19" t="str" cm="1">
+        <f t="array" ref="I80">IF(AND(H79&gt;100,H80&lt;100),INDEX(N:N,MATCH(I79,N:N,0)+1,0),I79)</f>
+        <v>우</v>
+      </c>
+      <c r="J80" s="19" t="str">
+        <f t="shared" ref="J80" si="94">VLOOKUP(I80,N:Q,4,FALSE)</f>
+        <v>1E+208</v>
+      </c>
+      <c r="K80" s="17">
+        <f t="shared" ref="K80" si="95">L80</f>
+        <v>8100</v>
+      </c>
+      <c r="L80" s="11">
+        <f t="shared" ref="L80" si="96">($B$14*(E80-1)+2000)/2</f>
+        <v>8100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37026EBB-9472-4EB2-8C42-6F5E9EA8A204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C4F86-3F7B-405C-AE66-04887D5440A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,6 +399,14 @@
   </si>
   <si>
     <t>팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,9 +703,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -735,7 +743,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -841,7 +849,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -983,7 +991,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -991,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3911,9 +3919,91 @@
         <v>8100</v>
       </c>
     </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>9026</v>
+      </c>
+      <c r="D74">
+        <f>VLOOKUP(A74+1,balacne!E:L,7,FALSE)</f>
+        <v>8200</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
+        <f>VLOOKUP(A74+1,balacne!E:L,3,FALSE)</f>
+        <v>2.0496999999999998E+212</v>
+      </c>
+      <c r="G74">
+        <v>1000</v>
+      </c>
+      <c r="H74">
+        <v>8</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>16400</v>
+      </c>
+      <c r="K74">
+        <v>9026</v>
+      </c>
+      <c r="L74">
+        <f>VLOOKUP(A74+1,balacne!E:L,8,FALSE)</f>
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75">
+        <v>9026</v>
+      </c>
+      <c r="D75">
+        <f>VLOOKUP(A75+1,balacne!E:L,7,FALSE)</f>
+        <v>8300</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2">
+        <f>VLOOKUP(A75+1,balacne!E:L,3,FALSE)</f>
+        <v>2.0701969999999999E+214</v>
+      </c>
+      <c r="G75">
+        <v>1000</v>
+      </c>
+      <c r="H75">
+        <v>8</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>16600</v>
+      </c>
+      <c r="K75">
+        <v>9026</v>
+      </c>
+      <c r="L75">
+        <f>VLOOKUP(A75+1,balacne!E:L,8,FALSE)</f>
+        <v>8300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K73">
+  <conditionalFormatting sqref="A2:K75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3924,10 +4014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z80"/>
+  <dimension ref="A1:Z86"/>
   <sheetViews>
-    <sheetView topLeftCell="B66" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+    <sheetView topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4189,7 +4279,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H80" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H86" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -6639,6 +6729,20 @@
         <f t="shared" si="69"/>
         <v>6200</v>
       </c>
+      <c r="N61" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="O61" s="19">
+        <v>216</v>
+      </c>
+      <c r="P61" s="20">
+        <f t="shared" ref="P61:P62" si="72">POWER(10,O61)</f>
+        <v>1E+216</v>
+      </c>
+      <c r="Q61" s="20" t="str">
+        <f t="shared" ref="Q61:Q62" si="73">RIGHT(P61,O61)</f>
+        <v>1E+216</v>
+      </c>
     </row>
     <row r="62" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E62" s="19">
@@ -6672,6 +6776,20 @@
         <f t="shared" si="69"/>
         <v>6300</v>
       </c>
+      <c r="N62" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="O62" s="19">
+        <v>220</v>
+      </c>
+      <c r="P62" s="20">
+        <f t="shared" si="72"/>
+        <v>1E+220</v>
+      </c>
+      <c r="Q62" s="20" t="str">
+        <f t="shared" si="73"/>
+        <v>1E+220</v>
+      </c>
     </row>
     <row r="63" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E63" s="19">
@@ -6711,11 +6829,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="20" t="str">
-        <f t="shared" ref="F64:F70" si="72">H64&amp;I64</f>
+        <f t="shared" ref="F64:F70" si="74">H64&amp;I64</f>
         <v>173.0332공</v>
       </c>
       <c r="G64" s="20">
-        <f t="shared" ref="G64:G70" si="73">H64*J64</f>
+        <f t="shared" ref="G64:G70" si="75">H64*J64</f>
         <v>1.7303319999999999E+178</v>
       </c>
       <c r="H64" s="20">
@@ -6727,15 +6845,15 @@
         <v>공</v>
       </c>
       <c r="J64" s="19" t="str">
-        <f t="shared" ref="J64:J70" si="74">VLOOKUP(I64,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J64:J70" si="76">VLOOKUP(I64,N:Q,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K64" s="17">
-        <f t="shared" ref="K64:K70" si="75">L64</f>
+        <f t="shared" ref="K64:K70" si="77">L64</f>
         <v>6500</v>
       </c>
       <c r="L64" s="11">
-        <f t="shared" ref="L64:L70" si="76">($B$14*(E64-1)+2000)/2</f>
+        <f t="shared" ref="L64:L70" si="78">($B$14*(E64-1)+2000)/2</f>
         <v>6500</v>
       </c>
     </row>
@@ -6744,11 +6862,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="20" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1.7477채</v>
       </c>
       <c r="G65" s="20">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.7477E+180</v>
       </c>
       <c r="H65" s="20">
@@ -6760,15 +6878,15 @@
         <v>채</v>
       </c>
       <c r="J65" s="19" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+180</v>
       </c>
       <c r="K65" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>6600</v>
       </c>
       <c r="L65" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>6600</v>
       </c>
     </row>
@@ -6777,11 +6895,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="20" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>176.5177채</v>
       </c>
       <c r="G66" s="20">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.7651769999999998E+182</v>
       </c>
       <c r="H66" s="20">
@@ -6793,15 +6911,15 @@
         <v>채</v>
       </c>
       <c r="J66" s="19" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+180</v>
       </c>
       <c r="K66" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>6700</v>
       </c>
       <c r="L66" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>6700</v>
       </c>
     </row>
@@ -6810,11 +6928,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="20" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1.7829피</v>
       </c>
       <c r="G67" s="20">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.7829E+184</v>
       </c>
       <c r="H67" s="20">
@@ -6826,15 +6944,15 @@
         <v>피</v>
       </c>
       <c r="J67" s="19" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+184</v>
       </c>
       <c r="K67" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>6800</v>
       </c>
       <c r="L67" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>6800</v>
       </c>
     </row>
@@ -6843,11 +6961,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="20" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>180.0729피</v>
       </c>
       <c r="G68" s="20">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.8007290000000001E+186</v>
       </c>
       <c r="H68" s="20">
@@ -6859,15 +6977,15 @@
         <v>피</v>
       </c>
       <c r="J68" s="19" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+184</v>
       </c>
       <c r="K68" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>6900</v>
       </c>
       <c r="L68" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>6900</v>
       </c>
     </row>
@@ -6876,11 +6994,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="20" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1.8188동</v>
       </c>
       <c r="G69" s="20">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.8188000000000001E+188</v>
       </c>
       <c r="H69" s="20">
@@ -6892,15 +7010,15 @@
         <v>동</v>
       </c>
       <c r="J69" s="19" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+188</v>
       </c>
       <c r="K69" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>7000</v>
       </c>
       <c r="L69" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>7000</v>
       </c>
     </row>
@@ -6909,11 +7027,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="20" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>183.6988동</v>
       </c>
       <c r="G70" s="20">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.8369879999999999E+190</v>
       </c>
       <c r="H70" s="20">
@@ -6925,15 +7043,15 @@
         <v>동</v>
       </c>
       <c r="J70" s="19" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+188</v>
       </c>
       <c r="K70" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>7100</v>
       </c>
       <c r="L70" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>7100</v>
       </c>
     </row>
@@ -6942,11 +7060,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="20" t="str">
-        <f t="shared" ref="F71:F74" si="77">H71&amp;I71</f>
+        <f t="shared" ref="F71:F74" si="79">H71&amp;I71</f>
         <v>1.8554멸</v>
       </c>
       <c r="G71" s="20">
-        <f t="shared" ref="G71:G74" si="78">H71*J71</f>
+        <f t="shared" ref="G71:G74" si="80">H71*J71</f>
         <v>1.8554000000000001E+192</v>
       </c>
       <c r="H71" s="20">
@@ -6958,15 +7076,15 @@
         <v>멸</v>
       </c>
       <c r="J71" s="19" t="str">
-        <f t="shared" ref="J71:J74" si="79">VLOOKUP(I71,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J71:J74" si="81">VLOOKUP(I71,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K71" s="17">
-        <f t="shared" ref="K71:K74" si="80">L71</f>
+        <f t="shared" ref="K71:K74" si="82">L71</f>
         <v>7200</v>
       </c>
       <c r="L71" s="11">
-        <f t="shared" ref="L71:L74" si="81">($B$14*(E71-1)+2000)/2</f>
+        <f t="shared" ref="L71:L74" si="83">($B$14*(E71-1)+2000)/2</f>
         <v>7200</v>
       </c>
     </row>
@@ -6975,11 +7093,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="20" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>187.3954멸</v>
       </c>
       <c r="G72" s="20">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1.873954E+194</v>
       </c>
       <c r="H72" s="20">
@@ -6991,15 +7109,15 @@
         <v>멸</v>
       </c>
       <c r="J72" s="19" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1E+192</v>
       </c>
       <c r="K72" s="17">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>7300</v>
       </c>
       <c r="L72" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>7300</v>
       </c>
     </row>
@@ -7008,11 +7126,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="20" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.8927향</v>
       </c>
       <c r="G73" s="20">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1.8927000000000001E+196</v>
       </c>
       <c r="H73" s="20">
@@ -7024,15 +7142,15 @@
         <v>향</v>
       </c>
       <c r="J73" s="19" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1E+196</v>
       </c>
       <c r="K73" s="17">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>7400</v>
       </c>
       <c r="L73" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>7400</v>
       </c>
     </row>
@@ -7041,11 +7159,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="20" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>191.1627향</v>
       </c>
       <c r="G74" s="20">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1.911627E+198</v>
       </c>
       <c r="H74" s="20">
@@ -7057,15 +7175,15 @@
         <v>향</v>
       </c>
       <c r="J74" s="19" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1E+196</v>
       </c>
       <c r="K74" s="17">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>7500</v>
       </c>
       <c r="L74" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>7500</v>
       </c>
     </row>
@@ -7074,11 +7192,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="20" t="str">
-        <f t="shared" ref="F75:F77" si="82">H75&amp;I75</f>
+        <f t="shared" ref="F75:F77" si="84">H75&amp;I75</f>
         <v>1.9308증</v>
       </c>
       <c r="G75" s="20">
-        <f t="shared" ref="G75:G77" si="83">H75*J75</f>
+        <f t="shared" ref="G75:G77" si="85">H75*J75</f>
         <v>1.9308E+200</v>
       </c>
       <c r="H75" s="20">
@@ -7090,15 +7208,15 @@
         <v>증</v>
       </c>
       <c r="J75" s="19" t="str">
-        <f t="shared" ref="J75:J77" si="84">VLOOKUP(I75,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J75:J77" si="86">VLOOKUP(I75,N:Q,4,FALSE)</f>
         <v>1E+200</v>
       </c>
       <c r="K75" s="17">
-        <f t="shared" ref="K75:K77" si="85">L75</f>
+        <f t="shared" ref="K75:K77" si="87">L75</f>
         <v>7600</v>
       </c>
       <c r="L75" s="11">
-        <f t="shared" ref="L75:L77" si="86">($B$14*(E75-1)+2000)/2</f>
+        <f t="shared" ref="L75:L77" si="88">($B$14*(E75-1)+2000)/2</f>
         <v>7600</v>
       </c>
     </row>
@@ -7107,11 +7225,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="20" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>195.0108증</v>
       </c>
       <c r="G76" s="20">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1.9501079999999999E+202</v>
       </c>
       <c r="H76" s="20">
@@ -7123,15 +7241,15 @@
         <v>증</v>
       </c>
       <c r="J76" s="19" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+200</v>
       </c>
       <c r="K76" s="17">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>7700</v>
       </c>
       <c r="L76" s="11">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>7700</v>
       </c>
     </row>
@@ -7140,11 +7258,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="20" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1.9697쾌</v>
       </c>
       <c r="G77" s="20">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1.9696999999999999E+204</v>
       </c>
       <c r="H77" s="20">
@@ -7156,15 +7274,15 @@
         <v>쾌</v>
       </c>
       <c r="J77" s="19" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+204</v>
       </c>
       <c r="K77" s="17">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>7800</v>
       </c>
       <c r="L77" s="11">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>7800</v>
       </c>
     </row>
@@ -7173,11 +7291,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="20" t="str">
-        <f t="shared" ref="F78:F79" si="87">H78&amp;I78</f>
+        <f t="shared" ref="F78:F79" si="89">H78&amp;I78</f>
         <v>198.9397쾌</v>
       </c>
       <c r="G78" s="20">
-        <f t="shared" ref="G78:G79" si="88">H78*J78</f>
+        <f t="shared" ref="G78:G79" si="90">H78*J78</f>
         <v>1.9893969999999998E+206</v>
       </c>
       <c r="H78" s="20">
@@ -7189,15 +7307,15 @@
         <v>쾌</v>
       </c>
       <c r="J78" s="19" t="str">
-        <f t="shared" ref="J78:J79" si="89">VLOOKUP(I78,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J78:J79" si="91">VLOOKUP(I78,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K78" s="17">
-        <f t="shared" ref="K78:K79" si="90">L78</f>
+        <f t="shared" ref="K78:K79" si="92">L78</f>
         <v>7900</v>
       </c>
       <c r="L78" s="11">
-        <f t="shared" ref="L78:L79" si="91">($B$14*(E78-1)+2000)/2</f>
+        <f t="shared" ref="L78:L79" si="93">($B$14*(E78-1)+2000)/2</f>
         <v>7900</v>
       </c>
     </row>
@@ -7206,11 +7324,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="20" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>2.0093우</v>
       </c>
       <c r="G79" s="20">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>2.0093000000000001E+208</v>
       </c>
       <c r="H79" s="20">
@@ -7222,15 +7340,15 @@
         <v>우</v>
       </c>
       <c r="J79" s="19" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1E+208</v>
       </c>
       <c r="K79" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>8000</v>
       </c>
       <c r="L79" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>8000</v>
       </c>
     </row>
@@ -7239,11 +7357,11 @@
         <v>72</v>
       </c>
       <c r="F80" s="20" t="str">
-        <f t="shared" ref="F80" si="92">H80&amp;I80</f>
+        <f t="shared" ref="F80:F81" si="94">H80&amp;I80</f>
         <v>202.9393우</v>
       </c>
       <c r="G80" s="20">
-        <f t="shared" ref="G80" si="93">H80*J80</f>
+        <f t="shared" ref="G80:G81" si="95">H80*J80</f>
         <v>2.0293929999999999E+210</v>
       </c>
       <c r="H80" s="20">
@@ -7255,16 +7373,214 @@
         <v>우</v>
       </c>
       <c r="J80" s="19" t="str">
-        <f t="shared" ref="J80" si="94">VLOOKUP(I80,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J80:J81" si="96">VLOOKUP(I80,N:Q,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K80" s="17">
-        <f t="shared" ref="K80" si="95">L80</f>
+        <f t="shared" ref="K80:K81" si="97">L80</f>
         <v>8100</v>
       </c>
       <c r="L80" s="11">
-        <f t="shared" ref="L80" si="96">($B$14*(E80-1)+2000)/2</f>
+        <f t="shared" ref="L80:L81" si="98">($B$14*(E80-1)+2000)/2</f>
         <v>8100</v>
+      </c>
+    </row>
+    <row r="81" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E81" s="19">
+        <v>73</v>
+      </c>
+      <c r="F81" s="20" t="str">
+        <f t="shared" si="94"/>
+        <v>2.0497팽</v>
+      </c>
+      <c r="G81" s="20">
+        <f t="shared" si="95"/>
+        <v>2.0496999999999998E+212</v>
+      </c>
+      <c r="H81" s="20">
+        <f t="shared" si="7"/>
+        <v>2.0497000000000001</v>
+      </c>
+      <c r="I81" s="19" t="str" cm="1">
+        <f t="array" ref="I81">IF(AND(H80&gt;100,H81&lt;100),INDEX(N:N,MATCH(I80,N:N,0)+1,0),I80)</f>
+        <v>팽</v>
+      </c>
+      <c r="J81" s="19" t="str">
+        <f t="shared" si="96"/>
+        <v>1E+212</v>
+      </c>
+      <c r="K81" s="17">
+        <f t="shared" si="97"/>
+        <v>8200</v>
+      </c>
+      <c r="L81" s="11">
+        <f t="shared" si="98"/>
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="82" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E82" s="19">
+        <v>74</v>
+      </c>
+      <c r="F82" s="20" t="str">
+        <f t="shared" ref="F82:F86" si="99">H82&amp;I82</f>
+        <v>207.0197팽</v>
+      </c>
+      <c r="G82" s="20">
+        <f t="shared" ref="G82:G86" si="100">H82*J82</f>
+        <v>2.0701969999999999E+214</v>
+      </c>
+      <c r="H82" s="20">
+        <f t="shared" si="7"/>
+        <v>207.0197</v>
+      </c>
+      <c r="I82" s="19" t="str" cm="1">
+        <f t="array" ref="I82">IF(AND(H81&gt;100,H82&lt;100),INDEX(N:N,MATCH(I81,N:N,0)+1,0),I81)</f>
+        <v>팽</v>
+      </c>
+      <c r="J82" s="19" t="str">
+        <f t="shared" ref="J82:J86" si="101">VLOOKUP(I82,N:Q,4,FALSE)</f>
+        <v>1E+212</v>
+      </c>
+      <c r="K82" s="17">
+        <f t="shared" ref="K82:K86" si="102">L82</f>
+        <v>8300</v>
+      </c>
+      <c r="L82" s="11">
+        <f t="shared" ref="L82:L86" si="103">($B$14*(E82-1)+2000)/2</f>
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="83" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E83" s="19">
+        <v>75</v>
+      </c>
+      <c r="F83" s="20" t="str">
+        <f t="shared" si="99"/>
+        <v>2.0909관</v>
+      </c>
+      <c r="G83" s="20">
+        <f t="shared" si="100"/>
+        <v>2.0909000000000005E+216</v>
+      </c>
+      <c r="H83" s="20">
+        <f t="shared" si="7"/>
+        <v>2.0909000000000004</v>
+      </c>
+      <c r="I83" s="19" t="str" cm="1">
+        <f t="array" ref="I83">IF(AND(H82&gt;100,H83&lt;100),INDEX(N:N,MATCH(I82,N:N,0)+1,0),I82)</f>
+        <v>관</v>
+      </c>
+      <c r="J83" s="19" t="str">
+        <f t="shared" si="101"/>
+        <v>1E+216</v>
+      </c>
+      <c r="K83" s="17">
+        <f t="shared" si="102"/>
+        <v>8400</v>
+      </c>
+      <c r="L83" s="11">
+        <f t="shared" si="103"/>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="84" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E84" s="19">
+        <v>76</v>
+      </c>
+      <c r="F84" s="20" t="str">
+        <f t="shared" si="99"/>
+        <v>211.1809관</v>
+      </c>
+      <c r="G84" s="20">
+        <f t="shared" si="100"/>
+        <v>2.1118089999999999E+218</v>
+      </c>
+      <c r="H84" s="20">
+        <f t="shared" si="7"/>
+        <v>211.18090000000001</v>
+      </c>
+      <c r="I84" s="19" t="str" cm="1">
+        <f t="array" ref="I84">IF(AND(H83&gt;100,H84&lt;100),INDEX(N:N,MATCH(I83,N:N,0)+1,0),I83)</f>
+        <v>관</v>
+      </c>
+      <c r="J84" s="19" t="str">
+        <f t="shared" si="101"/>
+        <v>1E+216</v>
+      </c>
+      <c r="K84" s="17">
+        <f t="shared" si="102"/>
+        <v>8500</v>
+      </c>
+      <c r="L84" s="11">
+        <f t="shared" si="103"/>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="85" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E85" s="19">
+        <v>77</v>
+      </c>
+      <c r="F85" s="20" t="str">
+        <f t="shared" si="99"/>
+        <v>2.133한</v>
+      </c>
+      <c r="G85" s="20">
+        <f t="shared" si="100"/>
+        <v>2.1330000000000001E+220</v>
+      </c>
+      <c r="H85" s="20">
+        <f t="shared" si="7"/>
+        <v>2.133</v>
+      </c>
+      <c r="I85" s="19" t="str" cm="1">
+        <f t="array" ref="I85">IF(AND(H84&gt;100,H85&lt;100),INDEX(N:N,MATCH(I84,N:N,0)+1,0),I84)</f>
+        <v>한</v>
+      </c>
+      <c r="J85" s="19" t="str">
+        <f t="shared" si="101"/>
+        <v>1E+220</v>
+      </c>
+      <c r="K85" s="17">
+        <f t="shared" si="102"/>
+        <v>8600</v>
+      </c>
+      <c r="L85" s="11">
+        <f t="shared" si="103"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="86" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E86" s="19">
+        <v>78</v>
+      </c>
+      <c r="F86" s="20" t="str">
+        <f t="shared" si="99"/>
+        <v>215.433한</v>
+      </c>
+      <c r="G86" s="20">
+        <f t="shared" si="100"/>
+        <v>2.15433E+222</v>
+      </c>
+      <c r="H86" s="20">
+        <f t="shared" si="7"/>
+        <v>215.43299999999999</v>
+      </c>
+      <c r="I86" s="19" t="str" cm="1">
+        <f t="array" ref="I86">IF(AND(H85&gt;100,H86&lt;100),INDEX(N:N,MATCH(I85,N:N,0)+1,0),I85)</f>
+        <v>한</v>
+      </c>
+      <c r="J86" s="19" t="str">
+        <f t="shared" si="101"/>
+        <v>1E+220</v>
+      </c>
+      <c r="K86" s="17">
+        <f t="shared" si="102"/>
+        <v>8700</v>
+      </c>
+      <c r="L86" s="11">
+        <f t="shared" si="103"/>
+        <v>8700</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C4F86-3F7B-405C-AE66-04887D5440A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB45FDE-A83A-49A1-837D-32EAEB9B5335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="88">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -999,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4001,9 +4001,173 @@
         <v>8300</v>
       </c>
     </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76">
+        <v>9026</v>
+      </c>
+      <c r="D76">
+        <f>VLOOKUP(A76+1,balacne!E:L,7,FALSE)</f>
+        <v>8400</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2">
+        <f>VLOOKUP(A76+1,balacne!E:L,3,FALSE)</f>
+        <v>2.0909000000000005E+216</v>
+      </c>
+      <c r="G76">
+        <v>1000</v>
+      </c>
+      <c r="H76">
+        <v>8</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>16800</v>
+      </c>
+      <c r="K76">
+        <v>9026</v>
+      </c>
+      <c r="L76">
+        <f>VLOOKUP(A76+1,balacne!E:L,8,FALSE)</f>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>9026</v>
+      </c>
+      <c r="D77">
+        <f>VLOOKUP(A77+1,balacne!E:L,7,FALSE)</f>
+        <v>8500</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2">
+        <f>VLOOKUP(A77+1,balacne!E:L,3,FALSE)</f>
+        <v>2.1118089999999999E+218</v>
+      </c>
+      <c r="G77">
+        <v>1000</v>
+      </c>
+      <c r="H77">
+        <v>8</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>17000</v>
+      </c>
+      <c r="K77">
+        <v>9026</v>
+      </c>
+      <c r="L77">
+        <f>VLOOKUP(A77+1,balacne!E:L,8,FALSE)</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78">
+        <v>9026</v>
+      </c>
+      <c r="D78">
+        <f>VLOOKUP(A78+1,balacne!E:L,7,FALSE)</f>
+        <v>8600</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
+        <f>VLOOKUP(A78+1,balacne!E:L,3,FALSE)</f>
+        <v>2.1330000000000001E+220</v>
+      </c>
+      <c r="G78">
+        <v>1000</v>
+      </c>
+      <c r="H78">
+        <v>8</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>17200</v>
+      </c>
+      <c r="K78">
+        <v>9026</v>
+      </c>
+      <c r="L78">
+        <f>VLOOKUP(A78+1,balacne!E:L,8,FALSE)</f>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79">
+        <v>9026</v>
+      </c>
+      <c r="D79">
+        <f>VLOOKUP(A79+1,balacne!E:L,7,FALSE)</f>
+        <v>8700</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
+        <f>VLOOKUP(A79+1,balacne!E:L,3,FALSE)</f>
+        <v>2.15433E+222</v>
+      </c>
+      <c r="G79">
+        <v>1000</v>
+      </c>
+      <c r="H79">
+        <v>8</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>17400</v>
+      </c>
+      <c r="K79">
+        <v>9026</v>
+      </c>
+      <c r="L79">
+        <f>VLOOKUP(A79+1,balacne!E:L,8,FALSE)</f>
+        <v>8700</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K75">
+  <conditionalFormatting sqref="A2:K79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB45FDE-A83A-49A1-837D-32EAEB9B5335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5064A6CC-DAFC-4E58-A68B-A5EB31CAE47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,6 +407,14 @@
   </si>
   <si>
     <t>한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -999,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4165,9 +4173,91 @@
         <v>8700</v>
       </c>
     </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80">
+        <v>9026</v>
+      </c>
+      <c r="D80">
+        <f>VLOOKUP(A80+1,balacne!E:L,7,FALSE)</f>
+        <v>8800</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2">
+        <f>VLOOKUP(A80+1,balacne!E:L,3,FALSE)</f>
+        <v>2.1759000000000004E+224</v>
+      </c>
+      <c r="G80">
+        <v>1000</v>
+      </c>
+      <c r="H80">
+        <v>8</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>17600</v>
+      </c>
+      <c r="K80">
+        <v>9026</v>
+      </c>
+      <c r="L80">
+        <f>VLOOKUP(A80+1,balacne!E:L,8,FALSE)</f>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81">
+        <v>9026</v>
+      </c>
+      <c r="D81">
+        <f>VLOOKUP(A81+1,balacne!E:L,7,FALSE)</f>
+        <v>8900</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2">
+        <f>VLOOKUP(A81+1,balacne!E:L,3,FALSE)</f>
+        <v>2.1976589999999999E+226</v>
+      </c>
+      <c r="G81">
+        <v>1000</v>
+      </c>
+      <c r="H81">
+        <v>8</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>17800</v>
+      </c>
+      <c r="K81">
+        <v>9026</v>
+      </c>
+      <c r="L81">
+        <f>VLOOKUP(A81+1,balacne!E:L,8,FALSE)</f>
+        <v>8900</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K79">
+  <conditionalFormatting sqref="A2:K81">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4178,10 +4268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z86"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView topLeftCell="B63" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4443,7 +4533,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H86" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H88" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -6987,17 +7077,31 @@
         <f t="shared" si="69"/>
         <v>6400</v>
       </c>
+      <c r="N63" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="O63" s="19">
+        <v>224</v>
+      </c>
+      <c r="P63" s="20">
+        <f t="shared" ref="P63:P64" si="74">POWER(10,O63)</f>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="Q63" s="20" t="str">
+        <f t="shared" ref="Q63:Q64" si="75">RIGHT(P63,O63)</f>
+        <v>1E+224</v>
+      </c>
     </row>
     <row r="64" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E64" s="19">
         <v>56</v>
       </c>
       <c r="F64" s="20" t="str">
-        <f t="shared" ref="F64:F70" si="74">H64&amp;I64</f>
+        <f t="shared" ref="F64:F70" si="76">H64&amp;I64</f>
         <v>173.0332공</v>
       </c>
       <c r="G64" s="20">
-        <f t="shared" ref="G64:G70" si="75">H64*J64</f>
+        <f t="shared" ref="G64:G70" si="77">H64*J64</f>
         <v>1.7303319999999999E+178</v>
       </c>
       <c r="H64" s="20">
@@ -7009,16 +7113,30 @@
         <v>공</v>
       </c>
       <c r="J64" s="19" t="str">
-        <f t="shared" ref="J64:J70" si="76">VLOOKUP(I64,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J64:J70" si="78">VLOOKUP(I64,N:Q,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K64" s="17">
-        <f t="shared" ref="K64:K70" si="77">L64</f>
+        <f t="shared" ref="K64:K70" si="79">L64</f>
         <v>6500</v>
       </c>
       <c r="L64" s="11">
-        <f t="shared" ref="L64:L70" si="78">($B$14*(E64-1)+2000)/2</f>
+        <f t="shared" ref="L64:L70" si="80">($B$14*(E64-1)+2000)/2</f>
         <v>6500</v>
+      </c>
+      <c r="N64" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="O64" s="19">
+        <v>228</v>
+      </c>
+      <c r="P64" s="20">
+        <f t="shared" si="74"/>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="Q64" s="20" t="str">
+        <f t="shared" si="75"/>
+        <v>1E+228</v>
       </c>
     </row>
     <row r="65" spans="5:12" x14ac:dyDescent="0.3">
@@ -7026,11 +7144,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="20" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1.7477채</v>
       </c>
       <c r="G65" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.7477E+180</v>
       </c>
       <c r="H65" s="20">
@@ -7042,15 +7160,15 @@
         <v>채</v>
       </c>
       <c r="J65" s="19" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+180</v>
       </c>
       <c r="K65" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>6600</v>
       </c>
       <c r="L65" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>6600</v>
       </c>
     </row>
@@ -7059,11 +7177,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="20" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>176.5177채</v>
       </c>
       <c r="G66" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.7651769999999998E+182</v>
       </c>
       <c r="H66" s="20">
@@ -7075,15 +7193,15 @@
         <v>채</v>
       </c>
       <c r="J66" s="19" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+180</v>
       </c>
       <c r="K66" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>6700</v>
       </c>
       <c r="L66" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>6700</v>
       </c>
     </row>
@@ -7092,11 +7210,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="20" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1.7829피</v>
       </c>
       <c r="G67" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.7829E+184</v>
       </c>
       <c r="H67" s="20">
@@ -7108,15 +7226,15 @@
         <v>피</v>
       </c>
       <c r="J67" s="19" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+184</v>
       </c>
       <c r="K67" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>6800</v>
       </c>
       <c r="L67" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>6800</v>
       </c>
     </row>
@@ -7125,11 +7243,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="20" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>180.0729피</v>
       </c>
       <c r="G68" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.8007290000000001E+186</v>
       </c>
       <c r="H68" s="20">
@@ -7141,15 +7259,15 @@
         <v>피</v>
       </c>
       <c r="J68" s="19" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+184</v>
       </c>
       <c r="K68" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>6900</v>
       </c>
       <c r="L68" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>6900</v>
       </c>
     </row>
@@ -7158,11 +7276,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="20" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1.8188동</v>
       </c>
       <c r="G69" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.8188000000000001E+188</v>
       </c>
       <c r="H69" s="20">
@@ -7174,15 +7292,15 @@
         <v>동</v>
       </c>
       <c r="J69" s="19" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+188</v>
       </c>
       <c r="K69" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>7000</v>
       </c>
       <c r="L69" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>7000</v>
       </c>
     </row>
@@ -7191,11 +7309,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="20" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>183.6988동</v>
       </c>
       <c r="G70" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.8369879999999999E+190</v>
       </c>
       <c r="H70" s="20">
@@ -7207,15 +7325,15 @@
         <v>동</v>
       </c>
       <c r="J70" s="19" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+188</v>
       </c>
       <c r="K70" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>7100</v>
       </c>
       <c r="L70" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>7100</v>
       </c>
     </row>
@@ -7224,11 +7342,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="20" t="str">
-        <f t="shared" ref="F71:F74" si="79">H71&amp;I71</f>
+        <f t="shared" ref="F71:F74" si="81">H71&amp;I71</f>
         <v>1.8554멸</v>
       </c>
       <c r="G71" s="20">
-        <f t="shared" ref="G71:G74" si="80">H71*J71</f>
+        <f t="shared" ref="G71:G74" si="82">H71*J71</f>
         <v>1.8554000000000001E+192</v>
       </c>
       <c r="H71" s="20">
@@ -7240,15 +7358,15 @@
         <v>멸</v>
       </c>
       <c r="J71" s="19" t="str">
-        <f t="shared" ref="J71:J74" si="81">VLOOKUP(I71,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J71:J74" si="83">VLOOKUP(I71,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K71" s="17">
-        <f t="shared" ref="K71:K74" si="82">L71</f>
+        <f t="shared" ref="K71:K74" si="84">L71</f>
         <v>7200</v>
       </c>
       <c r="L71" s="11">
-        <f t="shared" ref="L71:L74" si="83">($B$14*(E71-1)+2000)/2</f>
+        <f t="shared" ref="L71:L74" si="85">($B$14*(E71-1)+2000)/2</f>
         <v>7200</v>
       </c>
     </row>
@@ -7257,11 +7375,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="20" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>187.3954멸</v>
       </c>
       <c r="G72" s="20">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1.873954E+194</v>
       </c>
       <c r="H72" s="20">
@@ -7273,15 +7391,15 @@
         <v>멸</v>
       </c>
       <c r="J72" s="19" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1E+192</v>
       </c>
       <c r="K72" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>7300</v>
       </c>
       <c r="L72" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>7300</v>
       </c>
     </row>
@@ -7290,11 +7408,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="20" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1.8927향</v>
       </c>
       <c r="G73" s="20">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1.8927000000000001E+196</v>
       </c>
       <c r="H73" s="20">
@@ -7306,15 +7424,15 @@
         <v>향</v>
       </c>
       <c r="J73" s="19" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1E+196</v>
       </c>
       <c r="K73" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>7400</v>
       </c>
       <c r="L73" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>7400</v>
       </c>
     </row>
@@ -7323,11 +7441,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="20" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>191.1627향</v>
       </c>
       <c r="G74" s="20">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1.911627E+198</v>
       </c>
       <c r="H74" s="20">
@@ -7339,15 +7457,15 @@
         <v>향</v>
       </c>
       <c r="J74" s="19" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1E+196</v>
       </c>
       <c r="K74" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>7500</v>
       </c>
       <c r="L74" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>7500</v>
       </c>
     </row>
@@ -7356,11 +7474,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="20" t="str">
-        <f t="shared" ref="F75:F77" si="84">H75&amp;I75</f>
+        <f t="shared" ref="F75:F77" si="86">H75&amp;I75</f>
         <v>1.9308증</v>
       </c>
       <c r="G75" s="20">
-        <f t="shared" ref="G75:G77" si="85">H75*J75</f>
+        <f t="shared" ref="G75:G77" si="87">H75*J75</f>
         <v>1.9308E+200</v>
       </c>
       <c r="H75" s="20">
@@ -7372,15 +7490,15 @@
         <v>증</v>
       </c>
       <c r="J75" s="19" t="str">
-        <f t="shared" ref="J75:J77" si="86">VLOOKUP(I75,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J75:J77" si="88">VLOOKUP(I75,N:Q,4,FALSE)</f>
         <v>1E+200</v>
       </c>
       <c r="K75" s="17">
-        <f t="shared" ref="K75:K77" si="87">L75</f>
+        <f t="shared" ref="K75:K77" si="89">L75</f>
         <v>7600</v>
       </c>
       <c r="L75" s="11">
-        <f t="shared" ref="L75:L77" si="88">($B$14*(E75-1)+2000)/2</f>
+        <f t="shared" ref="L75:L77" si="90">($B$14*(E75-1)+2000)/2</f>
         <v>7600</v>
       </c>
     </row>
@@ -7389,11 +7507,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="20" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>195.0108증</v>
       </c>
       <c r="G76" s="20">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1.9501079999999999E+202</v>
       </c>
       <c r="H76" s="20">
@@ -7405,15 +7523,15 @@
         <v>증</v>
       </c>
       <c r="J76" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+200</v>
       </c>
       <c r="K76" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>7700</v>
       </c>
       <c r="L76" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>7700</v>
       </c>
     </row>
@@ -7422,11 +7540,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="20" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1.9697쾌</v>
       </c>
       <c r="G77" s="20">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1.9696999999999999E+204</v>
       </c>
       <c r="H77" s="20">
@@ -7438,15 +7556,15 @@
         <v>쾌</v>
       </c>
       <c r="J77" s="19" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+204</v>
       </c>
       <c r="K77" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>7800</v>
       </c>
       <c r="L77" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>7800</v>
       </c>
     </row>
@@ -7455,11 +7573,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="20" t="str">
-        <f t="shared" ref="F78:F79" si="89">H78&amp;I78</f>
+        <f t="shared" ref="F78:F79" si="91">H78&amp;I78</f>
         <v>198.9397쾌</v>
       </c>
       <c r="G78" s="20">
-        <f t="shared" ref="G78:G79" si="90">H78*J78</f>
+        <f t="shared" ref="G78:G79" si="92">H78*J78</f>
         <v>1.9893969999999998E+206</v>
       </c>
       <c r="H78" s="20">
@@ -7471,15 +7589,15 @@
         <v>쾌</v>
       </c>
       <c r="J78" s="19" t="str">
-        <f t="shared" ref="J78:J79" si="91">VLOOKUP(I78,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J78:J79" si="93">VLOOKUP(I78,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K78" s="17">
-        <f t="shared" ref="K78:K79" si="92">L78</f>
+        <f t="shared" ref="K78:K79" si="94">L78</f>
         <v>7900</v>
       </c>
       <c r="L78" s="11">
-        <f t="shared" ref="L78:L79" si="93">($B$14*(E78-1)+2000)/2</f>
+        <f t="shared" ref="L78:L79" si="95">($B$14*(E78-1)+2000)/2</f>
         <v>7900</v>
       </c>
     </row>
@@ -7488,11 +7606,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="20" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>2.0093우</v>
       </c>
       <c r="G79" s="20">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>2.0093000000000001E+208</v>
       </c>
       <c r="H79" s="20">
@@ -7504,15 +7622,15 @@
         <v>우</v>
       </c>
       <c r="J79" s="19" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1E+208</v>
       </c>
       <c r="K79" s="17">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>8000</v>
       </c>
       <c r="L79" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>8000</v>
       </c>
     </row>
@@ -7521,11 +7639,11 @@
         <v>72</v>
       </c>
       <c r="F80" s="20" t="str">
-        <f t="shared" ref="F80:F81" si="94">H80&amp;I80</f>
+        <f t="shared" ref="F80:F81" si="96">H80&amp;I80</f>
         <v>202.9393우</v>
       </c>
       <c r="G80" s="20">
-        <f t="shared" ref="G80:G81" si="95">H80*J80</f>
+        <f t="shared" ref="G80:G81" si="97">H80*J80</f>
         <v>2.0293929999999999E+210</v>
       </c>
       <c r="H80" s="20">
@@ -7537,15 +7655,15 @@
         <v>우</v>
       </c>
       <c r="J80" s="19" t="str">
-        <f t="shared" ref="J80:J81" si="96">VLOOKUP(I80,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J80:J81" si="98">VLOOKUP(I80,N:Q,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K80" s="17">
-        <f t="shared" ref="K80:K81" si="97">L80</f>
+        <f t="shared" ref="K80:K81" si="99">L80</f>
         <v>8100</v>
       </c>
       <c r="L80" s="11">
-        <f t="shared" ref="L80:L81" si="98">($B$14*(E80-1)+2000)/2</f>
+        <f t="shared" ref="L80:L81" si="100">($B$14*(E80-1)+2000)/2</f>
         <v>8100</v>
       </c>
     </row>
@@ -7554,11 +7672,11 @@
         <v>73</v>
       </c>
       <c r="F81" s="20" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>2.0497팽</v>
       </c>
       <c r="G81" s="20">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>2.0496999999999998E+212</v>
       </c>
       <c r="H81" s="20">
@@ -7570,15 +7688,15 @@
         <v>팽</v>
       </c>
       <c r="J81" s="19" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+212</v>
       </c>
       <c r="K81" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>8200</v>
       </c>
       <c r="L81" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>8200</v>
       </c>
     </row>
@@ -7587,11 +7705,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="20" t="str">
-        <f t="shared" ref="F82:F86" si="99">H82&amp;I82</f>
+        <f t="shared" ref="F82:F86" si="101">H82&amp;I82</f>
         <v>207.0197팽</v>
       </c>
       <c r="G82" s="20">
-        <f t="shared" ref="G82:G86" si="100">H82*J82</f>
+        <f t="shared" ref="G82:G86" si="102">H82*J82</f>
         <v>2.0701969999999999E+214</v>
       </c>
       <c r="H82" s="20">
@@ -7603,15 +7721,15 @@
         <v>팽</v>
       </c>
       <c r="J82" s="19" t="str">
-        <f t="shared" ref="J82:J86" si="101">VLOOKUP(I82,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J82:J86" si="103">VLOOKUP(I82,N:Q,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K82" s="17">
-        <f t="shared" ref="K82:K86" si="102">L82</f>
+        <f t="shared" ref="K82:K86" si="104">L82</f>
         <v>8300</v>
       </c>
       <c r="L82" s="11">
-        <f t="shared" ref="L82:L86" si="103">($B$14*(E82-1)+2000)/2</f>
+        <f t="shared" ref="L82:L86" si="105">($B$14*(E82-1)+2000)/2</f>
         <v>8300</v>
       </c>
     </row>
@@ -7620,11 +7738,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="20" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>2.0909관</v>
       </c>
       <c r="G83" s="20">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>2.0909000000000005E+216</v>
       </c>
       <c r="H83" s="20">
@@ -7636,15 +7754,15 @@
         <v>관</v>
       </c>
       <c r="J83" s="19" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>1E+216</v>
       </c>
       <c r="K83" s="17">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>8400</v>
       </c>
       <c r="L83" s="11">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>8400</v>
       </c>
     </row>
@@ -7653,11 +7771,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="20" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>211.1809관</v>
       </c>
       <c r="G84" s="20">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>2.1118089999999999E+218</v>
       </c>
       <c r="H84" s="20">
@@ -7669,15 +7787,15 @@
         <v>관</v>
       </c>
       <c r="J84" s="19" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>1E+216</v>
       </c>
       <c r="K84" s="17">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>8500</v>
       </c>
       <c r="L84" s="11">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>8500</v>
       </c>
     </row>
@@ -7686,11 +7804,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="20" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>2.133한</v>
       </c>
       <c r="G85" s="20">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>2.1330000000000001E+220</v>
       </c>
       <c r="H85" s="20">
@@ -7702,15 +7820,15 @@
         <v>한</v>
       </c>
       <c r="J85" s="19" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>1E+220</v>
       </c>
       <c r="K85" s="17">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>8600</v>
       </c>
       <c r="L85" s="11">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>8600</v>
       </c>
     </row>
@@ -7719,11 +7837,11 @@
         <v>78</v>
       </c>
       <c r="F86" s="20" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>215.433한</v>
       </c>
       <c r="G86" s="20">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>2.15433E+222</v>
       </c>
       <c r="H86" s="20">
@@ -7735,16 +7853,82 @@
         <v>한</v>
       </c>
       <c r="J86" s="19" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>1E+220</v>
       </c>
       <c r="K86" s="17">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>8700</v>
       </c>
       <c r="L86" s="11">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>8700</v>
+      </c>
+    </row>
+    <row r="87" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E87" s="19">
+        <v>79</v>
+      </c>
+      <c r="F87" s="20" t="str">
+        <f t="shared" ref="F87:F88" si="106">H87&amp;I87</f>
+        <v>2.1759혈</v>
+      </c>
+      <c r="G87" s="20">
+        <f t="shared" ref="G87:G88" si="107">H87*J87</f>
+        <v>2.1759000000000004E+224</v>
+      </c>
+      <c r="H87" s="20">
+        <f t="shared" si="7"/>
+        <v>2.1759000000000004</v>
+      </c>
+      <c r="I87" s="19" t="str" cm="1">
+        <f t="array" ref="I87">IF(AND(H86&gt;100,H87&lt;100),INDEX(N:N,MATCH(I86,N:N,0)+1,0),I86)</f>
+        <v>혈</v>
+      </c>
+      <c r="J87" s="19" t="str">
+        <f t="shared" ref="J87:J88" si="108">VLOOKUP(I87,N:Q,4,FALSE)</f>
+        <v>1E+224</v>
+      </c>
+      <c r="K87" s="17">
+        <f t="shared" ref="K87:K88" si="109">L87</f>
+        <v>8800</v>
+      </c>
+      <c r="L87" s="11">
+        <f t="shared" ref="L87:L88" si="110">($B$14*(E87-1)+2000)/2</f>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="88" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E88" s="19">
+        <v>80</v>
+      </c>
+      <c r="F88" s="20" t="str">
+        <f t="shared" si="106"/>
+        <v>219.7659혈</v>
+      </c>
+      <c r="G88" s="20">
+        <f t="shared" si="107"/>
+        <v>2.1976589999999999E+226</v>
+      </c>
+      <c r="H88" s="20">
+        <f t="shared" si="7"/>
+        <v>219.76589999999999</v>
+      </c>
+      <c r="I88" s="19" t="str" cm="1">
+        <f t="array" ref="I88">IF(AND(H87&gt;100,H88&lt;100),INDEX(N:N,MATCH(I87,N:N,0)+1,0),I87)</f>
+        <v>혈</v>
+      </c>
+      <c r="J88" s="19" t="str">
+        <f t="shared" si="108"/>
+        <v>1E+224</v>
+      </c>
+      <c r="K88" s="17">
+        <f t="shared" si="109"/>
+        <v>8900</v>
+      </c>
+      <c r="L88" s="11">
+        <f t="shared" si="110"/>
+        <v>8900</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5064A6CC-DAFC-4E58-A68B-A5EB31CAE47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F145DBA3-25C5-408F-B2C9-080EB63F6FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,6 +415,14 @@
   </si>
   <si>
     <t>연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1007,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4255,9 +4263,91 @@
         <v>8900</v>
       </c>
     </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82">
+        <v>9026</v>
+      </c>
+      <c r="D82">
+        <f>VLOOKUP(A82+1,balacne!E:L,7,FALSE)</f>
+        <v>9000</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <f>VLOOKUP(A82+1,balacne!E:L,3,FALSE)</f>
+        <v>2.2196999999999997E+228</v>
+      </c>
+      <c r="G82">
+        <v>1000</v>
+      </c>
+      <c r="H82">
+        <v>8</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>18000</v>
+      </c>
+      <c r="K82">
+        <v>9026</v>
+      </c>
+      <c r="L82">
+        <f>VLOOKUP(A82+1,balacne!E:L,8,FALSE)</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83">
+        <v>9026</v>
+      </c>
+      <c r="D83">
+        <f>VLOOKUP(A83+1,balacne!E:L,7,FALSE)</f>
+        <v>9100</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2">
+        <f>VLOOKUP(A83+1,balacne!E:L,3,FALSE)</f>
+        <v>2.2418969999999998E+230</v>
+      </c>
+      <c r="G83">
+        <v>1000</v>
+      </c>
+      <c r="H83">
+        <v>8</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>18200</v>
+      </c>
+      <c r="K83">
+        <v>9026</v>
+      </c>
+      <c r="L83">
+        <f>VLOOKUP(A83+1,balacne!E:L,8,FALSE)</f>
+        <v>9100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K81">
+  <conditionalFormatting sqref="A2:K83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4268,10 +4358,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z88"/>
+  <dimension ref="A1:Z90"/>
   <sheetViews>
-    <sheetView topLeftCell="B63" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+    <sheetView topLeftCell="B69" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4533,7 +4623,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H88" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H90" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -7139,7 +7229,7 @@
         <v>1E+228</v>
       </c>
     </row>
-    <row r="65" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E65" s="19">
         <v>57</v>
       </c>
@@ -7171,8 +7261,22 @@
         <f t="shared" si="80"/>
         <v>6600</v>
       </c>
-    </row>
-    <row r="66" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="N65" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="O65" s="19">
+        <v>232</v>
+      </c>
+      <c r="P65" s="20">
+        <f t="shared" ref="P65:P66" si="81">POWER(10,O65)</f>
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="Q65" s="20" t="str">
+        <f t="shared" ref="Q65:Q66" si="82">RIGHT(P65,O65)</f>
+        <v>1E+232</v>
+      </c>
+    </row>
+    <row r="66" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E66" s="19">
         <v>58</v>
       </c>
@@ -7204,8 +7308,22 @@
         <f t="shared" si="80"/>
         <v>6700</v>
       </c>
-    </row>
-    <row r="67" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="N66" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="O66" s="19">
+        <v>236</v>
+      </c>
+      <c r="P66" s="20">
+        <f t="shared" si="81"/>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="Q66" s="20" t="str">
+        <f t="shared" si="82"/>
+        <v>1E+236</v>
+      </c>
+    </row>
+    <row r="67" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E67" s="19">
         <v>59</v>
       </c>
@@ -7238,7 +7356,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="68" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E68" s="19">
         <v>60</v>
       </c>
@@ -7271,7 +7389,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="69" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E69" s="19">
         <v>61</v>
       </c>
@@ -7304,7 +7422,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="70" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E70" s="19">
         <v>62</v>
       </c>
@@ -7337,16 +7455,16 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="71" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E71" s="19">
         <v>63</v>
       </c>
       <c r="F71" s="20" t="str">
-        <f t="shared" ref="F71:F74" si="81">H71&amp;I71</f>
+        <f t="shared" ref="F71:F74" si="83">H71&amp;I71</f>
         <v>1.8554멸</v>
       </c>
       <c r="G71" s="20">
-        <f t="shared" ref="G71:G74" si="82">H71*J71</f>
+        <f t="shared" ref="G71:G74" si="84">H71*J71</f>
         <v>1.8554000000000001E+192</v>
       </c>
       <c r="H71" s="20">
@@ -7358,28 +7476,28 @@
         <v>멸</v>
       </c>
       <c r="J71" s="19" t="str">
-        <f t="shared" ref="J71:J74" si="83">VLOOKUP(I71,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J71:J74" si="85">VLOOKUP(I71,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K71" s="17">
-        <f t="shared" ref="K71:K74" si="84">L71</f>
+        <f t="shared" ref="K71:K74" si="86">L71</f>
         <v>7200</v>
       </c>
       <c r="L71" s="11">
-        <f t="shared" ref="L71:L74" si="85">($B$14*(E71-1)+2000)/2</f>
+        <f t="shared" ref="L71:L74" si="87">($B$14*(E71-1)+2000)/2</f>
         <v>7200</v>
       </c>
     </row>
-    <row r="72" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E72" s="19">
         <v>64</v>
       </c>
       <c r="F72" s="20" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>187.3954멸</v>
       </c>
       <c r="G72" s="20">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1.873954E+194</v>
       </c>
       <c r="H72" s="20">
@@ -7391,28 +7509,28 @@
         <v>멸</v>
       </c>
       <c r="J72" s="19" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1E+192</v>
       </c>
       <c r="K72" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>7300</v>
       </c>
       <c r="L72" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>7300</v>
       </c>
     </row>
-    <row r="73" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E73" s="19">
         <v>65</v>
       </c>
       <c r="F73" s="20" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1.8927향</v>
       </c>
       <c r="G73" s="20">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1.8927000000000001E+196</v>
       </c>
       <c r="H73" s="20">
@@ -7424,28 +7542,28 @@
         <v>향</v>
       </c>
       <c r="J73" s="19" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1E+196</v>
       </c>
       <c r="K73" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>7400</v>
       </c>
       <c r="L73" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>7400</v>
       </c>
     </row>
-    <row r="74" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E74" s="19">
         <v>66</v>
       </c>
       <c r="F74" s="20" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>191.1627향</v>
       </c>
       <c r="G74" s="20">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1.911627E+198</v>
       </c>
       <c r="H74" s="20">
@@ -7457,28 +7575,28 @@
         <v>향</v>
       </c>
       <c r="J74" s="19" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1E+196</v>
       </c>
       <c r="K74" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>7500</v>
       </c>
       <c r="L74" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>7500</v>
       </c>
     </row>
-    <row r="75" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E75" s="19">
         <v>67</v>
       </c>
       <c r="F75" s="20" t="str">
-        <f t="shared" ref="F75:F77" si="86">H75&amp;I75</f>
+        <f t="shared" ref="F75:F77" si="88">H75&amp;I75</f>
         <v>1.9308증</v>
       </c>
       <c r="G75" s="20">
-        <f t="shared" ref="G75:G77" si="87">H75*J75</f>
+        <f t="shared" ref="G75:G77" si="89">H75*J75</f>
         <v>1.9308E+200</v>
       </c>
       <c r="H75" s="20">
@@ -7490,28 +7608,28 @@
         <v>증</v>
       </c>
       <c r="J75" s="19" t="str">
-        <f t="shared" ref="J75:J77" si="88">VLOOKUP(I75,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J75:J77" si="90">VLOOKUP(I75,N:Q,4,FALSE)</f>
         <v>1E+200</v>
       </c>
       <c r="K75" s="17">
-        <f t="shared" ref="K75:K77" si="89">L75</f>
+        <f t="shared" ref="K75:K77" si="91">L75</f>
         <v>7600</v>
       </c>
       <c r="L75" s="11">
-        <f t="shared" ref="L75:L77" si="90">($B$14*(E75-1)+2000)/2</f>
+        <f t="shared" ref="L75:L77" si="92">($B$14*(E75-1)+2000)/2</f>
         <v>7600</v>
       </c>
     </row>
-    <row r="76" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E76" s="19">
         <v>68</v>
       </c>
       <c r="F76" s="20" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>195.0108증</v>
       </c>
       <c r="G76" s="20">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.9501079999999999E+202</v>
       </c>
       <c r="H76" s="20">
@@ -7523,28 +7641,28 @@
         <v>증</v>
       </c>
       <c r="J76" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+200</v>
       </c>
       <c r="K76" s="17">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>7700</v>
       </c>
       <c r="L76" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>7700</v>
       </c>
     </row>
-    <row r="77" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E77" s="19">
         <v>69</v>
       </c>
       <c r="F77" s="20" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1.9697쾌</v>
       </c>
       <c r="G77" s="20">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.9696999999999999E+204</v>
       </c>
       <c r="H77" s="20">
@@ -7556,28 +7674,28 @@
         <v>쾌</v>
       </c>
       <c r="J77" s="19" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+204</v>
       </c>
       <c r="K77" s="17">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>7800</v>
       </c>
       <c r="L77" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>7800</v>
       </c>
     </row>
-    <row r="78" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E78" s="19">
         <v>70</v>
       </c>
       <c r="F78" s="20" t="str">
-        <f t="shared" ref="F78:F79" si="91">H78&amp;I78</f>
+        <f t="shared" ref="F78:F79" si="93">H78&amp;I78</f>
         <v>198.9397쾌</v>
       </c>
       <c r="G78" s="20">
-        <f t="shared" ref="G78:G79" si="92">H78*J78</f>
+        <f t="shared" ref="G78:G79" si="94">H78*J78</f>
         <v>1.9893969999999998E+206</v>
       </c>
       <c r="H78" s="20">
@@ -7589,28 +7707,28 @@
         <v>쾌</v>
       </c>
       <c r="J78" s="19" t="str">
-        <f t="shared" ref="J78:J79" si="93">VLOOKUP(I78,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J78:J79" si="95">VLOOKUP(I78,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K78" s="17">
-        <f t="shared" ref="K78:K79" si="94">L78</f>
+        <f t="shared" ref="K78:K79" si="96">L78</f>
         <v>7900</v>
       </c>
       <c r="L78" s="11">
-        <f t="shared" ref="L78:L79" si="95">($B$14*(E78-1)+2000)/2</f>
+        <f t="shared" ref="L78:L79" si="97">($B$14*(E78-1)+2000)/2</f>
         <v>7900</v>
       </c>
     </row>
-    <row r="79" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E79" s="19">
         <v>71</v>
       </c>
       <c r="F79" s="20" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>2.0093우</v>
       </c>
       <c r="G79" s="20">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>2.0093000000000001E+208</v>
       </c>
       <c r="H79" s="20">
@@ -7622,28 +7740,28 @@
         <v>우</v>
       </c>
       <c r="J79" s="19" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1E+208</v>
       </c>
       <c r="K79" s="17">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>8000</v>
       </c>
       <c r="L79" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>8000</v>
       </c>
     </row>
-    <row r="80" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E80" s="19">
         <v>72</v>
       </c>
       <c r="F80" s="20" t="str">
-        <f t="shared" ref="F80:F81" si="96">H80&amp;I80</f>
+        <f t="shared" ref="F80:F81" si="98">H80&amp;I80</f>
         <v>202.9393우</v>
       </c>
       <c r="G80" s="20">
-        <f t="shared" ref="G80:G81" si="97">H80*J80</f>
+        <f t="shared" ref="G80:G81" si="99">H80*J80</f>
         <v>2.0293929999999999E+210</v>
       </c>
       <c r="H80" s="20">
@@ -7655,15 +7773,15 @@
         <v>우</v>
       </c>
       <c r="J80" s="19" t="str">
-        <f t="shared" ref="J80:J81" si="98">VLOOKUP(I80,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J80:J81" si="100">VLOOKUP(I80,N:Q,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K80" s="17">
-        <f t="shared" ref="K80:K81" si="99">L80</f>
+        <f t="shared" ref="K80:K81" si="101">L80</f>
         <v>8100</v>
       </c>
       <c r="L80" s="11">
-        <f t="shared" ref="L80:L81" si="100">($B$14*(E80-1)+2000)/2</f>
+        <f t="shared" ref="L80:L81" si="102">($B$14*(E80-1)+2000)/2</f>
         <v>8100</v>
       </c>
     </row>
@@ -7672,11 +7790,11 @@
         <v>73</v>
       </c>
       <c r="F81" s="20" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>2.0497팽</v>
       </c>
       <c r="G81" s="20">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>2.0496999999999998E+212</v>
       </c>
       <c r="H81" s="20">
@@ -7688,15 +7806,15 @@
         <v>팽</v>
       </c>
       <c r="J81" s="19" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1E+212</v>
       </c>
       <c r="K81" s="17">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>8200</v>
       </c>
       <c r="L81" s="11">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>8200</v>
       </c>
     </row>
@@ -7705,11 +7823,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="20" t="str">
-        <f t="shared" ref="F82:F86" si="101">H82&amp;I82</f>
+        <f t="shared" ref="F82:F86" si="103">H82&amp;I82</f>
         <v>207.0197팽</v>
       </c>
       <c r="G82" s="20">
-        <f t="shared" ref="G82:G86" si="102">H82*J82</f>
+        <f t="shared" ref="G82:G86" si="104">H82*J82</f>
         <v>2.0701969999999999E+214</v>
       </c>
       <c r="H82" s="20">
@@ -7721,15 +7839,15 @@
         <v>팽</v>
       </c>
       <c r="J82" s="19" t="str">
-        <f t="shared" ref="J82:J86" si="103">VLOOKUP(I82,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J82:J86" si="105">VLOOKUP(I82,N:Q,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K82" s="17">
-        <f t="shared" ref="K82:K86" si="104">L82</f>
+        <f t="shared" ref="K82:K86" si="106">L82</f>
         <v>8300</v>
       </c>
       <c r="L82" s="11">
-        <f t="shared" ref="L82:L86" si="105">($B$14*(E82-1)+2000)/2</f>
+        <f t="shared" ref="L82:L86" si="107">($B$14*(E82-1)+2000)/2</f>
         <v>8300</v>
       </c>
     </row>
@@ -7738,11 +7856,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="20" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>2.0909관</v>
       </c>
       <c r="G83" s="20">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>2.0909000000000005E+216</v>
       </c>
       <c r="H83" s="20">
@@ -7754,15 +7872,15 @@
         <v>관</v>
       </c>
       <c r="J83" s="19" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>1E+216</v>
       </c>
       <c r="K83" s="17">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>8400</v>
       </c>
       <c r="L83" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>8400</v>
       </c>
     </row>
@@ -7771,11 +7889,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="20" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>211.1809관</v>
       </c>
       <c r="G84" s="20">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>2.1118089999999999E+218</v>
       </c>
       <c r="H84" s="20">
@@ -7787,15 +7905,15 @@
         <v>관</v>
       </c>
       <c r="J84" s="19" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>1E+216</v>
       </c>
       <c r="K84" s="17">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>8500</v>
       </c>
       <c r="L84" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>8500</v>
       </c>
     </row>
@@ -7804,11 +7922,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="20" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>2.133한</v>
       </c>
       <c r="G85" s="20">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>2.1330000000000001E+220</v>
       </c>
       <c r="H85" s="20">
@@ -7820,15 +7938,15 @@
         <v>한</v>
       </c>
       <c r="J85" s="19" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>1E+220</v>
       </c>
       <c r="K85" s="17">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>8600</v>
       </c>
       <c r="L85" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>8600</v>
       </c>
     </row>
@@ -7837,11 +7955,11 @@
         <v>78</v>
       </c>
       <c r="F86" s="20" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>215.433한</v>
       </c>
       <c r="G86" s="20">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>2.15433E+222</v>
       </c>
       <c r="H86" s="20">
@@ -7853,15 +7971,15 @@
         <v>한</v>
       </c>
       <c r="J86" s="19" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>1E+220</v>
       </c>
       <c r="K86" s="17">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>8700</v>
       </c>
       <c r="L86" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>8700</v>
       </c>
     </row>
@@ -7870,11 +7988,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="20" t="str">
-        <f t="shared" ref="F87:F88" si="106">H87&amp;I87</f>
+        <f t="shared" ref="F87:F88" si="108">H87&amp;I87</f>
         <v>2.1759혈</v>
       </c>
       <c r="G87" s="20">
-        <f t="shared" ref="G87:G88" si="107">H87*J87</f>
+        <f t="shared" ref="G87:G88" si="109">H87*J87</f>
         <v>2.1759000000000004E+224</v>
       </c>
       <c r="H87" s="20">
@@ -7886,15 +8004,15 @@
         <v>혈</v>
       </c>
       <c r="J87" s="19" t="str">
-        <f t="shared" ref="J87:J88" si="108">VLOOKUP(I87,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J87:J88" si="110">VLOOKUP(I87,N:Q,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K87" s="17">
-        <f t="shared" ref="K87:K88" si="109">L87</f>
+        <f t="shared" ref="K87:K88" si="111">L87</f>
         <v>8800</v>
       </c>
       <c r="L87" s="11">
-        <f t="shared" ref="L87:L88" si="110">($B$14*(E87-1)+2000)/2</f>
+        <f t="shared" ref="L87:L88" si="112">($B$14*(E87-1)+2000)/2</f>
         <v>8800</v>
       </c>
     </row>
@@ -7903,11 +8021,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="20" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>219.7659혈</v>
       </c>
       <c r="G88" s="20">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>2.1976589999999999E+226</v>
       </c>
       <c r="H88" s="20">
@@ -7919,16 +8037,82 @@
         <v>혈</v>
       </c>
       <c r="J88" s="19" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>1E+224</v>
       </c>
       <c r="K88" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>8900</v>
       </c>
       <c r="L88" s="11">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>8900</v>
+      </c>
+    </row>
+    <row r="89" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E89" s="19">
+        <v>81</v>
+      </c>
+      <c r="F89" s="20" t="str">
+        <f t="shared" ref="F89:F90" si="113">H89&amp;I89</f>
+        <v>2.2197연</v>
+      </c>
+      <c r="G89" s="20">
+        <f t="shared" ref="G89:G90" si="114">H89*J89</f>
+        <v>2.2196999999999997E+228</v>
+      </c>
+      <c r="H89" s="20">
+        <f t="shared" si="7"/>
+        <v>2.2197</v>
+      </c>
+      <c r="I89" s="19" t="str" cm="1">
+        <f t="array" ref="I89">IF(AND(H88&gt;100,H89&lt;100),INDEX(N:N,MATCH(I88,N:N,0)+1,0),I88)</f>
+        <v>연</v>
+      </c>
+      <c r="J89" s="19" t="str">
+        <f t="shared" ref="J89:J90" si="115">VLOOKUP(I89,N:Q,4,FALSE)</f>
+        <v>1E+228</v>
+      </c>
+      <c r="K89" s="17">
+        <f t="shared" ref="K89:K90" si="116">L89</f>
+        <v>9000</v>
+      </c>
+      <c r="L89" s="11">
+        <f t="shared" ref="L89:L90" si="117">($B$14*(E89-1)+2000)/2</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="90" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E90" s="19">
+        <v>82</v>
+      </c>
+      <c r="F90" s="20" t="str">
+        <f t="shared" si="113"/>
+        <v>224.1897연</v>
+      </c>
+      <c r="G90" s="20">
+        <f t="shared" si="114"/>
+        <v>2.2418969999999998E+230</v>
+      </c>
+      <c r="H90" s="20">
+        <f t="shared" si="7"/>
+        <v>224.18969999999999</v>
+      </c>
+      <c r="I90" s="19" t="str" cm="1">
+        <f t="array" ref="I90">IF(AND(H89&gt;100,H90&lt;100),INDEX(N:N,MATCH(I89,N:N,0)+1,0),I89)</f>
+        <v>연</v>
+      </c>
+      <c r="J90" s="19" t="str">
+        <f t="shared" si="115"/>
+        <v>1E+228</v>
+      </c>
+      <c r="K90" s="17">
+        <f t="shared" si="116"/>
+        <v>9100</v>
+      </c>
+      <c r="L90" s="11">
+        <f t="shared" si="117"/>
+        <v>9100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F145DBA3-25C5-408F-B2C9-080EB63F6FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31080869-5C4F-483C-81D2-4A4ADAFF8A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxTower" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1015,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4345,9 +4345,91 @@
         <v>9100</v>
       </c>
     </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84">
+        <v>9026</v>
+      </c>
+      <c r="D84">
+        <f>VLOOKUP(A84+1,balacne!E:L,7,FALSE)</f>
+        <v>9200</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2">
+        <f>VLOOKUP(A84+1,balacne!E:L,3,FALSE)</f>
+        <v>2.2644000000000004E+232</v>
+      </c>
+      <c r="G84">
+        <v>1000</v>
+      </c>
+      <c r="H84">
+        <v>8</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>18400</v>
+      </c>
+      <c r="K84">
+        <v>9026</v>
+      </c>
+      <c r="L84">
+        <f>VLOOKUP(A84+1,balacne!E:L,8,FALSE)</f>
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85">
+        <v>9026</v>
+      </c>
+      <c r="D85">
+        <f>VLOOKUP(A85+1,balacne!E:L,7,FALSE)</f>
+        <v>9300</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
+        <f>VLOOKUP(A85+1,balacne!E:L,3,FALSE)</f>
+        <v>2.2870440000000001E+234</v>
+      </c>
+      <c r="G85">
+        <v>1000</v>
+      </c>
+      <c r="H85">
+        <v>8</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>18600</v>
+      </c>
+      <c r="K85">
+        <v>9026</v>
+      </c>
+      <c r="L85">
+        <f>VLOOKUP(A85+1,balacne!E:L,8,FALSE)</f>
+        <v>9300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K83">
+  <conditionalFormatting sqref="A2:K85">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4358,10 +4440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z90"/>
+  <dimension ref="A1:Z92"/>
   <sheetViews>
-    <sheetView topLeftCell="B69" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView topLeftCell="B81" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4623,7 +4705,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H90" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H92" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -8054,11 +8136,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="20" t="str">
-        <f t="shared" ref="F89:F90" si="113">H89&amp;I89</f>
+        <f t="shared" ref="F89:F92" si="113">H89&amp;I89</f>
         <v>2.2197연</v>
       </c>
       <c r="G89" s="20">
-        <f t="shared" ref="G89:G90" si="114">H89*J89</f>
+        <f t="shared" ref="G89:G92" si="114">H89*J89</f>
         <v>2.2196999999999997E+228</v>
       </c>
       <c r="H89" s="20">
@@ -8070,15 +8152,15 @@
         <v>연</v>
       </c>
       <c r="J89" s="19" t="str">
-        <f t="shared" ref="J89:J90" si="115">VLOOKUP(I89,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J89:J92" si="115">VLOOKUP(I89,N:Q,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K89" s="17">
-        <f t="shared" ref="K89:K90" si="116">L89</f>
+        <f t="shared" ref="K89:K92" si="116">L89</f>
         <v>9000</v>
       </c>
       <c r="L89" s="11">
-        <f t="shared" ref="L89:L90" si="117">($B$14*(E89-1)+2000)/2</f>
+        <f t="shared" ref="L89:L92" si="117">($B$14*(E89-1)+2000)/2</f>
         <v>9000</v>
       </c>
     </row>
@@ -8113,6 +8195,72 @@
       <c r="L90" s="11">
         <f t="shared" si="117"/>
         <v>9100</v>
+      </c>
+    </row>
+    <row r="91" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E91" s="19">
+        <v>83</v>
+      </c>
+      <c r="F91" s="20" t="str">
+        <f t="shared" si="113"/>
+        <v>2.2644난</v>
+      </c>
+      <c r="G91" s="20">
+        <f t="shared" si="114"/>
+        <v>2.2644000000000004E+232</v>
+      </c>
+      <c r="H91" s="20">
+        <f t="shared" si="7"/>
+        <v>2.2644000000000002</v>
+      </c>
+      <c r="I91" s="19" t="str" cm="1">
+        <f t="array" ref="I91">IF(AND(H90&gt;100,H91&lt;100),INDEX(N:N,MATCH(I90,N:N,0)+1,0),I90)</f>
+        <v>난</v>
+      </c>
+      <c r="J91" s="19" t="str">
+        <f t="shared" si="115"/>
+        <v>1E+232</v>
+      </c>
+      <c r="K91" s="17">
+        <f t="shared" si="116"/>
+        <v>9200</v>
+      </c>
+      <c r="L91" s="11">
+        <f t="shared" si="117"/>
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="92" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E92" s="19">
+        <v>84</v>
+      </c>
+      <c r="F92" s="20" t="str">
+        <f t="shared" si="113"/>
+        <v>228.7044난</v>
+      </c>
+      <c r="G92" s="20">
+        <f t="shared" si="114"/>
+        <v>2.2870440000000001E+234</v>
+      </c>
+      <c r="H92" s="20">
+        <f t="shared" si="7"/>
+        <v>228.70439999999999</v>
+      </c>
+      <c r="I92" s="19" t="str" cm="1">
+        <f t="array" ref="I92">IF(AND(H91&gt;100,H92&lt;100),INDEX(N:N,MATCH(I91,N:N,0)+1,0),I91)</f>
+        <v>난</v>
+      </c>
+      <c r="J92" s="19" t="str">
+        <f t="shared" si="115"/>
+        <v>1E+232</v>
+      </c>
+      <c r="K92" s="17">
+        <f t="shared" si="116"/>
+        <v>9300</v>
+      </c>
+      <c r="L92" s="11">
+        <f t="shared" si="117"/>
+        <v>9300</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31080869-5C4F-483C-81D2-4A4ADAFF8A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8D235D-05DA-4C49-9403-838A086BEA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxTower" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,6 +423,14 @@
   </si>
   <si>
     <t>군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1015,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4427,9 +4435,91 @@
         <v>9300</v>
       </c>
     </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86">
+        <v>9026</v>
+      </c>
+      <c r="D86">
+        <f>VLOOKUP(A86+1,balacne!E:L,7,FALSE)</f>
+        <v>9400</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <f>VLOOKUP(A86+1,balacne!E:L,3,FALSE)</f>
+        <v>2.3100000000000003E+236</v>
+      </c>
+      <c r="G86">
+        <v>1000</v>
+      </c>
+      <c r="H86">
+        <v>8</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>18800</v>
+      </c>
+      <c r="K86">
+        <v>9026</v>
+      </c>
+      <c r="L86">
+        <f>VLOOKUP(A86+1,balacne!E:L,8,FALSE)</f>
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87">
+        <v>9026</v>
+      </c>
+      <c r="D87">
+        <f>VLOOKUP(A87+1,balacne!E:L,7,FALSE)</f>
+        <v>9500</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
+        <f>VLOOKUP(A87+1,balacne!E:L,3,FALSE)</f>
+        <v>2.3331000000000001E+238</v>
+      </c>
+      <c r="G87">
+        <v>1000</v>
+      </c>
+      <c r="H87">
+        <v>8</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>19000</v>
+      </c>
+      <c r="K87">
+        <v>9026</v>
+      </c>
+      <c r="L87">
+        <f>VLOOKUP(A87+1,balacne!E:L,8,FALSE)</f>
+        <v>9500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K85">
+  <conditionalFormatting sqref="A2:K87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4440,10 +4530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z92"/>
+  <dimension ref="A1:Z94"/>
   <sheetViews>
-    <sheetView topLeftCell="B81" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+    <sheetView topLeftCell="B80" workbookViewId="0">
+      <selection activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4705,7 +4795,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H92" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H94" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -7437,6 +7527,20 @@
         <f t="shared" si="80"/>
         <v>6800</v>
       </c>
+      <c r="N67" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O67" s="19">
+        <v>240</v>
+      </c>
+      <c r="P67" s="20">
+        <f t="shared" ref="P67:P68" si="83">POWER(10,O67)</f>
+        <v>1E+240</v>
+      </c>
+      <c r="Q67" s="20" t="str">
+        <f t="shared" ref="Q67:Q68" si="84">RIGHT(P67,O67)</f>
+        <v>1E+240</v>
+      </c>
     </row>
     <row r="68" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E68" s="19">
@@ -7470,6 +7574,20 @@
         <f t="shared" si="80"/>
         <v>6900</v>
       </c>
+      <c r="N68" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="O68" s="19">
+        <v>244</v>
+      </c>
+      <c r="P68" s="20">
+        <f t="shared" si="83"/>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="Q68" s="20" t="str">
+        <f t="shared" si="84"/>
+        <v>1E+244</v>
+      </c>
     </row>
     <row r="69" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E69" s="19">
@@ -7542,11 +7660,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="20" t="str">
-        <f t="shared" ref="F71:F74" si="83">H71&amp;I71</f>
+        <f t="shared" ref="F71:F74" si="85">H71&amp;I71</f>
         <v>1.8554멸</v>
       </c>
       <c r="G71" s="20">
-        <f t="shared" ref="G71:G74" si="84">H71*J71</f>
+        <f t="shared" ref="G71:G74" si="86">H71*J71</f>
         <v>1.8554000000000001E+192</v>
       </c>
       <c r="H71" s="20">
@@ -7558,15 +7676,15 @@
         <v>멸</v>
       </c>
       <c r="J71" s="19" t="str">
-        <f t="shared" ref="J71:J74" si="85">VLOOKUP(I71,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J71:J74" si="87">VLOOKUP(I71,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K71" s="17">
-        <f t="shared" ref="K71:K74" si="86">L71</f>
+        <f t="shared" ref="K71:K74" si="88">L71</f>
         <v>7200</v>
       </c>
       <c r="L71" s="11">
-        <f t="shared" ref="L71:L74" si="87">($B$14*(E71-1)+2000)/2</f>
+        <f t="shared" ref="L71:L74" si="89">($B$14*(E71-1)+2000)/2</f>
         <v>7200</v>
       </c>
     </row>
@@ -7575,11 +7693,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="20" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>187.3954멸</v>
       </c>
       <c r="G72" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1.873954E+194</v>
       </c>
       <c r="H72" s="20">
@@ -7591,15 +7709,15 @@
         <v>멸</v>
       </c>
       <c r="J72" s="19" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1E+192</v>
       </c>
       <c r="K72" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>7300</v>
       </c>
       <c r="L72" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>7300</v>
       </c>
     </row>
@@ -7608,11 +7726,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="20" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1.8927향</v>
       </c>
       <c r="G73" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1.8927000000000001E+196</v>
       </c>
       <c r="H73" s="20">
@@ -7624,15 +7742,15 @@
         <v>향</v>
       </c>
       <c r="J73" s="19" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1E+196</v>
       </c>
       <c r="K73" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>7400</v>
       </c>
       <c r="L73" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>7400</v>
       </c>
     </row>
@@ -7641,11 +7759,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="20" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>191.1627향</v>
       </c>
       <c r="G74" s="20">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1.911627E+198</v>
       </c>
       <c r="H74" s="20">
@@ -7657,15 +7775,15 @@
         <v>향</v>
       </c>
       <c r="J74" s="19" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1E+196</v>
       </c>
       <c r="K74" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>7500</v>
       </c>
       <c r="L74" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>7500</v>
       </c>
     </row>
@@ -7674,11 +7792,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="20" t="str">
-        <f t="shared" ref="F75:F77" si="88">H75&amp;I75</f>
+        <f t="shared" ref="F75:F77" si="90">H75&amp;I75</f>
         <v>1.9308증</v>
       </c>
       <c r="G75" s="20">
-        <f t="shared" ref="G75:G77" si="89">H75*J75</f>
+        <f t="shared" ref="G75:G77" si="91">H75*J75</f>
         <v>1.9308E+200</v>
       </c>
       <c r="H75" s="20">
@@ -7690,15 +7808,15 @@
         <v>증</v>
       </c>
       <c r="J75" s="19" t="str">
-        <f t="shared" ref="J75:J77" si="90">VLOOKUP(I75,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J75:J77" si="92">VLOOKUP(I75,N:Q,4,FALSE)</f>
         <v>1E+200</v>
       </c>
       <c r="K75" s="17">
-        <f t="shared" ref="K75:K77" si="91">L75</f>
+        <f t="shared" ref="K75:K77" si="93">L75</f>
         <v>7600</v>
       </c>
       <c r="L75" s="11">
-        <f t="shared" ref="L75:L77" si="92">($B$14*(E75-1)+2000)/2</f>
+        <f t="shared" ref="L75:L77" si="94">($B$14*(E75-1)+2000)/2</f>
         <v>7600</v>
       </c>
     </row>
@@ -7707,11 +7825,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="20" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>195.0108증</v>
       </c>
       <c r="G76" s="20">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1.9501079999999999E+202</v>
       </c>
       <c r="H76" s="20">
@@ -7723,15 +7841,15 @@
         <v>증</v>
       </c>
       <c r="J76" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+200</v>
       </c>
       <c r="K76" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>7700</v>
       </c>
       <c r="L76" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>7700</v>
       </c>
     </row>
@@ -7740,11 +7858,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="20" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1.9697쾌</v>
       </c>
       <c r="G77" s="20">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1.9696999999999999E+204</v>
       </c>
       <c r="H77" s="20">
@@ -7756,15 +7874,15 @@
         <v>쾌</v>
       </c>
       <c r="J77" s="19" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+204</v>
       </c>
       <c r="K77" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>7800</v>
       </c>
       <c r="L77" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>7800</v>
       </c>
     </row>
@@ -7773,11 +7891,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="20" t="str">
-        <f t="shared" ref="F78:F79" si="93">H78&amp;I78</f>
+        <f t="shared" ref="F78:F79" si="95">H78&amp;I78</f>
         <v>198.9397쾌</v>
       </c>
       <c r="G78" s="20">
-        <f t="shared" ref="G78:G79" si="94">H78*J78</f>
+        <f t="shared" ref="G78:G79" si="96">H78*J78</f>
         <v>1.9893969999999998E+206</v>
       </c>
       <c r="H78" s="20">
@@ -7789,15 +7907,15 @@
         <v>쾌</v>
       </c>
       <c r="J78" s="19" t="str">
-        <f t="shared" ref="J78:J79" si="95">VLOOKUP(I78,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J78:J79" si="97">VLOOKUP(I78,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K78" s="17">
-        <f t="shared" ref="K78:K79" si="96">L78</f>
+        <f t="shared" ref="K78:K79" si="98">L78</f>
         <v>7900</v>
       </c>
       <c r="L78" s="11">
-        <f t="shared" ref="L78:L79" si="97">($B$14*(E78-1)+2000)/2</f>
+        <f t="shared" ref="L78:L79" si="99">($B$14*(E78-1)+2000)/2</f>
         <v>7900</v>
       </c>
     </row>
@@ -7806,11 +7924,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="20" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>2.0093우</v>
       </c>
       <c r="G79" s="20">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>2.0093000000000001E+208</v>
       </c>
       <c r="H79" s="20">
@@ -7822,15 +7940,15 @@
         <v>우</v>
       </c>
       <c r="J79" s="19" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1E+208</v>
       </c>
       <c r="K79" s="17">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>8000</v>
       </c>
       <c r="L79" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>8000</v>
       </c>
     </row>
@@ -7839,11 +7957,11 @@
         <v>72</v>
       </c>
       <c r="F80" s="20" t="str">
-        <f t="shared" ref="F80:F81" si="98">H80&amp;I80</f>
+        <f t="shared" ref="F80:F81" si="100">H80&amp;I80</f>
         <v>202.9393우</v>
       </c>
       <c r="G80" s="20">
-        <f t="shared" ref="G80:G81" si="99">H80*J80</f>
+        <f t="shared" ref="G80:G81" si="101">H80*J80</f>
         <v>2.0293929999999999E+210</v>
       </c>
       <c r="H80" s="20">
@@ -7855,15 +7973,15 @@
         <v>우</v>
       </c>
       <c r="J80" s="19" t="str">
-        <f t="shared" ref="J80:J81" si="100">VLOOKUP(I80,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J80:J81" si="102">VLOOKUP(I80,N:Q,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K80" s="17">
-        <f t="shared" ref="K80:K81" si="101">L80</f>
+        <f t="shared" ref="K80:K81" si="103">L80</f>
         <v>8100</v>
       </c>
       <c r="L80" s="11">
-        <f t="shared" ref="L80:L81" si="102">($B$14*(E80-1)+2000)/2</f>
+        <f t="shared" ref="L80:L81" si="104">($B$14*(E80-1)+2000)/2</f>
         <v>8100</v>
       </c>
     </row>
@@ -7872,11 +7990,11 @@
         <v>73</v>
       </c>
       <c r="F81" s="20" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>2.0497팽</v>
       </c>
       <c r="G81" s="20">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>2.0496999999999998E+212</v>
       </c>
       <c r="H81" s="20">
@@ -7888,15 +8006,15 @@
         <v>팽</v>
       </c>
       <c r="J81" s="19" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>1E+212</v>
       </c>
       <c r="K81" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>8200</v>
       </c>
       <c r="L81" s="11">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>8200</v>
       </c>
     </row>
@@ -7905,11 +8023,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="20" t="str">
-        <f t="shared" ref="F82:F86" si="103">H82&amp;I82</f>
+        <f t="shared" ref="F82:F86" si="105">H82&amp;I82</f>
         <v>207.0197팽</v>
       </c>
       <c r="G82" s="20">
-        <f t="shared" ref="G82:G86" si="104">H82*J82</f>
+        <f t="shared" ref="G82:G86" si="106">H82*J82</f>
         <v>2.0701969999999999E+214</v>
       </c>
       <c r="H82" s="20">
@@ -7921,15 +8039,15 @@
         <v>팽</v>
       </c>
       <c r="J82" s="19" t="str">
-        <f t="shared" ref="J82:J86" si="105">VLOOKUP(I82,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J82:J86" si="107">VLOOKUP(I82,N:Q,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K82" s="17">
-        <f t="shared" ref="K82:K86" si="106">L82</f>
+        <f t="shared" ref="K82:K86" si="108">L82</f>
         <v>8300</v>
       </c>
       <c r="L82" s="11">
-        <f t="shared" ref="L82:L86" si="107">($B$14*(E82-1)+2000)/2</f>
+        <f t="shared" ref="L82:L86" si="109">($B$14*(E82-1)+2000)/2</f>
         <v>8300</v>
       </c>
     </row>
@@ -7938,11 +8056,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>2.0909관</v>
       </c>
       <c r="G83" s="20">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>2.0909000000000005E+216</v>
       </c>
       <c r="H83" s="20">
@@ -7954,15 +8072,15 @@
         <v>관</v>
       </c>
       <c r="J83" s="19" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>1E+216</v>
       </c>
       <c r="K83" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>8400</v>
       </c>
       <c r="L83" s="11">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>8400</v>
       </c>
     </row>
@@ -7971,11 +8089,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>211.1809관</v>
       </c>
       <c r="G84" s="20">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>2.1118089999999999E+218</v>
       </c>
       <c r="H84" s="20">
@@ -7987,15 +8105,15 @@
         <v>관</v>
       </c>
       <c r="J84" s="19" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>1E+216</v>
       </c>
       <c r="K84" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>8500</v>
       </c>
       <c r="L84" s="11">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>8500</v>
       </c>
     </row>
@@ -8004,11 +8122,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>2.133한</v>
       </c>
       <c r="G85" s="20">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>2.1330000000000001E+220</v>
       </c>
       <c r="H85" s="20">
@@ -8020,15 +8138,15 @@
         <v>한</v>
       </c>
       <c r="J85" s="19" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>1E+220</v>
       </c>
       <c r="K85" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>8600</v>
       </c>
       <c r="L85" s="11">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>8600</v>
       </c>
     </row>
@@ -8037,11 +8155,11 @@
         <v>78</v>
       </c>
       <c r="F86" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>215.433한</v>
       </c>
       <c r="G86" s="20">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>2.15433E+222</v>
       </c>
       <c r="H86" s="20">
@@ -8053,15 +8171,15 @@
         <v>한</v>
       </c>
       <c r="J86" s="19" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>1E+220</v>
       </c>
       <c r="K86" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>8700</v>
       </c>
       <c r="L86" s="11">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>8700</v>
       </c>
     </row>
@@ -8070,11 +8188,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="20" t="str">
-        <f t="shared" ref="F87:F88" si="108">H87&amp;I87</f>
+        <f t="shared" ref="F87:F88" si="110">H87&amp;I87</f>
         <v>2.1759혈</v>
       </c>
       <c r="G87" s="20">
-        <f t="shared" ref="G87:G88" si="109">H87*J87</f>
+        <f t="shared" ref="G87:G88" si="111">H87*J87</f>
         <v>2.1759000000000004E+224</v>
       </c>
       <c r="H87" s="20">
@@ -8086,15 +8204,15 @@
         <v>혈</v>
       </c>
       <c r="J87" s="19" t="str">
-        <f t="shared" ref="J87:J88" si="110">VLOOKUP(I87,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J87:J88" si="112">VLOOKUP(I87,N:Q,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K87" s="17">
-        <f t="shared" ref="K87:K88" si="111">L87</f>
+        <f t="shared" ref="K87:K88" si="113">L87</f>
         <v>8800</v>
       </c>
       <c r="L87" s="11">
-        <f t="shared" ref="L87:L88" si="112">($B$14*(E87-1)+2000)/2</f>
+        <f t="shared" ref="L87:L88" si="114">($B$14*(E87-1)+2000)/2</f>
         <v>8800</v>
       </c>
     </row>
@@ -8103,11 +8221,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="20" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>219.7659혈</v>
       </c>
       <c r="G88" s="20">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>2.1976589999999999E+226</v>
       </c>
       <c r="H88" s="20">
@@ -8119,15 +8237,15 @@
         <v>혈</v>
       </c>
       <c r="J88" s="19" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>1E+224</v>
       </c>
       <c r="K88" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>8900</v>
       </c>
       <c r="L88" s="11">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>8900</v>
       </c>
     </row>
@@ -8136,11 +8254,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="20" t="str">
-        <f t="shared" ref="F89:F92" si="113">H89&amp;I89</f>
+        <f t="shared" ref="F89:F92" si="115">H89&amp;I89</f>
         <v>2.2197연</v>
       </c>
       <c r="G89" s="20">
-        <f t="shared" ref="G89:G92" si="114">H89*J89</f>
+        <f t="shared" ref="G89:G92" si="116">H89*J89</f>
         <v>2.2196999999999997E+228</v>
       </c>
       <c r="H89" s="20">
@@ -8152,15 +8270,15 @@
         <v>연</v>
       </c>
       <c r="J89" s="19" t="str">
-        <f t="shared" ref="J89:J92" si="115">VLOOKUP(I89,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J89:J92" si="117">VLOOKUP(I89,N:Q,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K89" s="17">
-        <f t="shared" ref="K89:K92" si="116">L89</f>
+        <f t="shared" ref="K89:K92" si="118">L89</f>
         <v>9000</v>
       </c>
       <c r="L89" s="11">
-        <f t="shared" ref="L89:L92" si="117">($B$14*(E89-1)+2000)/2</f>
+        <f t="shared" ref="L89:L92" si="119">($B$14*(E89-1)+2000)/2</f>
         <v>9000</v>
       </c>
     </row>
@@ -8169,11 +8287,11 @@
         <v>82</v>
       </c>
       <c r="F90" s="20" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>224.1897연</v>
       </c>
       <c r="G90" s="20">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>2.2418969999999998E+230</v>
       </c>
       <c r="H90" s="20">
@@ -8185,15 +8303,15 @@
         <v>연</v>
       </c>
       <c r="J90" s="19" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>1E+228</v>
       </c>
       <c r="K90" s="17">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>9100</v>
       </c>
       <c r="L90" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>9100</v>
       </c>
     </row>
@@ -8202,11 +8320,11 @@
         <v>83</v>
       </c>
       <c r="F91" s="20" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>2.2644난</v>
       </c>
       <c r="G91" s="20">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>2.2644000000000004E+232</v>
       </c>
       <c r="H91" s="20">
@@ -8218,15 +8336,15 @@
         <v>난</v>
       </c>
       <c r="J91" s="19" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>1E+232</v>
       </c>
       <c r="K91" s="17">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>9200</v>
       </c>
       <c r="L91" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>9200</v>
       </c>
     </row>
@@ -8235,11 +8353,11 @@
         <v>84</v>
       </c>
       <c r="F92" s="20" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>228.7044난</v>
       </c>
       <c r="G92" s="20">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>2.2870440000000001E+234</v>
       </c>
       <c r="H92" s="20">
@@ -8251,16 +8369,82 @@
         <v>난</v>
       </c>
       <c r="J92" s="19" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>1E+232</v>
       </c>
       <c r="K92" s="17">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>9300</v>
       </c>
       <c r="L92" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>9300</v>
+      </c>
+    </row>
+    <row r="93" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E93" s="19">
+        <v>85</v>
+      </c>
+      <c r="F93" s="20" t="str">
+        <f t="shared" ref="F93:F94" si="120">H93&amp;I93</f>
+        <v>2.31군</v>
+      </c>
+      <c r="G93" s="20">
+        <f t="shared" ref="G93:G94" si="121">H93*J93</f>
+        <v>2.3100000000000003E+236</v>
+      </c>
+      <c r="H93" s="20">
+        <f t="shared" si="7"/>
+        <v>2.31</v>
+      </c>
+      <c r="I93" s="19" t="str" cm="1">
+        <f t="array" ref="I93">IF(AND(H92&gt;100,H93&lt;100),INDEX(N:N,MATCH(I92,N:N,0)+1,0),I92)</f>
+        <v>군</v>
+      </c>
+      <c r="J93" s="19" t="str">
+        <f t="shared" ref="J93:J94" si="122">VLOOKUP(I93,N:Q,4,FALSE)</f>
+        <v>1E+236</v>
+      </c>
+      <c r="K93" s="17">
+        <f t="shared" ref="K93:K94" si="123">L93</f>
+        <v>9400</v>
+      </c>
+      <c r="L93" s="11">
+        <f t="shared" ref="L93:L94" si="124">($B$14*(E93-1)+2000)/2</f>
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="94" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E94" s="19">
+        <v>86</v>
+      </c>
+      <c r="F94" s="20" t="str">
+        <f t="shared" si="120"/>
+        <v>233.31군</v>
+      </c>
+      <c r="G94" s="20">
+        <f t="shared" si="121"/>
+        <v>2.3331000000000001E+238</v>
+      </c>
+      <c r="H94" s="20">
+        <f t="shared" si="7"/>
+        <v>233.31</v>
+      </c>
+      <c r="I94" s="19" t="str" cm="1">
+        <f t="array" ref="I94">IF(AND(H93&gt;100,H94&lt;100),INDEX(N:N,MATCH(I93,N:N,0)+1,0),I93)</f>
+        <v>군</v>
+      </c>
+      <c r="J94" s="19" t="str">
+        <f t="shared" si="122"/>
+        <v>1E+236</v>
+      </c>
+      <c r="K94" s="17">
+        <f t="shared" si="123"/>
+        <v>9500</v>
+      </c>
+      <c r="L94" s="11">
+        <f t="shared" si="124"/>
+        <v>9500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8D235D-05DA-4C49-9403-838A086BEA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48791C4E-4F12-4F07-AF79-153D9D38239F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="94">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1023,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4517,9 +4517,91 @@
         <v>9500</v>
       </c>
     </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88">
+        <v>9026</v>
+      </c>
+      <c r="D88">
+        <f>VLOOKUP(A88+1,balacne!E:L,7,FALSE)</f>
+        <v>9600</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <f>VLOOKUP(A88+1,balacne!E:L,3,FALSE)</f>
+        <v>2.3564999999999999E+240</v>
+      </c>
+      <c r="G88">
+        <v>1000</v>
+      </c>
+      <c r="H88">
+        <v>8</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>19200</v>
+      </c>
+      <c r="K88">
+        <v>9026</v>
+      </c>
+      <c r="L88">
+        <f>VLOOKUP(A88+1,balacne!E:L,8,FALSE)</f>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>9026</v>
+      </c>
+      <c r="D89">
+        <f>VLOOKUP(A89+1,balacne!E:L,7,FALSE)</f>
+        <v>9700</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" s="2">
+        <f>VLOOKUP(A89+1,balacne!E:L,3,FALSE)</f>
+        <v>2.3800649999999998E+242</v>
+      </c>
+      <c r="G89">
+        <v>1000</v>
+      </c>
+      <c r="H89">
+        <v>8</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>19400</v>
+      </c>
+      <c r="K89">
+        <v>9026</v>
+      </c>
+      <c r="L89">
+        <f>VLOOKUP(A89+1,balacne!E:L,8,FALSE)</f>
+        <v>9700</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K87">
+  <conditionalFormatting sqref="A2:K89">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4530,10 +4612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z94"/>
+  <dimension ref="A1:Z96"/>
   <sheetViews>
-    <sheetView topLeftCell="B80" workbookViewId="0">
-      <selection activeCell="K92" sqref="K92"/>
+    <sheetView topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4795,7 +4877,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H94" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H96" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -8386,11 +8468,11 @@
         <v>85</v>
       </c>
       <c r="F93" s="20" t="str">
-        <f t="shared" ref="F93:F94" si="120">H93&amp;I93</f>
+        <f t="shared" ref="F93:F96" si="120">H93&amp;I93</f>
         <v>2.31군</v>
       </c>
       <c r="G93" s="20">
-        <f t="shared" ref="G93:G94" si="121">H93*J93</f>
+        <f t="shared" ref="G93:G96" si="121">H93*J93</f>
         <v>2.3100000000000003E+236</v>
       </c>
       <c r="H93" s="20">
@@ -8402,15 +8484,15 @@
         <v>군</v>
       </c>
       <c r="J93" s="19" t="str">
-        <f t="shared" ref="J93:J94" si="122">VLOOKUP(I93,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J93:J96" si="122">VLOOKUP(I93,N:Q,4,FALSE)</f>
         <v>1E+236</v>
       </c>
       <c r="K93" s="17">
-        <f t="shared" ref="K93:K94" si="123">L93</f>
+        <f t="shared" ref="K93:K96" si="123">L93</f>
         <v>9400</v>
       </c>
       <c r="L93" s="11">
-        <f t="shared" ref="L93:L94" si="124">($B$14*(E93-1)+2000)/2</f>
+        <f t="shared" ref="L93:L96" si="124">($B$14*(E93-1)+2000)/2</f>
         <v>9400</v>
       </c>
     </row>
@@ -8445,6 +8527,72 @@
       <c r="L94" s="11">
         <f t="shared" si="124"/>
         <v>9500</v>
+      </c>
+    </row>
+    <row r="95" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E95" s="19">
+        <v>87</v>
+      </c>
+      <c r="F95" s="20" t="str">
+        <f t="shared" si="120"/>
+        <v>2.3565결</v>
+      </c>
+      <c r="G95" s="20">
+        <f t="shared" si="121"/>
+        <v>2.3564999999999999E+240</v>
+      </c>
+      <c r="H95" s="20">
+        <f t="shared" si="7"/>
+        <v>2.3565</v>
+      </c>
+      <c r="I95" s="19" t="str" cm="1">
+        <f t="array" ref="I95">IF(AND(H94&gt;100,H95&lt;100),INDEX(N:N,MATCH(I94,N:N,0)+1,0),I94)</f>
+        <v>결</v>
+      </c>
+      <c r="J95" s="19" t="str">
+        <f t="shared" si="122"/>
+        <v>1E+240</v>
+      </c>
+      <c r="K95" s="17">
+        <f t="shared" si="123"/>
+        <v>9600</v>
+      </c>
+      <c r="L95" s="11">
+        <f t="shared" si="124"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="96" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E96" s="19">
+        <v>88</v>
+      </c>
+      <c r="F96" s="20" t="str">
+        <f t="shared" si="120"/>
+        <v>238.0065결</v>
+      </c>
+      <c r="G96" s="20">
+        <f t="shared" si="121"/>
+        <v>2.3800649999999998E+242</v>
+      </c>
+      <c r="H96" s="20">
+        <f t="shared" si="7"/>
+        <v>238.00649999999999</v>
+      </c>
+      <c r="I96" s="19" t="str" cm="1">
+        <f t="array" ref="I96">IF(AND(H95&gt;100,H96&lt;100),INDEX(N:N,MATCH(I95,N:N,0)+1,0),I95)</f>
+        <v>결</v>
+      </c>
+      <c r="J96" s="19" t="str">
+        <f t="shared" si="122"/>
+        <v>1E+240</v>
+      </c>
+      <c r="K96" s="17">
+        <f t="shared" si="123"/>
+        <v>9700</v>
+      </c>
+      <c r="L96" s="11">
+        <f t="shared" si="124"/>
+        <v>9700</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48791C4E-4F12-4F07-AF79-153D9D38239F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2528AC68-7DB8-432B-AE0A-51A9CA3B3272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="96">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,6 +431,14 @@
   </si>
   <si>
     <t>맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1023,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4599,9 +4607,91 @@
         <v>9700</v>
       </c>
     </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90">
+        <v>9026</v>
+      </c>
+      <c r="D90">
+        <f>VLOOKUP(A90+1,balacne!E:L,7,FALSE)</f>
+        <v>9800</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2">
+        <f>VLOOKUP(A90+1,balacne!E:L,3,FALSE)</f>
+        <v>2.4039000000000003E+244</v>
+      </c>
+      <c r="G90">
+        <v>1000</v>
+      </c>
+      <c r="H90">
+        <v>8</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>19600</v>
+      </c>
+      <c r="K90">
+        <v>9026</v>
+      </c>
+      <c r="L90">
+        <f>VLOOKUP(A90+1,balacne!E:L,8,FALSE)</f>
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>9026</v>
+      </c>
+      <c r="D91">
+        <f>VLOOKUP(A91+1,balacne!E:L,7,FALSE)</f>
+        <v>9900</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
+        <f>VLOOKUP(A91+1,balacne!E:L,3,FALSE)</f>
+        <v>2.4279390000000001E+246</v>
+      </c>
+      <c r="G91">
+        <v>1000</v>
+      </c>
+      <c r="H91">
+        <v>8</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>19800</v>
+      </c>
+      <c r="K91">
+        <v>9026</v>
+      </c>
+      <c r="L91">
+        <f>VLOOKUP(A91+1,balacne!E:L,8,FALSE)</f>
+        <v>9900</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K89">
+  <conditionalFormatting sqref="A2:K91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4612,10 +4702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z96"/>
+  <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView topLeftCell="B76" workbookViewId="0">
-      <selection activeCell="I96" sqref="I96"/>
+    <sheetView topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4877,7 +4967,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H96" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H98" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -7703,6 +7793,20 @@
         <f t="shared" si="80"/>
         <v>7000</v>
       </c>
+      <c r="N69" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="O69" s="19">
+        <v>248</v>
+      </c>
+      <c r="P69" s="20">
+        <f t="shared" ref="P69:P70" si="85">POWER(10,O69)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="Q69" s="20" t="str">
+        <f t="shared" ref="Q69:Q70" si="86">RIGHT(P69,O69)</f>
+        <v>1E+248</v>
+      </c>
     </row>
     <row r="70" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E70" s="19">
@@ -7736,17 +7840,31 @@
         <f t="shared" si="80"/>
         <v>7100</v>
       </c>
+      <c r="N70" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="O70" s="19">
+        <v>252</v>
+      </c>
+      <c r="P70" s="20">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="Q70" s="20" t="str">
+        <f t="shared" si="86"/>
+        <v>1E+252</v>
+      </c>
     </row>
     <row r="71" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E71" s="19">
         <v>63</v>
       </c>
       <c r="F71" s="20" t="str">
-        <f t="shared" ref="F71:F74" si="85">H71&amp;I71</f>
+        <f t="shared" ref="F71:F74" si="87">H71&amp;I71</f>
         <v>1.8554멸</v>
       </c>
       <c r="G71" s="20">
-        <f t="shared" ref="G71:G74" si="86">H71*J71</f>
+        <f t="shared" ref="G71:G74" si="88">H71*J71</f>
         <v>1.8554000000000001E+192</v>
       </c>
       <c r="H71" s="20">
@@ -7758,15 +7876,15 @@
         <v>멸</v>
       </c>
       <c r="J71" s="19" t="str">
-        <f t="shared" ref="J71:J74" si="87">VLOOKUP(I71,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J71:J74" si="89">VLOOKUP(I71,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K71" s="17">
-        <f t="shared" ref="K71:K74" si="88">L71</f>
+        <f t="shared" ref="K71:K74" si="90">L71</f>
         <v>7200</v>
       </c>
       <c r="L71" s="11">
-        <f t="shared" ref="L71:L74" si="89">($B$14*(E71-1)+2000)/2</f>
+        <f t="shared" ref="L71:L74" si="91">($B$14*(E71-1)+2000)/2</f>
         <v>7200</v>
       </c>
     </row>
@@ -7775,11 +7893,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="20" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>187.3954멸</v>
       </c>
       <c r="G72" s="20">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1.873954E+194</v>
       </c>
       <c r="H72" s="20">
@@ -7791,15 +7909,15 @@
         <v>멸</v>
       </c>
       <c r="J72" s="19" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1E+192</v>
       </c>
       <c r="K72" s="17">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>7300</v>
       </c>
       <c r="L72" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>7300</v>
       </c>
     </row>
@@ -7808,11 +7926,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="20" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1.8927향</v>
       </c>
       <c r="G73" s="20">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1.8927000000000001E+196</v>
       </c>
       <c r="H73" s="20">
@@ -7824,15 +7942,15 @@
         <v>향</v>
       </c>
       <c r="J73" s="19" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1E+196</v>
       </c>
       <c r="K73" s="17">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>7400</v>
       </c>
       <c r="L73" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>7400</v>
       </c>
     </row>
@@ -7841,11 +7959,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="20" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>191.1627향</v>
       </c>
       <c r="G74" s="20">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1.911627E+198</v>
       </c>
       <c r="H74" s="20">
@@ -7857,15 +7975,15 @@
         <v>향</v>
       </c>
       <c r="J74" s="19" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1E+196</v>
       </c>
       <c r="K74" s="17">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>7500</v>
       </c>
       <c r="L74" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>7500</v>
       </c>
     </row>
@@ -7874,11 +7992,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="20" t="str">
-        <f t="shared" ref="F75:F77" si="90">H75&amp;I75</f>
+        <f t="shared" ref="F75:F77" si="92">H75&amp;I75</f>
         <v>1.9308증</v>
       </c>
       <c r="G75" s="20">
-        <f t="shared" ref="G75:G77" si="91">H75*J75</f>
+        <f t="shared" ref="G75:G77" si="93">H75*J75</f>
         <v>1.9308E+200</v>
       </c>
       <c r="H75" s="20">
@@ -7890,15 +8008,15 @@
         <v>증</v>
       </c>
       <c r="J75" s="19" t="str">
-        <f t="shared" ref="J75:J77" si="92">VLOOKUP(I75,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J75:J77" si="94">VLOOKUP(I75,N:Q,4,FALSE)</f>
         <v>1E+200</v>
       </c>
       <c r="K75" s="17">
-        <f t="shared" ref="K75:K77" si="93">L75</f>
+        <f t="shared" ref="K75:K77" si="95">L75</f>
         <v>7600</v>
       </c>
       <c r="L75" s="11">
-        <f t="shared" ref="L75:L77" si="94">($B$14*(E75-1)+2000)/2</f>
+        <f t="shared" ref="L75:L77" si="96">($B$14*(E75-1)+2000)/2</f>
         <v>7600</v>
       </c>
     </row>
@@ -7907,11 +8025,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="20" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>195.0108증</v>
       </c>
       <c r="G76" s="20">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1.9501079999999999E+202</v>
       </c>
       <c r="H76" s="20">
@@ -7923,15 +8041,15 @@
         <v>증</v>
       </c>
       <c r="J76" s="19" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+200</v>
       </c>
       <c r="K76" s="17">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>7700</v>
       </c>
       <c r="L76" s="11">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>7700</v>
       </c>
     </row>
@@ -7940,11 +8058,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="20" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1.9697쾌</v>
       </c>
       <c r="G77" s="20">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1.9696999999999999E+204</v>
       </c>
       <c r="H77" s="20">
@@ -7956,15 +8074,15 @@
         <v>쾌</v>
       </c>
       <c r="J77" s="19" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+204</v>
       </c>
       <c r="K77" s="17">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>7800</v>
       </c>
       <c r="L77" s="11">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>7800</v>
       </c>
     </row>
@@ -7973,11 +8091,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="20" t="str">
-        <f t="shared" ref="F78:F79" si="95">H78&amp;I78</f>
+        <f t="shared" ref="F78:F79" si="97">H78&amp;I78</f>
         <v>198.9397쾌</v>
       </c>
       <c r="G78" s="20">
-        <f t="shared" ref="G78:G79" si="96">H78*J78</f>
+        <f t="shared" ref="G78:G79" si="98">H78*J78</f>
         <v>1.9893969999999998E+206</v>
       </c>
       <c r="H78" s="20">
@@ -7989,15 +8107,15 @@
         <v>쾌</v>
       </c>
       <c r="J78" s="19" t="str">
-        <f t="shared" ref="J78:J79" si="97">VLOOKUP(I78,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J78:J79" si="99">VLOOKUP(I78,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K78" s="17">
-        <f t="shared" ref="K78:K79" si="98">L78</f>
+        <f t="shared" ref="K78:K79" si="100">L78</f>
         <v>7900</v>
       </c>
       <c r="L78" s="11">
-        <f t="shared" ref="L78:L79" si="99">($B$14*(E78-1)+2000)/2</f>
+        <f t="shared" ref="L78:L79" si="101">($B$14*(E78-1)+2000)/2</f>
         <v>7900</v>
       </c>
     </row>
@@ -8006,11 +8124,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="20" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>2.0093우</v>
       </c>
       <c r="G79" s="20">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>2.0093000000000001E+208</v>
       </c>
       <c r="H79" s="20">
@@ -8022,15 +8140,15 @@
         <v>우</v>
       </c>
       <c r="J79" s="19" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>1E+208</v>
       </c>
       <c r="K79" s="17">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>8000</v>
       </c>
       <c r="L79" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>8000</v>
       </c>
     </row>
@@ -8039,11 +8157,11 @@
         <v>72</v>
       </c>
       <c r="F80" s="20" t="str">
-        <f t="shared" ref="F80:F81" si="100">H80&amp;I80</f>
+        <f t="shared" ref="F80:F81" si="102">H80&amp;I80</f>
         <v>202.9393우</v>
       </c>
       <c r="G80" s="20">
-        <f t="shared" ref="G80:G81" si="101">H80*J80</f>
+        <f t="shared" ref="G80:G81" si="103">H80*J80</f>
         <v>2.0293929999999999E+210</v>
       </c>
       <c r="H80" s="20">
@@ -8055,15 +8173,15 @@
         <v>우</v>
       </c>
       <c r="J80" s="19" t="str">
-        <f t="shared" ref="J80:J81" si="102">VLOOKUP(I80,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J80:J81" si="104">VLOOKUP(I80,N:Q,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K80" s="17">
-        <f t="shared" ref="K80:K81" si="103">L80</f>
+        <f t="shared" ref="K80:K81" si="105">L80</f>
         <v>8100</v>
       </c>
       <c r="L80" s="11">
-        <f t="shared" ref="L80:L81" si="104">($B$14*(E80-1)+2000)/2</f>
+        <f t="shared" ref="L80:L81" si="106">($B$14*(E80-1)+2000)/2</f>
         <v>8100</v>
       </c>
     </row>
@@ -8072,11 +8190,11 @@
         <v>73</v>
       </c>
       <c r="F81" s="20" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>2.0497팽</v>
       </c>
       <c r="G81" s="20">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>2.0496999999999998E+212</v>
       </c>
       <c r="H81" s="20">
@@ -8088,15 +8206,15 @@
         <v>팽</v>
       </c>
       <c r="J81" s="19" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1E+212</v>
       </c>
       <c r="K81" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>8200</v>
       </c>
       <c r="L81" s="11">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>8200</v>
       </c>
     </row>
@@ -8105,11 +8223,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="20" t="str">
-        <f t="shared" ref="F82:F86" si="105">H82&amp;I82</f>
+        <f t="shared" ref="F82:F86" si="107">H82&amp;I82</f>
         <v>207.0197팽</v>
       </c>
       <c r="G82" s="20">
-        <f t="shared" ref="G82:G86" si="106">H82*J82</f>
+        <f t="shared" ref="G82:G86" si="108">H82*J82</f>
         <v>2.0701969999999999E+214</v>
       </c>
       <c r="H82" s="20">
@@ -8121,15 +8239,15 @@
         <v>팽</v>
       </c>
       <c r="J82" s="19" t="str">
-        <f t="shared" ref="J82:J86" si="107">VLOOKUP(I82,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J82:J86" si="109">VLOOKUP(I82,N:Q,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K82" s="17">
-        <f t="shared" ref="K82:K86" si="108">L82</f>
+        <f t="shared" ref="K82:K86" si="110">L82</f>
         <v>8300</v>
       </c>
       <c r="L82" s="11">
-        <f t="shared" ref="L82:L86" si="109">($B$14*(E82-1)+2000)/2</f>
+        <f t="shared" ref="L82:L86" si="111">($B$14*(E82-1)+2000)/2</f>
         <v>8300</v>
       </c>
     </row>
@@ -8138,11 +8256,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="20" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>2.0909관</v>
       </c>
       <c r="G83" s="20">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>2.0909000000000005E+216</v>
       </c>
       <c r="H83" s="20">
@@ -8154,15 +8272,15 @@
         <v>관</v>
       </c>
       <c r="J83" s="19" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>1E+216</v>
       </c>
       <c r="K83" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>8400</v>
       </c>
       <c r="L83" s="11">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>8400</v>
       </c>
     </row>
@@ -8171,11 +8289,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="20" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>211.1809관</v>
       </c>
       <c r="G84" s="20">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>2.1118089999999999E+218</v>
       </c>
       <c r="H84" s="20">
@@ -8187,15 +8305,15 @@
         <v>관</v>
       </c>
       <c r="J84" s="19" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>1E+216</v>
       </c>
       <c r="K84" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>8500</v>
       </c>
       <c r="L84" s="11">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>8500</v>
       </c>
     </row>
@@ -8204,11 +8322,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="20" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>2.133한</v>
       </c>
       <c r="G85" s="20">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>2.1330000000000001E+220</v>
       </c>
       <c r="H85" s="20">
@@ -8220,15 +8338,15 @@
         <v>한</v>
       </c>
       <c r="J85" s="19" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>1E+220</v>
       </c>
       <c r="K85" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>8600</v>
       </c>
       <c r="L85" s="11">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>8600</v>
       </c>
     </row>
@@ -8237,11 +8355,11 @@
         <v>78</v>
       </c>
       <c r="F86" s="20" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>215.433한</v>
       </c>
       <c r="G86" s="20">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>2.15433E+222</v>
       </c>
       <c r="H86" s="20">
@@ -8253,15 +8371,15 @@
         <v>한</v>
       </c>
       <c r="J86" s="19" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>1E+220</v>
       </c>
       <c r="K86" s="17">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>8700</v>
       </c>
       <c r="L86" s="11">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>8700</v>
       </c>
     </row>
@@ -8270,11 +8388,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="20" t="str">
-        <f t="shared" ref="F87:F88" si="110">H87&amp;I87</f>
+        <f t="shared" ref="F87:F88" si="112">H87&amp;I87</f>
         <v>2.1759혈</v>
       </c>
       <c r="G87" s="20">
-        <f t="shared" ref="G87:G88" si="111">H87*J87</f>
+        <f t="shared" ref="G87:G88" si="113">H87*J87</f>
         <v>2.1759000000000004E+224</v>
       </c>
       <c r="H87" s="20">
@@ -8286,15 +8404,15 @@
         <v>혈</v>
       </c>
       <c r="J87" s="19" t="str">
-        <f t="shared" ref="J87:J88" si="112">VLOOKUP(I87,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J87:J88" si="114">VLOOKUP(I87,N:Q,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K87" s="17">
-        <f t="shared" ref="K87:K88" si="113">L87</f>
+        <f t="shared" ref="K87:K88" si="115">L87</f>
         <v>8800</v>
       </c>
       <c r="L87" s="11">
-        <f t="shared" ref="L87:L88" si="114">($B$14*(E87-1)+2000)/2</f>
+        <f t="shared" ref="L87:L88" si="116">($B$14*(E87-1)+2000)/2</f>
         <v>8800</v>
       </c>
     </row>
@@ -8303,11 +8421,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="20" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>219.7659혈</v>
       </c>
       <c r="G88" s="20">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2.1976589999999999E+226</v>
       </c>
       <c r="H88" s="20">
@@ -8319,15 +8437,15 @@
         <v>혈</v>
       </c>
       <c r="J88" s="19" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>1E+224</v>
       </c>
       <c r="K88" s="17">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>8900</v>
       </c>
       <c r="L88" s="11">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>8900</v>
       </c>
     </row>
@@ -8336,11 +8454,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="20" t="str">
-        <f t="shared" ref="F89:F92" si="115">H89&amp;I89</f>
+        <f t="shared" ref="F89:F92" si="117">H89&amp;I89</f>
         <v>2.2197연</v>
       </c>
       <c r="G89" s="20">
-        <f t="shared" ref="G89:G92" si="116">H89*J89</f>
+        <f t="shared" ref="G89:G92" si="118">H89*J89</f>
         <v>2.2196999999999997E+228</v>
       </c>
       <c r="H89" s="20">
@@ -8352,15 +8470,15 @@
         <v>연</v>
       </c>
       <c r="J89" s="19" t="str">
-        <f t="shared" ref="J89:J92" si="117">VLOOKUP(I89,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J89:J92" si="119">VLOOKUP(I89,N:Q,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K89" s="17">
-        <f t="shared" ref="K89:K92" si="118">L89</f>
+        <f t="shared" ref="K89:K92" si="120">L89</f>
         <v>9000</v>
       </c>
       <c r="L89" s="11">
-        <f t="shared" ref="L89:L92" si="119">($B$14*(E89-1)+2000)/2</f>
+        <f t="shared" ref="L89:L92" si="121">($B$14*(E89-1)+2000)/2</f>
         <v>9000</v>
       </c>
     </row>
@@ -8369,11 +8487,11 @@
         <v>82</v>
       </c>
       <c r="F90" s="20" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>224.1897연</v>
       </c>
       <c r="G90" s="20">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>2.2418969999999998E+230</v>
       </c>
       <c r="H90" s="20">
@@ -8385,15 +8503,15 @@
         <v>연</v>
       </c>
       <c r="J90" s="19" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>1E+228</v>
       </c>
       <c r="K90" s="17">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>9100</v>
       </c>
       <c r="L90" s="11">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>9100</v>
       </c>
     </row>
@@ -8402,11 +8520,11 @@
         <v>83</v>
       </c>
       <c r="F91" s="20" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>2.2644난</v>
       </c>
       <c r="G91" s="20">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>2.2644000000000004E+232</v>
       </c>
       <c r="H91" s="20">
@@ -8418,15 +8536,15 @@
         <v>난</v>
       </c>
       <c r="J91" s="19" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>1E+232</v>
       </c>
       <c r="K91" s="17">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>9200</v>
       </c>
       <c r="L91" s="11">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>9200</v>
       </c>
     </row>
@@ -8435,11 +8553,11 @@
         <v>84</v>
       </c>
       <c r="F92" s="20" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>228.7044난</v>
       </c>
       <c r="G92" s="20">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>2.2870440000000001E+234</v>
       </c>
       <c r="H92" s="20">
@@ -8451,15 +8569,15 @@
         <v>난</v>
       </c>
       <c r="J92" s="19" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>1E+232</v>
       </c>
       <c r="K92" s="17">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>9300</v>
       </c>
       <c r="L92" s="11">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>9300</v>
       </c>
     </row>
@@ -8468,11 +8586,11 @@
         <v>85</v>
       </c>
       <c r="F93" s="20" t="str">
-        <f t="shared" ref="F93:F96" si="120">H93&amp;I93</f>
+        <f t="shared" ref="F93:F96" si="122">H93&amp;I93</f>
         <v>2.31군</v>
       </c>
       <c r="G93" s="20">
-        <f t="shared" ref="G93:G96" si="121">H93*J93</f>
+        <f t="shared" ref="G93:G96" si="123">H93*J93</f>
         <v>2.3100000000000003E+236</v>
       </c>
       <c r="H93" s="20">
@@ -8484,15 +8602,15 @@
         <v>군</v>
       </c>
       <c r="J93" s="19" t="str">
-        <f t="shared" ref="J93:J96" si="122">VLOOKUP(I93,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J93:J96" si="124">VLOOKUP(I93,N:Q,4,FALSE)</f>
         <v>1E+236</v>
       </c>
       <c r="K93" s="17">
-        <f t="shared" ref="K93:K96" si="123">L93</f>
+        <f t="shared" ref="K93:K96" si="125">L93</f>
         <v>9400</v>
       </c>
       <c r="L93" s="11">
-        <f t="shared" ref="L93:L96" si="124">($B$14*(E93-1)+2000)/2</f>
+        <f t="shared" ref="L93:L96" si="126">($B$14*(E93-1)+2000)/2</f>
         <v>9400</v>
       </c>
     </row>
@@ -8501,11 +8619,11 @@
         <v>86</v>
       </c>
       <c r="F94" s="20" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>233.31군</v>
       </c>
       <c r="G94" s="20">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>2.3331000000000001E+238</v>
       </c>
       <c r="H94" s="20">
@@ -8517,15 +8635,15 @@
         <v>군</v>
       </c>
       <c r="J94" s="19" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>1E+236</v>
       </c>
       <c r="K94" s="17">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>9500</v>
       </c>
       <c r="L94" s="11">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>9500</v>
       </c>
     </row>
@@ -8534,11 +8652,11 @@
         <v>87</v>
       </c>
       <c r="F95" s="20" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2.3565결</v>
       </c>
       <c r="G95" s="20">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>2.3564999999999999E+240</v>
       </c>
       <c r="H95" s="20">
@@ -8550,15 +8668,15 @@
         <v>결</v>
       </c>
       <c r="J95" s="19" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>1E+240</v>
       </c>
       <c r="K95" s="17">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>9600</v>
       </c>
       <c r="L95" s="11">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>9600</v>
       </c>
     </row>
@@ -8567,11 +8685,11 @@
         <v>88</v>
       </c>
       <c r="F96" s="20" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>238.0065결</v>
       </c>
       <c r="G96" s="20">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>2.3800649999999998E+242</v>
       </c>
       <c r="H96" s="20">
@@ -8583,16 +8701,82 @@
         <v>결</v>
       </c>
       <c r="J96" s="19" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>1E+240</v>
       </c>
       <c r="K96" s="17">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>9700</v>
       </c>
       <c r="L96" s="11">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>9700</v>
+      </c>
+    </row>
+    <row r="97" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E97" s="19">
+        <v>89</v>
+      </c>
+      <c r="F97" s="20" t="str">
+        <f t="shared" ref="F97:F98" si="127">H97&amp;I97</f>
+        <v>2.4039맥</v>
+      </c>
+      <c r="G97" s="20">
+        <f t="shared" ref="G97:G98" si="128">H97*J97</f>
+        <v>2.4039000000000003E+244</v>
+      </c>
+      <c r="H97" s="20">
+        <f t="shared" si="7"/>
+        <v>2.4039000000000001</v>
+      </c>
+      <c r="I97" s="19" t="str" cm="1">
+        <f t="array" ref="I97">IF(AND(H96&gt;100,H97&lt;100),INDEX(N:N,MATCH(I96,N:N,0)+1,0),I96)</f>
+        <v>맥</v>
+      </c>
+      <c r="J97" s="19" t="str">
+        <f t="shared" ref="J97:J98" si="129">VLOOKUP(I97,N:Q,4,FALSE)</f>
+        <v>1E+244</v>
+      </c>
+      <c r="K97" s="17">
+        <f t="shared" ref="K97:K98" si="130">L97</f>
+        <v>9800</v>
+      </c>
+      <c r="L97" s="11">
+        <f t="shared" ref="L97:L98" si="131">($B$14*(E97-1)+2000)/2</f>
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="98" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E98" s="19">
+        <v>90</v>
+      </c>
+      <c r="F98" s="20" t="str">
+        <f t="shared" si="127"/>
+        <v>242.7939맥</v>
+      </c>
+      <c r="G98" s="20">
+        <f t="shared" si="128"/>
+        <v>2.4279390000000001E+246</v>
+      </c>
+      <c r="H98" s="20">
+        <f t="shared" si="7"/>
+        <v>242.79390000000001</v>
+      </c>
+      <c r="I98" s="19" t="str" cm="1">
+        <f t="array" ref="I98">IF(AND(H97&gt;100,H98&lt;100),INDEX(N:N,MATCH(I97,N:N,0)+1,0),I97)</f>
+        <v>맥</v>
+      </c>
+      <c r="J98" s="19" t="str">
+        <f t="shared" si="129"/>
+        <v>1E+244</v>
+      </c>
+      <c r="K98" s="17">
+        <f t="shared" si="130"/>
+        <v>9900</v>
+      </c>
+      <c r="L98" s="11">
+        <f t="shared" si="131"/>
+        <v>9900</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2528AC68-7DB8-432B-AE0A-51A9CA3B3272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7457DE34-E957-4527-8976-D891887C61AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="96">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1031,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4689,9 +4689,91 @@
         <v>9900</v>
       </c>
     </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92">
+        <v>9026</v>
+      </c>
+      <c r="D92">
+        <f>VLOOKUP(A92+1,balacne!E:L,7,FALSE)</f>
+        <v>10000</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2">
+        <f>VLOOKUP(A92+1,balacne!E:L,3,FALSE)</f>
+        <v>2.4523000000000004E+248</v>
+      </c>
+      <c r="G92">
+        <v>1000</v>
+      </c>
+      <c r="H92">
+        <v>8</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>20000</v>
+      </c>
+      <c r="K92">
+        <v>9026</v>
+      </c>
+      <c r="L92">
+        <f>VLOOKUP(A92+1,balacne!E:L,8,FALSE)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93">
+        <v>9026</v>
+      </c>
+      <c r="D93">
+        <f>VLOOKUP(A93+1,balacne!E:L,7,FALSE)</f>
+        <v>10100</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" s="2">
+        <f>VLOOKUP(A93+1,balacne!E:L,3,FALSE)</f>
+        <v>2.476823E+250</v>
+      </c>
+      <c r="G93">
+        <v>1000</v>
+      </c>
+      <c r="H93">
+        <v>8</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>20200</v>
+      </c>
+      <c r="K93">
+        <v>9026</v>
+      </c>
+      <c r="L93">
+        <f>VLOOKUP(A93+1,balacne!E:L,8,FALSE)</f>
+        <v>10100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K91">
+  <conditionalFormatting sqref="A2:K93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4702,10 +4784,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z98"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="K96" sqref="K96"/>
+    <sheetView topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4967,7 +5049,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H98" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H101" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -8718,11 +8800,11 @@
         <v>89</v>
       </c>
       <c r="F97" s="20" t="str">
-        <f t="shared" ref="F97:F98" si="127">H97&amp;I97</f>
+        <f t="shared" ref="F97:F101" si="127">H97&amp;I97</f>
         <v>2.4039맥</v>
       </c>
       <c r="G97" s="20">
-        <f t="shared" ref="G97:G98" si="128">H97*J97</f>
+        <f t="shared" ref="G97:G101" si="128">H97*J97</f>
         <v>2.4039000000000003E+244</v>
       </c>
       <c r="H97" s="20">
@@ -8734,15 +8816,15 @@
         <v>맥</v>
       </c>
       <c r="J97" s="19" t="str">
-        <f t="shared" ref="J97:J98" si="129">VLOOKUP(I97,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J97:J101" si="129">VLOOKUP(I97,N:Q,4,FALSE)</f>
         <v>1E+244</v>
       </c>
       <c r="K97" s="17">
-        <f t="shared" ref="K97:K98" si="130">L97</f>
+        <f t="shared" ref="K97:K101" si="130">L97</f>
         <v>9800</v>
       </c>
       <c r="L97" s="11">
-        <f t="shared" ref="L97:L98" si="131">($B$14*(E97-1)+2000)/2</f>
+        <f t="shared" ref="L97:L101" si="131">($B$14*(E97-1)+2000)/2</f>
         <v>9800</v>
       </c>
     </row>
@@ -8777,6 +8859,72 @@
       <c r="L98" s="11">
         <f t="shared" si="131"/>
         <v>9900</v>
+      </c>
+    </row>
+    <row r="99" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E99" s="19">
+        <v>91</v>
+      </c>
+      <c r="F99" s="20" t="str">
+        <f t="shared" si="127"/>
+        <v>2.4523토</v>
+      </c>
+      <c r="G99" s="20">
+        <f t="shared" si="128"/>
+        <v>2.4523000000000004E+248</v>
+      </c>
+      <c r="H99" s="20">
+        <f t="shared" si="7"/>
+        <v>2.4523000000000001</v>
+      </c>
+      <c r="I99" s="19" t="str" cm="1">
+        <f t="array" ref="I99">IF(AND(H98&gt;100,H99&lt;100),INDEX(N:N,MATCH(I98,N:N,0)+1,0),I98)</f>
+        <v>토</v>
+      </c>
+      <c r="J99" s="19" t="str">
+        <f t="shared" si="129"/>
+        <v>1E+248</v>
+      </c>
+      <c r="K99" s="17">
+        <f t="shared" si="130"/>
+        <v>10000</v>
+      </c>
+      <c r="L99" s="11">
+        <f t="shared" si="131"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="100" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E100" s="19">
+        <v>92</v>
+      </c>
+      <c r="F100" s="20" t="str">
+        <f t="shared" si="127"/>
+        <v>247.6823토</v>
+      </c>
+      <c r="G100" s="20">
+        <f t="shared" si="128"/>
+        <v>2.476823E+250</v>
+      </c>
+      <c r="H100" s="20">
+        <f t="shared" si="7"/>
+        <v>247.6823</v>
+      </c>
+      <c r="I100" s="19" t="str" cm="1">
+        <f t="array" ref="I100">IF(AND(H99&gt;100,H100&lt;100),INDEX(N:N,MATCH(I99,N:N,0)+1,0),I99)</f>
+        <v>토</v>
+      </c>
+      <c r="J100" s="19" t="str">
+        <f t="shared" si="129"/>
+        <v>1E+248</v>
+      </c>
+      <c r="K100" s="17">
+        <f t="shared" si="130"/>
+        <v>10100</v>
+      </c>
+      <c r="L100" s="11">
+        <f t="shared" si="131"/>
+        <v>10100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7457DE34-E957-4527-8976-D891887C61AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC014C4-35EE-4B55-9CD4-8A435064CA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="97">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,10 @@
   </si>
   <si>
     <t>산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1031,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4771,9 +4775,91 @@
         <v>10100</v>
       </c>
     </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94">
+        <v>9026</v>
+      </c>
+      <c r="D94">
+        <f>VLOOKUP(A94+1,balacne!E:L,7,FALSE)</f>
+        <v>10200</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" s="2">
+        <f>VLOOKUP(A94+1,balacne!E:L,3,FALSE)</f>
+        <v>2.5016000000000004E+252</v>
+      </c>
+      <c r="G94">
+        <v>1000</v>
+      </c>
+      <c r="H94">
+        <v>8</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>20400</v>
+      </c>
+      <c r="K94">
+        <v>9026</v>
+      </c>
+      <c r="L94">
+        <f>VLOOKUP(A94+1,balacne!E:L,8,FALSE)</f>
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95">
+        <v>9026</v>
+      </c>
+      <c r="D95">
+        <f>VLOOKUP(A95+1,balacne!E:L,7,FALSE)</f>
+        <v>10300</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2">
+        <f>VLOOKUP(A95+1,balacne!E:L,3,FALSE)</f>
+        <v>2.526616E+254</v>
+      </c>
+      <c r="G95">
+        <v>1000</v>
+      </c>
+      <c r="H95">
+        <v>8</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>20600</v>
+      </c>
+      <c r="K95">
+        <v>9026</v>
+      </c>
+      <c r="L95">
+        <f>VLOOKUP(A95+1,balacne!E:L,8,FALSE)</f>
+        <v>10300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K93">
+  <conditionalFormatting sqref="A2:K95">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4784,10 +4870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView topLeftCell="B85" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95"/>
+    <sheetView topLeftCell="B84" workbookViewId="0">
+      <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5049,7 +5135,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H101" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H102" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -7969,6 +8055,20 @@
         <f t="shared" ref="L71:L74" si="91">($B$14*(E71-1)+2000)/2</f>
         <v>7200</v>
       </c>
+      <c r="N71" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="O71" s="19">
+        <v>256</v>
+      </c>
+      <c r="P71" s="20">
+        <f t="shared" ref="P71" si="92">POWER(10,O71)</f>
+        <v>1E+256</v>
+      </c>
+      <c r="Q71" s="20" t="str">
+        <f t="shared" ref="Q71" si="93">RIGHT(P71,O71)</f>
+        <v>1E+256</v>
+      </c>
     </row>
     <row r="72" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E72" s="19">
@@ -8074,11 +8174,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="20" t="str">
-        <f t="shared" ref="F75:F77" si="92">H75&amp;I75</f>
+        <f t="shared" ref="F75:F77" si="94">H75&amp;I75</f>
         <v>1.9308증</v>
       </c>
       <c r="G75" s="20">
-        <f t="shared" ref="G75:G77" si="93">H75*J75</f>
+        <f t="shared" ref="G75:G77" si="95">H75*J75</f>
         <v>1.9308E+200</v>
       </c>
       <c r="H75" s="20">
@@ -8090,15 +8190,15 @@
         <v>증</v>
       </c>
       <c r="J75" s="19" t="str">
-        <f t="shared" ref="J75:J77" si="94">VLOOKUP(I75,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J75:J77" si="96">VLOOKUP(I75,N:Q,4,FALSE)</f>
         <v>1E+200</v>
       </c>
       <c r="K75" s="17">
-        <f t="shared" ref="K75:K77" si="95">L75</f>
+        <f t="shared" ref="K75:K77" si="97">L75</f>
         <v>7600</v>
       </c>
       <c r="L75" s="11">
-        <f t="shared" ref="L75:L77" si="96">($B$14*(E75-1)+2000)/2</f>
+        <f t="shared" ref="L75:L77" si="98">($B$14*(E75-1)+2000)/2</f>
         <v>7600</v>
       </c>
     </row>
@@ -8107,11 +8207,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="20" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>195.0108증</v>
       </c>
       <c r="G76" s="20">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1.9501079999999999E+202</v>
       </c>
       <c r="H76" s="20">
@@ -8123,15 +8223,15 @@
         <v>증</v>
       </c>
       <c r="J76" s="19" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1E+200</v>
       </c>
       <c r="K76" s="17">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>7700</v>
       </c>
       <c r="L76" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>7700</v>
       </c>
     </row>
@@ -8140,11 +8240,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="20" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1.9697쾌</v>
       </c>
       <c r="G77" s="20">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1.9696999999999999E+204</v>
       </c>
       <c r="H77" s="20">
@@ -8156,15 +8256,15 @@
         <v>쾌</v>
       </c>
       <c r="J77" s="19" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1E+204</v>
       </c>
       <c r="K77" s="17">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>7800</v>
       </c>
       <c r="L77" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>7800</v>
       </c>
     </row>
@@ -8173,11 +8273,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="20" t="str">
-        <f t="shared" ref="F78:F79" si="97">H78&amp;I78</f>
+        <f t="shared" ref="F78:F79" si="99">H78&amp;I78</f>
         <v>198.9397쾌</v>
       </c>
       <c r="G78" s="20">
-        <f t="shared" ref="G78:G79" si="98">H78*J78</f>
+        <f t="shared" ref="G78:G79" si="100">H78*J78</f>
         <v>1.9893969999999998E+206</v>
       </c>
       <c r="H78" s="20">
@@ -8189,15 +8289,15 @@
         <v>쾌</v>
       </c>
       <c r="J78" s="19" t="str">
-        <f t="shared" ref="J78:J79" si="99">VLOOKUP(I78,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J78:J79" si="101">VLOOKUP(I78,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K78" s="17">
-        <f t="shared" ref="K78:K79" si="100">L78</f>
+        <f t="shared" ref="K78:K79" si="102">L78</f>
         <v>7900</v>
       </c>
       <c r="L78" s="11">
-        <f t="shared" ref="L78:L79" si="101">($B$14*(E78-1)+2000)/2</f>
+        <f t="shared" ref="L78:L79" si="103">($B$14*(E78-1)+2000)/2</f>
         <v>7900</v>
       </c>
     </row>
@@ -8206,11 +8306,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="20" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>2.0093우</v>
       </c>
       <c r="G79" s="20">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>2.0093000000000001E+208</v>
       </c>
       <c r="H79" s="20">
@@ -8222,15 +8322,15 @@
         <v>우</v>
       </c>
       <c r="J79" s="19" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>1E+208</v>
       </c>
       <c r="K79" s="17">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>8000</v>
       </c>
       <c r="L79" s="11">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>8000</v>
       </c>
     </row>
@@ -8239,11 +8339,11 @@
         <v>72</v>
       </c>
       <c r="F80" s="20" t="str">
-        <f t="shared" ref="F80:F81" si="102">H80&amp;I80</f>
+        <f t="shared" ref="F80:F81" si="104">H80&amp;I80</f>
         <v>202.9393우</v>
       </c>
       <c r="G80" s="20">
-        <f t="shared" ref="G80:G81" si="103">H80*J80</f>
+        <f t="shared" ref="G80:G81" si="105">H80*J80</f>
         <v>2.0293929999999999E+210</v>
       </c>
       <c r="H80" s="20">
@@ -8255,15 +8355,15 @@
         <v>우</v>
       </c>
       <c r="J80" s="19" t="str">
-        <f t="shared" ref="J80:J81" si="104">VLOOKUP(I80,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J80:J81" si="106">VLOOKUP(I80,N:Q,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K80" s="17">
-        <f t="shared" ref="K80:K81" si="105">L80</f>
+        <f t="shared" ref="K80:K81" si="107">L80</f>
         <v>8100</v>
       </c>
       <c r="L80" s="11">
-        <f t="shared" ref="L80:L81" si="106">($B$14*(E80-1)+2000)/2</f>
+        <f t="shared" ref="L80:L81" si="108">($B$14*(E80-1)+2000)/2</f>
         <v>8100</v>
       </c>
     </row>
@@ -8272,11 +8372,11 @@
         <v>73</v>
       </c>
       <c r="F81" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>2.0497팽</v>
       </c>
       <c r="G81" s="20">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>2.0496999999999998E+212</v>
       </c>
       <c r="H81" s="20">
@@ -8288,15 +8388,15 @@
         <v>팽</v>
       </c>
       <c r="J81" s="19" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>1E+212</v>
       </c>
       <c r="K81" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>8200</v>
       </c>
       <c r="L81" s="11">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>8200</v>
       </c>
     </row>
@@ -8305,11 +8405,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="20" t="str">
-        <f t="shared" ref="F82:F86" si="107">H82&amp;I82</f>
+        <f t="shared" ref="F82:F86" si="109">H82&amp;I82</f>
         <v>207.0197팽</v>
       </c>
       <c r="G82" s="20">
-        <f t="shared" ref="G82:G86" si="108">H82*J82</f>
+        <f t="shared" ref="G82:G86" si="110">H82*J82</f>
         <v>2.0701969999999999E+214</v>
       </c>
       <c r="H82" s="20">
@@ -8321,15 +8421,15 @@
         <v>팽</v>
       </c>
       <c r="J82" s="19" t="str">
-        <f t="shared" ref="J82:J86" si="109">VLOOKUP(I82,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J82:J86" si="111">VLOOKUP(I82,N:Q,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K82" s="17">
-        <f t="shared" ref="K82:K86" si="110">L82</f>
+        <f t="shared" ref="K82:K86" si="112">L82</f>
         <v>8300</v>
       </c>
       <c r="L82" s="11">
-        <f t="shared" ref="L82:L86" si="111">($B$14*(E82-1)+2000)/2</f>
+        <f t="shared" ref="L82:L86" si="113">($B$14*(E82-1)+2000)/2</f>
         <v>8300</v>
       </c>
     </row>
@@ -8338,11 +8438,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>2.0909관</v>
       </c>
       <c r="G83" s="20">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>2.0909000000000005E+216</v>
       </c>
       <c r="H83" s="20">
@@ -8354,15 +8454,15 @@
         <v>관</v>
       </c>
       <c r="J83" s="19" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>1E+216</v>
       </c>
       <c r="K83" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>8400</v>
       </c>
       <c r="L83" s="11">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>8400</v>
       </c>
     </row>
@@ -8371,11 +8471,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>211.1809관</v>
       </c>
       <c r="G84" s="20">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>2.1118089999999999E+218</v>
       </c>
       <c r="H84" s="20">
@@ -8387,15 +8487,15 @@
         <v>관</v>
       </c>
       <c r="J84" s="19" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>1E+216</v>
       </c>
       <c r="K84" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>8500</v>
       </c>
       <c r="L84" s="11">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>8500</v>
       </c>
     </row>
@@ -8404,11 +8504,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>2.133한</v>
       </c>
       <c r="G85" s="20">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>2.1330000000000001E+220</v>
       </c>
       <c r="H85" s="20">
@@ -8420,15 +8520,15 @@
         <v>한</v>
       </c>
       <c r="J85" s="19" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>1E+220</v>
       </c>
       <c r="K85" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>8600</v>
       </c>
       <c r="L85" s="11">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>8600</v>
       </c>
     </row>
@@ -8437,11 +8537,11 @@
         <v>78</v>
       </c>
       <c r="F86" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>215.433한</v>
       </c>
       <c r="G86" s="20">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>2.15433E+222</v>
       </c>
       <c r="H86" s="20">
@@ -8453,15 +8553,15 @@
         <v>한</v>
       </c>
       <c r="J86" s="19" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>1E+220</v>
       </c>
       <c r="K86" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>8700</v>
       </c>
       <c r="L86" s="11">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>8700</v>
       </c>
     </row>
@@ -8470,11 +8570,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="20" t="str">
-        <f t="shared" ref="F87:F88" si="112">H87&amp;I87</f>
+        <f t="shared" ref="F87:F88" si="114">H87&amp;I87</f>
         <v>2.1759혈</v>
       </c>
       <c r="G87" s="20">
-        <f t="shared" ref="G87:G88" si="113">H87*J87</f>
+        <f t="shared" ref="G87:G88" si="115">H87*J87</f>
         <v>2.1759000000000004E+224</v>
       </c>
       <c r="H87" s="20">
@@ -8486,15 +8586,15 @@
         <v>혈</v>
       </c>
       <c r="J87" s="19" t="str">
-        <f t="shared" ref="J87:J88" si="114">VLOOKUP(I87,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J87:J88" si="116">VLOOKUP(I87,N:Q,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K87" s="17">
-        <f t="shared" ref="K87:K88" si="115">L87</f>
+        <f t="shared" ref="K87:K88" si="117">L87</f>
         <v>8800</v>
       </c>
       <c r="L87" s="11">
-        <f t="shared" ref="L87:L88" si="116">($B$14*(E87-1)+2000)/2</f>
+        <f t="shared" ref="L87:L88" si="118">($B$14*(E87-1)+2000)/2</f>
         <v>8800</v>
       </c>
     </row>
@@ -8503,11 +8603,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="20" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>219.7659혈</v>
       </c>
       <c r="G88" s="20">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>2.1976589999999999E+226</v>
       </c>
       <c r="H88" s="20">
@@ -8519,15 +8619,15 @@
         <v>혈</v>
       </c>
       <c r="J88" s="19" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>1E+224</v>
       </c>
       <c r="K88" s="17">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>8900</v>
       </c>
       <c r="L88" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>8900</v>
       </c>
     </row>
@@ -8536,11 +8636,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="20" t="str">
-        <f t="shared" ref="F89:F92" si="117">H89&amp;I89</f>
+        <f t="shared" ref="F89:F92" si="119">H89&amp;I89</f>
         <v>2.2197연</v>
       </c>
       <c r="G89" s="20">
-        <f t="shared" ref="G89:G92" si="118">H89*J89</f>
+        <f t="shared" ref="G89:G92" si="120">H89*J89</f>
         <v>2.2196999999999997E+228</v>
       </c>
       <c r="H89" s="20">
@@ -8552,15 +8652,15 @@
         <v>연</v>
       </c>
       <c r="J89" s="19" t="str">
-        <f t="shared" ref="J89:J92" si="119">VLOOKUP(I89,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J89:J92" si="121">VLOOKUP(I89,N:Q,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K89" s="17">
-        <f t="shared" ref="K89:K92" si="120">L89</f>
+        <f t="shared" ref="K89:K92" si="122">L89</f>
         <v>9000</v>
       </c>
       <c r="L89" s="11">
-        <f t="shared" ref="L89:L92" si="121">($B$14*(E89-1)+2000)/2</f>
+        <f t="shared" ref="L89:L92" si="123">($B$14*(E89-1)+2000)/2</f>
         <v>9000</v>
       </c>
     </row>
@@ -8569,11 +8669,11 @@
         <v>82</v>
       </c>
       <c r="F90" s="20" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>224.1897연</v>
       </c>
       <c r="G90" s="20">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>2.2418969999999998E+230</v>
       </c>
       <c r="H90" s="20">
@@ -8585,15 +8685,15 @@
         <v>연</v>
       </c>
       <c r="J90" s="19" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>1E+228</v>
       </c>
       <c r="K90" s="17">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>9100</v>
       </c>
       <c r="L90" s="11">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>9100</v>
       </c>
     </row>
@@ -8602,11 +8702,11 @@
         <v>83</v>
       </c>
       <c r="F91" s="20" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>2.2644난</v>
       </c>
       <c r="G91" s="20">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>2.2644000000000004E+232</v>
       </c>
       <c r="H91" s="20">
@@ -8618,15 +8718,15 @@
         <v>난</v>
       </c>
       <c r="J91" s="19" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>1E+232</v>
       </c>
       <c r="K91" s="17">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>9200</v>
       </c>
       <c r="L91" s="11">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>9200</v>
       </c>
     </row>
@@ -8635,11 +8735,11 @@
         <v>84</v>
       </c>
       <c r="F92" s="20" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>228.7044난</v>
       </c>
       <c r="G92" s="20">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>2.2870440000000001E+234</v>
       </c>
       <c r="H92" s="20">
@@ -8651,15 +8751,15 @@
         <v>난</v>
       </c>
       <c r="J92" s="19" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>1E+232</v>
       </c>
       <c r="K92" s="17">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>9300</v>
       </c>
       <c r="L92" s="11">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>9300</v>
       </c>
     </row>
@@ -8668,11 +8768,11 @@
         <v>85</v>
       </c>
       <c r="F93" s="20" t="str">
-        <f t="shared" ref="F93:F96" si="122">H93&amp;I93</f>
+        <f t="shared" ref="F93:F96" si="124">H93&amp;I93</f>
         <v>2.31군</v>
       </c>
       <c r="G93" s="20">
-        <f t="shared" ref="G93:G96" si="123">H93*J93</f>
+        <f t="shared" ref="G93:G96" si="125">H93*J93</f>
         <v>2.3100000000000003E+236</v>
       </c>
       <c r="H93" s="20">
@@ -8684,15 +8784,15 @@
         <v>군</v>
       </c>
       <c r="J93" s="19" t="str">
-        <f t="shared" ref="J93:J96" si="124">VLOOKUP(I93,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J93:J96" si="126">VLOOKUP(I93,N:Q,4,FALSE)</f>
         <v>1E+236</v>
       </c>
       <c r="K93" s="17">
-        <f t="shared" ref="K93:K96" si="125">L93</f>
+        <f t="shared" ref="K93:K96" si="127">L93</f>
         <v>9400</v>
       </c>
       <c r="L93" s="11">
-        <f t="shared" ref="L93:L96" si="126">($B$14*(E93-1)+2000)/2</f>
+        <f t="shared" ref="L93:L96" si="128">($B$14*(E93-1)+2000)/2</f>
         <v>9400</v>
       </c>
     </row>
@@ -8701,11 +8801,11 @@
         <v>86</v>
       </c>
       <c r="F94" s="20" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>233.31군</v>
       </c>
       <c r="G94" s="20">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>2.3331000000000001E+238</v>
       </c>
       <c r="H94" s="20">
@@ -8717,15 +8817,15 @@
         <v>군</v>
       </c>
       <c r="J94" s="19" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>1E+236</v>
       </c>
       <c r="K94" s="17">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>9500</v>
       </c>
       <c r="L94" s="11">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>9500</v>
       </c>
     </row>
@@ -8734,11 +8834,11 @@
         <v>87</v>
       </c>
       <c r="F95" s="20" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>2.3565결</v>
       </c>
       <c r="G95" s="20">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>2.3564999999999999E+240</v>
       </c>
       <c r="H95" s="20">
@@ -8750,15 +8850,15 @@
         <v>결</v>
       </c>
       <c r="J95" s="19" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>1E+240</v>
       </c>
       <c r="K95" s="17">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>9600</v>
       </c>
       <c r="L95" s="11">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>9600</v>
       </c>
     </row>
@@ -8767,11 +8867,11 @@
         <v>88</v>
       </c>
       <c r="F96" s="20" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>238.0065결</v>
       </c>
       <c r="G96" s="20">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>2.3800649999999998E+242</v>
       </c>
       <c r="H96" s="20">
@@ -8783,15 +8883,15 @@
         <v>결</v>
       </c>
       <c r="J96" s="19" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>1E+240</v>
       </c>
       <c r="K96" s="17">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>9700</v>
       </c>
       <c r="L96" s="11">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>9700</v>
       </c>
     </row>
@@ -8800,11 +8900,11 @@
         <v>89</v>
       </c>
       <c r="F97" s="20" t="str">
-        <f t="shared" ref="F97:F101" si="127">H97&amp;I97</f>
+        <f t="shared" ref="F97:F100" si="129">H97&amp;I97</f>
         <v>2.4039맥</v>
       </c>
       <c r="G97" s="20">
-        <f t="shared" ref="G97:G101" si="128">H97*J97</f>
+        <f t="shared" ref="G97:G100" si="130">H97*J97</f>
         <v>2.4039000000000003E+244</v>
       </c>
       <c r="H97" s="20">
@@ -8816,15 +8916,15 @@
         <v>맥</v>
       </c>
       <c r="J97" s="19" t="str">
-        <f t="shared" ref="J97:J101" si="129">VLOOKUP(I97,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J97:J100" si="131">VLOOKUP(I97,N:Q,4,FALSE)</f>
         <v>1E+244</v>
       </c>
       <c r="K97" s="17">
-        <f t="shared" ref="K97:K101" si="130">L97</f>
+        <f t="shared" ref="K97:K100" si="132">L97</f>
         <v>9800</v>
       </c>
       <c r="L97" s="11">
-        <f t="shared" ref="L97:L101" si="131">($B$14*(E97-1)+2000)/2</f>
+        <f t="shared" ref="L97:L100" si="133">($B$14*(E97-1)+2000)/2</f>
         <v>9800</v>
       </c>
     </row>
@@ -8833,11 +8933,11 @@
         <v>90</v>
       </c>
       <c r="F98" s="20" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>242.7939맥</v>
       </c>
       <c r="G98" s="20">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>2.4279390000000001E+246</v>
       </c>
       <c r="H98" s="20">
@@ -8849,15 +8949,15 @@
         <v>맥</v>
       </c>
       <c r="J98" s="19" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>1E+244</v>
       </c>
       <c r="K98" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>9900</v>
       </c>
       <c r="L98" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>9900</v>
       </c>
     </row>
@@ -8866,11 +8966,11 @@
         <v>91</v>
       </c>
       <c r="F99" s="20" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>2.4523토</v>
       </c>
       <c r="G99" s="20">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>2.4523000000000004E+248</v>
       </c>
       <c r="H99" s="20">
@@ -8882,15 +8982,15 @@
         <v>토</v>
       </c>
       <c r="J99" s="19" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>1E+248</v>
       </c>
       <c r="K99" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>10000</v>
       </c>
       <c r="L99" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>10000</v>
       </c>
     </row>
@@ -8899,11 +8999,11 @@
         <v>92</v>
       </c>
       <c r="F100" s="20" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>247.6823토</v>
       </c>
       <c r="G100" s="20">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>2.476823E+250</v>
       </c>
       <c r="H100" s="20">
@@ -8915,16 +9015,82 @@
         <v>토</v>
       </c>
       <c r="J100" s="19" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>1E+248</v>
       </c>
       <c r="K100" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>10100</v>
       </c>
       <c r="L100" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>10100</v>
+      </c>
+    </row>
+    <row r="101" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E101" s="19">
+        <v>93</v>
+      </c>
+      <c r="F101" s="20" t="str">
+        <f t="shared" ref="F101:F102" si="134">H101&amp;I101</f>
+        <v>2.5016산</v>
+      </c>
+      <c r="G101" s="20">
+        <f t="shared" ref="G101:G102" si="135">H101*J101</f>
+        <v>2.5016000000000004E+252</v>
+      </c>
+      <c r="H101" s="20">
+        <f t="shared" si="7"/>
+        <v>2.5016000000000003</v>
+      </c>
+      <c r="I101" s="19" t="str" cm="1">
+        <f t="array" ref="I101">IF(AND(H100&gt;100,H101&lt;100),INDEX(N:N,MATCH(I100,N:N,0)+1,0),I100)</f>
+        <v>산</v>
+      </c>
+      <c r="J101" s="19" t="str">
+        <f t="shared" ref="J101:J102" si="136">VLOOKUP(I101,N:Q,4,FALSE)</f>
+        <v>1E+252</v>
+      </c>
+      <c r="K101" s="17">
+        <f t="shared" ref="K101:K102" si="137">L101</f>
+        <v>10200</v>
+      </c>
+      <c r="L101" s="11">
+        <f t="shared" ref="L101:L102" si="138">($B$14*(E101-1)+2000)/2</f>
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="102" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E102" s="19">
+        <v>94</v>
+      </c>
+      <c r="F102" s="20" t="str">
+        <f t="shared" si="134"/>
+        <v>252.6616산</v>
+      </c>
+      <c r="G102" s="20">
+        <f t="shared" si="135"/>
+        <v>2.526616E+254</v>
+      </c>
+      <c r="H102" s="20">
+        <f t="shared" si="7"/>
+        <v>252.66159999999999</v>
+      </c>
+      <c r="I102" s="19" t="str" cm="1">
+        <f t="array" ref="I102">IF(AND(H101&gt;100,H102&lt;100),INDEX(N:N,MATCH(I101,N:N,0)+1,0),I101)</f>
+        <v>산</v>
+      </c>
+      <c r="J102" s="19" t="str">
+        <f t="shared" si="136"/>
+        <v>1E+252</v>
+      </c>
+      <c r="K102" s="17">
+        <f t="shared" si="137"/>
+        <v>10300</v>
+      </c>
+      <c r="L102" s="11">
+        <f t="shared" si="138"/>
+        <v>10300</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC014C4-35EE-4B55-9CD4-8A435064CA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D8F47F-DAEA-47C7-9A02-44AE214372F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="101">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,6 +443,22 @@
   </si>
   <si>
     <t>강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1035,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L95"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4857,9 +4873,255 @@
         <v>10300</v>
       </c>
     </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96">
+        <v>9026</v>
+      </c>
+      <c r="D96">
+        <f>VLOOKUP(A96+1,balacne!E:L,7,FALSE)</f>
+        <v>10400</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2">
+        <f>VLOOKUP(A96+1,balacne!E:L,3,FALSE)</f>
+        <v>2.5519000000000002E+256</v>
+      </c>
+      <c r="G96">
+        <v>1000</v>
+      </c>
+      <c r="H96">
+        <v>8</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>20800</v>
+      </c>
+      <c r="K96">
+        <v>9026</v>
+      </c>
+      <c r="L96">
+        <f>VLOOKUP(A96+1,balacne!E:L,8,FALSE)</f>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97">
+        <v>9026</v>
+      </c>
+      <c r="D97">
+        <f>VLOOKUP(A97+1,balacne!E:L,7,FALSE)</f>
+        <v>10500</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" s="2">
+        <f>VLOOKUP(A97+1,balacne!E:L,3,FALSE)</f>
+        <v>2.5774190000000001E+258</v>
+      </c>
+      <c r="G97">
+        <v>1000</v>
+      </c>
+      <c r="H97">
+        <v>8</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>21000</v>
+      </c>
+      <c r="K97">
+        <v>9026</v>
+      </c>
+      <c r="L97">
+        <f>VLOOKUP(A97+1,balacne!E:L,8,FALSE)</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98">
+        <v>9026</v>
+      </c>
+      <c r="D98">
+        <f>VLOOKUP(A98+1,balacne!E:L,7,FALSE)</f>
+        <v>10600</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2">
+        <f>VLOOKUP(A98+1,balacne!E:L,3,FALSE)</f>
+        <v>2.6032000000000005E+260</v>
+      </c>
+      <c r="G98">
+        <v>1000</v>
+      </c>
+      <c r="H98">
+        <v>8</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>21200</v>
+      </c>
+      <c r="K98">
+        <v>9026</v>
+      </c>
+      <c r="L98">
+        <f>VLOOKUP(A98+1,balacne!E:L,8,FALSE)</f>
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99">
+        <v>9026</v>
+      </c>
+      <c r="D99">
+        <f>VLOOKUP(A99+1,balacne!E:L,7,FALSE)</f>
+        <v>10700</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" s="2">
+        <f>VLOOKUP(A99+1,balacne!E:L,3,FALSE)</f>
+        <v>2.6292320000000003E+262</v>
+      </c>
+      <c r="G99">
+        <v>1000</v>
+      </c>
+      <c r="H99">
+        <v>8</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>21400</v>
+      </c>
+      <c r="K99">
+        <v>9026</v>
+      </c>
+      <c r="L99">
+        <f>VLOOKUP(A99+1,balacne!E:L,8,FALSE)</f>
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100">
+        <v>9026</v>
+      </c>
+      <c r="D100">
+        <f>VLOOKUP(A100+1,balacne!E:L,7,FALSE)</f>
+        <v>10800</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" s="2">
+        <f>VLOOKUP(A100+1,balacne!E:L,3,FALSE)</f>
+        <v>2.6556000000000002E+264</v>
+      </c>
+      <c r="G100">
+        <v>1000</v>
+      </c>
+      <c r="H100">
+        <v>8</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>21600</v>
+      </c>
+      <c r="K100">
+        <v>9026</v>
+      </c>
+      <c r="L100">
+        <f>VLOOKUP(A100+1,balacne!E:L,8,FALSE)</f>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101">
+        <v>9026</v>
+      </c>
+      <c r="D101">
+        <f>VLOOKUP(A101+1,balacne!E:L,7,FALSE)</f>
+        <v>10900</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2">
+        <f>VLOOKUP(A101+1,balacne!E:L,3,FALSE)</f>
+        <v>2.6821559999999999E+266</v>
+      </c>
+      <c r="G101">
+        <v>1000</v>
+      </c>
+      <c r="H101">
+        <v>8</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>21800</v>
+      </c>
+      <c r="K101">
+        <v>9026</v>
+      </c>
+      <c r="L101">
+        <f>VLOOKUP(A101+1,balacne!E:L,8,FALSE)</f>
+        <v>10900</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K95">
+  <conditionalFormatting sqref="A2:K101">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4870,10 +5132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:Z114"/>
   <sheetViews>
-    <sheetView topLeftCell="B84" workbookViewId="0">
-      <selection activeCell="L97" sqref="L97"/>
+    <sheetView topLeftCell="B89" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5135,7 +5397,7 @@
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H102" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H114" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -8102,6 +8364,20 @@
         <f t="shared" si="91"/>
         <v>7300</v>
       </c>
+      <c r="N72" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="O72" s="19">
+        <v>260</v>
+      </c>
+      <c r="P72" s="20">
+        <f t="shared" ref="P72:P75" si="94">POWER(10,O72)</f>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="Q72" s="20" t="str">
+        <f t="shared" ref="Q72:Q75" si="95">RIGHT(P72,O72)</f>
+        <v>1E+260</v>
+      </c>
     </row>
     <row r="73" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E73" s="19">
@@ -8135,6 +8411,20 @@
         <f t="shared" si="91"/>
         <v>7400</v>
       </c>
+      <c r="N73" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="O73" s="19">
+        <v>264</v>
+      </c>
+      <c r="P73" s="20">
+        <f t="shared" si="94"/>
+        <v>1E+264</v>
+      </c>
+      <c r="Q73" s="20" t="str">
+        <f t="shared" si="95"/>
+        <v>1E+264</v>
+      </c>
     </row>
     <row r="74" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E74" s="19">
@@ -8168,17 +8458,31 @@
         <f t="shared" si="91"/>
         <v>7500</v>
       </c>
+      <c r="N74" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="O74" s="19">
+        <v>268</v>
+      </c>
+      <c r="P74" s="20">
+        <f t="shared" si="94"/>
+        <v>9.9999999999999997E+267</v>
+      </c>
+      <c r="Q74" s="20" t="str">
+        <f t="shared" si="95"/>
+        <v>1E+268</v>
+      </c>
     </row>
     <row r="75" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E75" s="19">
         <v>67</v>
       </c>
       <c r="F75" s="20" t="str">
-        <f t="shared" ref="F75:F77" si="94">H75&amp;I75</f>
+        <f t="shared" ref="F75:F77" si="96">H75&amp;I75</f>
         <v>1.9308증</v>
       </c>
       <c r="G75" s="20">
-        <f t="shared" ref="G75:G77" si="95">H75*J75</f>
+        <f t="shared" ref="G75:G77" si="97">H75*J75</f>
         <v>1.9308E+200</v>
       </c>
       <c r="H75" s="20">
@@ -8190,16 +8494,30 @@
         <v>증</v>
       </c>
       <c r="J75" s="19" t="str">
-        <f t="shared" ref="J75:J77" si="96">VLOOKUP(I75,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J75:J77" si="98">VLOOKUP(I75,N:Q,4,FALSE)</f>
         <v>1E+200</v>
       </c>
       <c r="K75" s="17">
-        <f t="shared" ref="K75:K77" si="97">L75</f>
+        <f t="shared" ref="K75:K77" si="99">L75</f>
         <v>7600</v>
       </c>
       <c r="L75" s="11">
-        <f t="shared" ref="L75:L77" si="98">($B$14*(E75-1)+2000)/2</f>
+        <f t="shared" ref="L75:L77" si="100">($B$14*(E75-1)+2000)/2</f>
         <v>7600</v>
+      </c>
+      <c r="N75" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="O75" s="19">
+        <v>272</v>
+      </c>
+      <c r="P75" s="20">
+        <f t="shared" si="94"/>
+        <v>1.0000000000000001E+272</v>
+      </c>
+      <c r="Q75" s="20" t="str">
+        <f t="shared" si="95"/>
+        <v>1E+272</v>
       </c>
     </row>
     <row r="76" spans="5:17" x14ac:dyDescent="0.3">
@@ -8207,11 +8525,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="20" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>195.0108증</v>
       </c>
       <c r="G76" s="20">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1.9501079999999999E+202</v>
       </c>
       <c r="H76" s="20">
@@ -8223,15 +8541,15 @@
         <v>증</v>
       </c>
       <c r="J76" s="19" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+200</v>
       </c>
       <c r="K76" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>7700</v>
       </c>
       <c r="L76" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>7700</v>
       </c>
     </row>
@@ -8240,11 +8558,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="20" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1.9697쾌</v>
       </c>
       <c r="G77" s="20">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1.9696999999999999E+204</v>
       </c>
       <c r="H77" s="20">
@@ -8256,15 +8574,15 @@
         <v>쾌</v>
       </c>
       <c r="J77" s="19" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+204</v>
       </c>
       <c r="K77" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>7800</v>
       </c>
       <c r="L77" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>7800</v>
       </c>
     </row>
@@ -8273,11 +8591,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="20" t="str">
-        <f t="shared" ref="F78:F79" si="99">H78&amp;I78</f>
+        <f t="shared" ref="F78:F79" si="101">H78&amp;I78</f>
         <v>198.9397쾌</v>
       </c>
       <c r="G78" s="20">
-        <f t="shared" ref="G78:G79" si="100">H78*J78</f>
+        <f t="shared" ref="G78:G79" si="102">H78*J78</f>
         <v>1.9893969999999998E+206</v>
       </c>
       <c r="H78" s="20">
@@ -8289,15 +8607,15 @@
         <v>쾌</v>
       </c>
       <c r="J78" s="19" t="str">
-        <f t="shared" ref="J78:J79" si="101">VLOOKUP(I78,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J78:J79" si="103">VLOOKUP(I78,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K78" s="17">
-        <f t="shared" ref="K78:K79" si="102">L78</f>
+        <f t="shared" ref="K78:K79" si="104">L78</f>
         <v>7900</v>
       </c>
       <c r="L78" s="11">
-        <f t="shared" ref="L78:L79" si="103">($B$14*(E78-1)+2000)/2</f>
+        <f t="shared" ref="L78:L79" si="105">($B$14*(E78-1)+2000)/2</f>
         <v>7900</v>
       </c>
     </row>
@@ -8306,11 +8624,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="20" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>2.0093우</v>
       </c>
       <c r="G79" s="20">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>2.0093000000000001E+208</v>
       </c>
       <c r="H79" s="20">
@@ -8322,15 +8640,15 @@
         <v>우</v>
       </c>
       <c r="J79" s="19" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>1E+208</v>
       </c>
       <c r="K79" s="17">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>8000</v>
       </c>
       <c r="L79" s="11">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>8000</v>
       </c>
     </row>
@@ -8339,11 +8657,11 @@
         <v>72</v>
       </c>
       <c r="F80" s="20" t="str">
-        <f t="shared" ref="F80:F81" si="104">H80&amp;I80</f>
+        <f t="shared" ref="F80:F81" si="106">H80&amp;I80</f>
         <v>202.9393우</v>
       </c>
       <c r="G80" s="20">
-        <f t="shared" ref="G80:G81" si="105">H80*J80</f>
+        <f t="shared" ref="G80:G81" si="107">H80*J80</f>
         <v>2.0293929999999999E+210</v>
       </c>
       <c r="H80" s="20">
@@ -8355,15 +8673,15 @@
         <v>우</v>
       </c>
       <c r="J80" s="19" t="str">
-        <f t="shared" ref="J80:J81" si="106">VLOOKUP(I80,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J80:J81" si="108">VLOOKUP(I80,N:Q,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K80" s="17">
-        <f t="shared" ref="K80:K81" si="107">L80</f>
+        <f t="shared" ref="K80:K81" si="109">L80</f>
         <v>8100</v>
       </c>
       <c r="L80" s="11">
-        <f t="shared" ref="L80:L81" si="108">($B$14*(E80-1)+2000)/2</f>
+        <f t="shared" ref="L80:L81" si="110">($B$14*(E80-1)+2000)/2</f>
         <v>8100</v>
       </c>
     </row>
@@ -8372,11 +8690,11 @@
         <v>73</v>
       </c>
       <c r="F81" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>2.0497팽</v>
       </c>
       <c r="G81" s="20">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>2.0496999999999998E+212</v>
       </c>
       <c r="H81" s="20">
@@ -8388,15 +8706,15 @@
         <v>팽</v>
       </c>
       <c r="J81" s="19" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>1E+212</v>
       </c>
       <c r="K81" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>8200</v>
       </c>
       <c r="L81" s="11">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>8200</v>
       </c>
     </row>
@@ -8405,11 +8723,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="20" t="str">
-        <f t="shared" ref="F82:F86" si="109">H82&amp;I82</f>
+        <f t="shared" ref="F82:F86" si="111">H82&amp;I82</f>
         <v>207.0197팽</v>
       </c>
       <c r="G82" s="20">
-        <f t="shared" ref="G82:G86" si="110">H82*J82</f>
+        <f t="shared" ref="G82:G86" si="112">H82*J82</f>
         <v>2.0701969999999999E+214</v>
       </c>
       <c r="H82" s="20">
@@ -8421,15 +8739,15 @@
         <v>팽</v>
       </c>
       <c r="J82" s="19" t="str">
-        <f t="shared" ref="J82:J86" si="111">VLOOKUP(I82,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J82:J86" si="113">VLOOKUP(I82,N:Q,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K82" s="17">
-        <f t="shared" ref="K82:K86" si="112">L82</f>
+        <f t="shared" ref="K82:K86" si="114">L82</f>
         <v>8300</v>
       </c>
       <c r="L82" s="11">
-        <f t="shared" ref="L82:L86" si="113">($B$14*(E82-1)+2000)/2</f>
+        <f t="shared" ref="L82:L86" si="115">($B$14*(E82-1)+2000)/2</f>
         <v>8300</v>
       </c>
     </row>
@@ -8438,11 +8756,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="20" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>2.0909관</v>
       </c>
       <c r="G83" s="20">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>2.0909000000000005E+216</v>
       </c>
       <c r="H83" s="20">
@@ -8454,15 +8772,15 @@
         <v>관</v>
       </c>
       <c r="J83" s="19" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>1E+216</v>
       </c>
       <c r="K83" s="17">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>8400</v>
       </c>
       <c r="L83" s="11">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>8400</v>
       </c>
     </row>
@@ -8471,11 +8789,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="20" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>211.1809관</v>
       </c>
       <c r="G84" s="20">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>2.1118089999999999E+218</v>
       </c>
       <c r="H84" s="20">
@@ -8487,15 +8805,15 @@
         <v>관</v>
       </c>
       <c r="J84" s="19" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>1E+216</v>
       </c>
       <c r="K84" s="17">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>8500</v>
       </c>
       <c r="L84" s="11">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>8500</v>
       </c>
     </row>
@@ -8504,11 +8822,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="20" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>2.133한</v>
       </c>
       <c r="G85" s="20">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>2.1330000000000001E+220</v>
       </c>
       <c r="H85" s="20">
@@ -8520,15 +8838,15 @@
         <v>한</v>
       </c>
       <c r="J85" s="19" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>1E+220</v>
       </c>
       <c r="K85" s="17">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>8600</v>
       </c>
       <c r="L85" s="11">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>8600</v>
       </c>
     </row>
@@ -8537,11 +8855,11 @@
         <v>78</v>
       </c>
       <c r="F86" s="20" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>215.433한</v>
       </c>
       <c r="G86" s="20">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>2.15433E+222</v>
       </c>
       <c r="H86" s="20">
@@ -8553,15 +8871,15 @@
         <v>한</v>
       </c>
       <c r="J86" s="19" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>1E+220</v>
       </c>
       <c r="K86" s="17">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>8700</v>
       </c>
       <c r="L86" s="11">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>8700</v>
       </c>
     </row>
@@ -8570,11 +8888,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="20" t="str">
-        <f t="shared" ref="F87:F88" si="114">H87&amp;I87</f>
+        <f t="shared" ref="F87:F88" si="116">H87&amp;I87</f>
         <v>2.1759혈</v>
       </c>
       <c r="G87" s="20">
-        <f t="shared" ref="G87:G88" si="115">H87*J87</f>
+        <f t="shared" ref="G87:G88" si="117">H87*J87</f>
         <v>2.1759000000000004E+224</v>
       </c>
       <c r="H87" s="20">
@@ -8586,15 +8904,15 @@
         <v>혈</v>
       </c>
       <c r="J87" s="19" t="str">
-        <f t="shared" ref="J87:J88" si="116">VLOOKUP(I87,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J87:J88" si="118">VLOOKUP(I87,N:Q,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K87" s="17">
-        <f t="shared" ref="K87:K88" si="117">L87</f>
+        <f t="shared" ref="K87:K88" si="119">L87</f>
         <v>8800</v>
       </c>
       <c r="L87" s="11">
-        <f t="shared" ref="L87:L88" si="118">($B$14*(E87-1)+2000)/2</f>
+        <f t="shared" ref="L87:L88" si="120">($B$14*(E87-1)+2000)/2</f>
         <v>8800</v>
       </c>
     </row>
@@ -8603,11 +8921,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="20" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>219.7659혈</v>
       </c>
       <c r="G88" s="20">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>2.1976589999999999E+226</v>
       </c>
       <c r="H88" s="20">
@@ -8619,15 +8937,15 @@
         <v>혈</v>
       </c>
       <c r="J88" s="19" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>1E+224</v>
       </c>
       <c r="K88" s="17">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>8900</v>
       </c>
       <c r="L88" s="11">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>8900</v>
       </c>
     </row>
@@ -8636,11 +8954,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="20" t="str">
-        <f t="shared" ref="F89:F92" si="119">H89&amp;I89</f>
+        <f t="shared" ref="F89:F92" si="121">H89&amp;I89</f>
         <v>2.2197연</v>
       </c>
       <c r="G89" s="20">
-        <f t="shared" ref="G89:G92" si="120">H89*J89</f>
+        <f t="shared" ref="G89:G92" si="122">H89*J89</f>
         <v>2.2196999999999997E+228</v>
       </c>
       <c r="H89" s="20">
@@ -8652,15 +8970,15 @@
         <v>연</v>
       </c>
       <c r="J89" s="19" t="str">
-        <f t="shared" ref="J89:J92" si="121">VLOOKUP(I89,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J89:J92" si="123">VLOOKUP(I89,N:Q,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K89" s="17">
-        <f t="shared" ref="K89:K92" si="122">L89</f>
+        <f t="shared" ref="K89:K92" si="124">L89</f>
         <v>9000</v>
       </c>
       <c r="L89" s="11">
-        <f t="shared" ref="L89:L92" si="123">($B$14*(E89-1)+2000)/2</f>
+        <f t="shared" ref="L89:L92" si="125">($B$14*(E89-1)+2000)/2</f>
         <v>9000</v>
       </c>
     </row>
@@ -8669,11 +8987,11 @@
         <v>82</v>
       </c>
       <c r="F90" s="20" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>224.1897연</v>
       </c>
       <c r="G90" s="20">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2.2418969999999998E+230</v>
       </c>
       <c r="H90" s="20">
@@ -8685,15 +9003,15 @@
         <v>연</v>
       </c>
       <c r="J90" s="19" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>1E+228</v>
       </c>
       <c r="K90" s="17">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>9100</v>
       </c>
       <c r="L90" s="11">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>9100</v>
       </c>
     </row>
@@ -8702,11 +9020,11 @@
         <v>83</v>
       </c>
       <c r="F91" s="20" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>2.2644난</v>
       </c>
       <c r="G91" s="20">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2.2644000000000004E+232</v>
       </c>
       <c r="H91" s="20">
@@ -8718,15 +9036,15 @@
         <v>난</v>
       </c>
       <c r="J91" s="19" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>1E+232</v>
       </c>
       <c r="K91" s="17">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>9200</v>
       </c>
       <c r="L91" s="11">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>9200</v>
       </c>
     </row>
@@ -8735,11 +9053,11 @@
         <v>84</v>
       </c>
       <c r="F92" s="20" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>228.7044난</v>
       </c>
       <c r="G92" s="20">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2.2870440000000001E+234</v>
       </c>
       <c r="H92" s="20">
@@ -8751,15 +9069,15 @@
         <v>난</v>
       </c>
       <c r="J92" s="19" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>1E+232</v>
       </c>
       <c r="K92" s="17">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>9300</v>
       </c>
       <c r="L92" s="11">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>9300</v>
       </c>
     </row>
@@ -8768,11 +9086,11 @@
         <v>85</v>
       </c>
       <c r="F93" s="20" t="str">
-        <f t="shared" ref="F93:F96" si="124">H93&amp;I93</f>
+        <f t="shared" ref="F93:F96" si="126">H93&amp;I93</f>
         <v>2.31군</v>
       </c>
       <c r="G93" s="20">
-        <f t="shared" ref="G93:G96" si="125">H93*J93</f>
+        <f t="shared" ref="G93:G96" si="127">H93*J93</f>
         <v>2.3100000000000003E+236</v>
       </c>
       <c r="H93" s="20">
@@ -8784,15 +9102,15 @@
         <v>군</v>
       </c>
       <c r="J93" s="19" t="str">
-        <f t="shared" ref="J93:J96" si="126">VLOOKUP(I93,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J93:J96" si="128">VLOOKUP(I93,N:Q,4,FALSE)</f>
         <v>1E+236</v>
       </c>
       <c r="K93" s="17">
-        <f t="shared" ref="K93:K96" si="127">L93</f>
+        <f t="shared" ref="K93:K96" si="129">L93</f>
         <v>9400</v>
       </c>
       <c r="L93" s="11">
-        <f t="shared" ref="L93:L96" si="128">($B$14*(E93-1)+2000)/2</f>
+        <f t="shared" ref="L93:L96" si="130">($B$14*(E93-1)+2000)/2</f>
         <v>9400</v>
       </c>
     </row>
@@ -8801,11 +9119,11 @@
         <v>86</v>
       </c>
       <c r="F94" s="20" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>233.31군</v>
       </c>
       <c r="G94" s="20">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2.3331000000000001E+238</v>
       </c>
       <c r="H94" s="20">
@@ -8817,15 +9135,15 @@
         <v>군</v>
       </c>
       <c r="J94" s="19" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1E+236</v>
       </c>
       <c r="K94" s="17">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>9500</v>
       </c>
       <c r="L94" s="11">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>9500</v>
       </c>
     </row>
@@ -8834,11 +9152,11 @@
         <v>87</v>
       </c>
       <c r="F95" s="20" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>2.3565결</v>
       </c>
       <c r="G95" s="20">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2.3564999999999999E+240</v>
       </c>
       <c r="H95" s="20">
@@ -8850,15 +9168,15 @@
         <v>결</v>
       </c>
       <c r="J95" s="19" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1E+240</v>
       </c>
       <c r="K95" s="17">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>9600</v>
       </c>
       <c r="L95" s="11">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>9600</v>
       </c>
     </row>
@@ -8867,11 +9185,11 @@
         <v>88</v>
       </c>
       <c r="F96" s="20" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>238.0065결</v>
       </c>
       <c r="G96" s="20">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2.3800649999999998E+242</v>
       </c>
       <c r="H96" s="20">
@@ -8883,15 +9201,15 @@
         <v>결</v>
       </c>
       <c r="J96" s="19" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1E+240</v>
       </c>
       <c r="K96" s="17">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>9700</v>
       </c>
       <c r="L96" s="11">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>9700</v>
       </c>
     </row>
@@ -8900,11 +9218,11 @@
         <v>89</v>
       </c>
       <c r="F97" s="20" t="str">
-        <f t="shared" ref="F97:F100" si="129">H97&amp;I97</f>
+        <f t="shared" ref="F97:F100" si="131">H97&amp;I97</f>
         <v>2.4039맥</v>
       </c>
       <c r="G97" s="20">
-        <f t="shared" ref="G97:G100" si="130">H97*J97</f>
+        <f t="shared" ref="G97:G100" si="132">H97*J97</f>
         <v>2.4039000000000003E+244</v>
       </c>
       <c r="H97" s="20">
@@ -8916,15 +9234,15 @@
         <v>맥</v>
       </c>
       <c r="J97" s="19" t="str">
-        <f t="shared" ref="J97:J100" si="131">VLOOKUP(I97,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J97:J100" si="133">VLOOKUP(I97,N:Q,4,FALSE)</f>
         <v>1E+244</v>
       </c>
       <c r="K97" s="17">
-        <f t="shared" ref="K97:K100" si="132">L97</f>
+        <f t="shared" ref="K97:K100" si="134">L97</f>
         <v>9800</v>
       </c>
       <c r="L97" s="11">
-        <f t="shared" ref="L97:L100" si="133">($B$14*(E97-1)+2000)/2</f>
+        <f t="shared" ref="L97:L100" si="135">($B$14*(E97-1)+2000)/2</f>
         <v>9800</v>
       </c>
     </row>
@@ -8933,11 +9251,11 @@
         <v>90</v>
       </c>
       <c r="F98" s="20" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>242.7939맥</v>
       </c>
       <c r="G98" s="20">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>2.4279390000000001E+246</v>
       </c>
       <c r="H98" s="20">
@@ -8949,15 +9267,15 @@
         <v>맥</v>
       </c>
       <c r="J98" s="19" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>1E+244</v>
       </c>
       <c r="K98" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>9900</v>
       </c>
       <c r="L98" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>9900</v>
       </c>
     </row>
@@ -8966,11 +9284,11 @@
         <v>91</v>
       </c>
       <c r="F99" s="20" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>2.4523토</v>
       </c>
       <c r="G99" s="20">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>2.4523000000000004E+248</v>
       </c>
       <c r="H99" s="20">
@@ -8982,15 +9300,15 @@
         <v>토</v>
       </c>
       <c r="J99" s="19" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>1E+248</v>
       </c>
       <c r="K99" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>10000</v>
       </c>
       <c r="L99" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>10000</v>
       </c>
     </row>
@@ -8999,11 +9317,11 @@
         <v>92</v>
       </c>
       <c r="F100" s="20" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>247.6823토</v>
       </c>
       <c r="G100" s="20">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>2.476823E+250</v>
       </c>
       <c r="H100" s="20">
@@ -9015,15 +9333,15 @@
         <v>토</v>
       </c>
       <c r="J100" s="19" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>1E+248</v>
       </c>
       <c r="K100" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>10100</v>
       </c>
       <c r="L100" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>10100</v>
       </c>
     </row>
@@ -9032,11 +9350,11 @@
         <v>93</v>
       </c>
       <c r="F101" s="20" t="str">
-        <f t="shared" ref="F101:F102" si="134">H101&amp;I101</f>
+        <f t="shared" ref="F101:F108" si="136">H101&amp;I101</f>
         <v>2.5016산</v>
       </c>
       <c r="G101" s="20">
-        <f t="shared" ref="G101:G102" si="135">H101*J101</f>
+        <f t="shared" ref="G101:G108" si="137">H101*J101</f>
         <v>2.5016000000000004E+252</v>
       </c>
       <c r="H101" s="20">
@@ -9048,15 +9366,15 @@
         <v>산</v>
       </c>
       <c r="J101" s="19" t="str">
-        <f t="shared" ref="J101:J102" si="136">VLOOKUP(I101,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J101:J108" si="138">VLOOKUP(I101,N:Q,4,FALSE)</f>
         <v>1E+252</v>
       </c>
       <c r="K101" s="17">
-        <f t="shared" ref="K101:K102" si="137">L101</f>
+        <f t="shared" ref="K101:K108" si="139">L101</f>
         <v>10200</v>
       </c>
       <c r="L101" s="11">
-        <f t="shared" ref="L101:L102" si="138">($B$14*(E101-1)+2000)/2</f>
+        <f t="shared" ref="L101:L108" si="140">($B$14*(E101-1)+2000)/2</f>
         <v>10200</v>
       </c>
     </row>
@@ -9065,11 +9383,11 @@
         <v>94</v>
       </c>
       <c r="F102" s="20" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>252.6616산</v>
       </c>
       <c r="G102" s="20">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>2.526616E+254</v>
       </c>
       <c r="H102" s="20">
@@ -9081,16 +9399,412 @@
         <v>산</v>
       </c>
       <c r="J102" s="19" t="str">
+        <f t="shared" si="138"/>
+        <v>1E+252</v>
+      </c>
+      <c r="K102" s="17">
+        <f t="shared" si="139"/>
+        <v>10300</v>
+      </c>
+      <c r="L102" s="11">
+        <f t="shared" si="140"/>
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="103" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E103" s="19">
+        <v>95</v>
+      </c>
+      <c r="F103" s="20" t="str">
         <f t="shared" si="136"/>
-        <v>1E+252</v>
-      </c>
-      <c r="K102" s="17">
+        <v>2.5519강</v>
+      </c>
+      <c r="G103" s="20">
         <f t="shared" si="137"/>
-        <v>10300</v>
-      </c>
-      <c r="L102" s="11">
+        <v>2.5519000000000002E+256</v>
+      </c>
+      <c r="H103" s="20">
+        <f t="shared" si="7"/>
+        <v>2.5519000000000003</v>
+      </c>
+      <c r="I103" s="19" t="str" cm="1">
+        <f t="array" ref="I103">IF(AND(H102&gt;100,H103&lt;100),INDEX(N:N,MATCH(I102,N:N,0)+1,0),I102)</f>
+        <v>강</v>
+      </c>
+      <c r="J103" s="19" t="str">
         <f t="shared" si="138"/>
-        <v>10300</v>
+        <v>1E+256</v>
+      </c>
+      <c r="K103" s="17">
+        <f t="shared" si="139"/>
+        <v>10400</v>
+      </c>
+      <c r="L103" s="11">
+        <f t="shared" si="140"/>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="104" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E104" s="19">
+        <v>96</v>
+      </c>
+      <c r="F104" s="20" t="str">
+        <f t="shared" si="136"/>
+        <v>257.7419강</v>
+      </c>
+      <c r="G104" s="20">
+        <f t="shared" si="137"/>
+        <v>2.5774190000000001E+258</v>
+      </c>
+      <c r="H104" s="20">
+        <f t="shared" si="7"/>
+        <v>257.74189999999999</v>
+      </c>
+      <c r="I104" s="19" t="str" cm="1">
+        <f t="array" ref="I104">IF(AND(H103&gt;100,H104&lt;100),INDEX(N:N,MATCH(I103,N:N,0)+1,0),I103)</f>
+        <v>강</v>
+      </c>
+      <c r="J104" s="19" t="str">
+        <f t="shared" si="138"/>
+        <v>1E+256</v>
+      </c>
+      <c r="K104" s="17">
+        <f t="shared" si="139"/>
+        <v>10500</v>
+      </c>
+      <c r="L104" s="11">
+        <f t="shared" si="140"/>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="105" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E105" s="19">
+        <v>97</v>
+      </c>
+      <c r="F105" s="20" t="str">
+        <f t="shared" si="136"/>
+        <v>2.6032환</v>
+      </c>
+      <c r="G105" s="20">
+        <f t="shared" si="137"/>
+        <v>2.6032000000000005E+260</v>
+      </c>
+      <c r="H105" s="20">
+        <f t="shared" si="7"/>
+        <v>2.6032000000000002</v>
+      </c>
+      <c r="I105" s="19" t="str" cm="1">
+        <f t="array" ref="I105">IF(AND(H104&gt;100,H105&lt;100),INDEX(N:N,MATCH(I104,N:N,0)+1,0),I104)</f>
+        <v>환</v>
+      </c>
+      <c r="J105" s="19" t="str">
+        <f t="shared" si="138"/>
+        <v>1E+260</v>
+      </c>
+      <c r="K105" s="17">
+        <f t="shared" si="139"/>
+        <v>10600</v>
+      </c>
+      <c r="L105" s="11">
+        <f t="shared" si="140"/>
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="106" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E106" s="19">
+        <v>98</v>
+      </c>
+      <c r="F106" s="20" t="str">
+        <f t="shared" si="136"/>
+        <v>262.9232환</v>
+      </c>
+      <c r="G106" s="20">
+        <f t="shared" si="137"/>
+        <v>2.6292320000000003E+262</v>
+      </c>
+      <c r="H106" s="20">
+        <f t="shared" si="7"/>
+        <v>262.92320000000001</v>
+      </c>
+      <c r="I106" s="19" t="str" cm="1">
+        <f t="array" ref="I106">IF(AND(H105&gt;100,H106&lt;100),INDEX(N:N,MATCH(I105,N:N,0)+1,0),I105)</f>
+        <v>환</v>
+      </c>
+      <c r="J106" s="19" t="str">
+        <f t="shared" si="138"/>
+        <v>1E+260</v>
+      </c>
+      <c r="K106" s="17">
+        <f t="shared" si="139"/>
+        <v>10700</v>
+      </c>
+      <c r="L106" s="11">
+        <f t="shared" si="140"/>
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="107" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E107" s="19">
+        <v>99</v>
+      </c>
+      <c r="F107" s="20" t="str">
+        <f t="shared" si="136"/>
+        <v>2.6556종</v>
+      </c>
+      <c r="G107" s="20">
+        <f t="shared" si="137"/>
+        <v>2.6556000000000002E+264</v>
+      </c>
+      <c r="H107" s="20">
+        <f t="shared" si="7"/>
+        <v>2.6556000000000002</v>
+      </c>
+      <c r="I107" s="19" t="str" cm="1">
+        <f t="array" ref="I107">IF(AND(H106&gt;100,H107&lt;100),INDEX(N:N,MATCH(I106,N:N,0)+1,0),I106)</f>
+        <v>종</v>
+      </c>
+      <c r="J107" s="19" t="str">
+        <f t="shared" si="138"/>
+        <v>1E+264</v>
+      </c>
+      <c r="K107" s="17">
+        <f t="shared" si="139"/>
+        <v>10800</v>
+      </c>
+      <c r="L107" s="11">
+        <f t="shared" si="140"/>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="108" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E108" s="19">
+        <v>100</v>
+      </c>
+      <c r="F108" s="20" t="str">
+        <f t="shared" si="136"/>
+        <v>268.2156종</v>
+      </c>
+      <c r="G108" s="20">
+        <f t="shared" si="137"/>
+        <v>2.6821559999999999E+266</v>
+      </c>
+      <c r="H108" s="20">
+        <f t="shared" si="7"/>
+        <v>268.21559999999999</v>
+      </c>
+      <c r="I108" s="19" t="str" cm="1">
+        <f t="array" ref="I108">IF(AND(H107&gt;100,H108&lt;100),INDEX(N:N,MATCH(I107,N:N,0)+1,0),I107)</f>
+        <v>종</v>
+      </c>
+      <c r="J108" s="19" t="str">
+        <f t="shared" si="138"/>
+        <v>1E+264</v>
+      </c>
+      <c r="K108" s="17">
+        <f t="shared" si="139"/>
+        <v>10900</v>
+      </c>
+      <c r="L108" s="11">
+        <f t="shared" si="140"/>
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="109" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E109" s="19">
+        <v>101</v>
+      </c>
+      <c r="F109" s="20" t="str">
+        <f t="shared" ref="F109:F114" si="141">H109&amp;I109</f>
+        <v>2.709덕</v>
+      </c>
+      <c r="G109" s="20">
+        <f t="shared" ref="G109:G114" si="142">H109*J109</f>
+        <v>2.7089999999999998E+268</v>
+      </c>
+      <c r="H109" s="20">
+        <f t="shared" si="7"/>
+        <v>2.7090000000000001</v>
+      </c>
+      <c r="I109" s="19" t="str" cm="1">
+        <f t="array" ref="I109">IF(AND(H108&gt;100,H109&lt;100),INDEX(N:N,MATCH(I108,N:N,0)+1,0),I108)</f>
+        <v>덕</v>
+      </c>
+      <c r="J109" s="19" t="str">
+        <f t="shared" ref="J109:J114" si="143">VLOOKUP(I109,N:Q,4,FALSE)</f>
+        <v>1E+268</v>
+      </c>
+      <c r="K109" s="17">
+        <f t="shared" ref="K109:K114" si="144">L109</f>
+        <v>11000</v>
+      </c>
+      <c r="L109" s="11">
+        <f t="shared" ref="L109:L114" si="145">($B$14*(E109-1)+2000)/2</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="110" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E110" s="19">
+        <v>102</v>
+      </c>
+      <c r="F110" s="20" t="str">
+        <f t="shared" si="141"/>
+        <v>273.609덕</v>
+      </c>
+      <c r="G110" s="20">
+        <f t="shared" si="142"/>
+        <v>2.7360899999999995E+270</v>
+      </c>
+      <c r="H110" s="20">
+        <f t="shared" si="7"/>
+        <v>273.60899999999998</v>
+      </c>
+      <c r="I110" s="19" t="str" cm="1">
+        <f t="array" ref="I110">IF(AND(H109&gt;100,H110&lt;100),INDEX(N:N,MATCH(I109,N:N,0)+1,0),I109)</f>
+        <v>덕</v>
+      </c>
+      <c r="J110" s="19" t="str">
+        <f t="shared" si="143"/>
+        <v>1E+268</v>
+      </c>
+      <c r="K110" s="17">
+        <f t="shared" si="144"/>
+        <v>11100</v>
+      </c>
+      <c r="L110" s="11">
+        <f t="shared" si="145"/>
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="111" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E111" s="19">
+        <v>103</v>
+      </c>
+      <c r="F111" s="20" t="str">
+        <f t="shared" si="141"/>
+        <v>2.7635건</v>
+      </c>
+      <c r="G111" s="20">
+        <f t="shared" si="142"/>
+        <v>2.7635000000000005E+272</v>
+      </c>
+      <c r="H111" s="20">
+        <f t="shared" si="7"/>
+        <v>2.7635000000000001</v>
+      </c>
+      <c r="I111" s="19" t="str" cm="1">
+        <f t="array" ref="I111">IF(AND(H110&gt;100,H111&lt;100),INDEX(N:N,MATCH(I110,N:N,0)+1,0),I110)</f>
+        <v>건</v>
+      </c>
+      <c r="J111" s="19" t="str">
+        <f t="shared" si="143"/>
+        <v>1E+272</v>
+      </c>
+      <c r="K111" s="17">
+        <f t="shared" si="144"/>
+        <v>11200</v>
+      </c>
+      <c r="L111" s="11">
+        <f t="shared" si="145"/>
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="112" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E112" s="19">
+        <v>104</v>
+      </c>
+      <c r="F112" s="20" t="str">
+        <f t="shared" si="141"/>
+        <v>279.1135건</v>
+      </c>
+      <c r="G112" s="20">
+        <f t="shared" si="142"/>
+        <v>2.7911350000000002E+274</v>
+      </c>
+      <c r="H112" s="20">
+        <f t="shared" si="7"/>
+        <v>279.11349999999999</v>
+      </c>
+      <c r="I112" s="19" t="str" cm="1">
+        <f t="array" ref="I112">IF(AND(H111&gt;100,H112&lt;100),INDEX(N:N,MATCH(I111,N:N,0)+1,0),I111)</f>
+        <v>건</v>
+      </c>
+      <c r="J112" s="19" t="str">
+        <f t="shared" si="143"/>
+        <v>1E+272</v>
+      </c>
+      <c r="K112" s="17">
+        <f t="shared" si="144"/>
+        <v>11300</v>
+      </c>
+      <c r="L112" s="11">
+        <f t="shared" si="145"/>
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="113" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E113" s="19">
+        <v>105</v>
+      </c>
+      <c r="F113" s="20" t="str">
+        <f t="shared" si="141"/>
+        <v>2.81910</v>
+      </c>
+      <c r="G113" s="20" t="e">
+        <f t="shared" si="142"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H113" s="20">
+        <f t="shared" si="7"/>
+        <v>2.8191000000000002</v>
+      </c>
+      <c r="I113" s="19" cm="1">
+        <f t="array" ref="I113">IF(AND(H112&gt;100,H113&lt;100),INDEX(N:N,MATCH(I112,N:N,0)+1,0),I112)</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="19" t="e">
+        <f t="shared" si="143"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K113" s="17">
+        <f t="shared" si="144"/>
+        <v>11400</v>
+      </c>
+      <c r="L113" s="11">
+        <f t="shared" si="145"/>
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="114" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E114" s="19">
+        <v>106</v>
+      </c>
+      <c r="F114" s="20" t="str">
+        <f t="shared" si="141"/>
+        <v>284.72910</v>
+      </c>
+      <c r="G114" s="20" t="e">
+        <f t="shared" si="142"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H114" s="20">
+        <f t="shared" si="7"/>
+        <v>284.72910000000002</v>
+      </c>
+      <c r="I114" s="19" cm="1">
+        <f t="array" ref="I114">IF(AND(H113&gt;100,H114&lt;100),INDEX(N:N,MATCH(I113,N:N,0)+1,0),I113)</f>
+        <v>0</v>
+      </c>
+      <c r="J114" s="19" t="e">
+        <f t="shared" si="143"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K114" s="17">
+        <f t="shared" si="144"/>
+        <v>11500</v>
+      </c>
+      <c r="L114" s="11">
+        <f t="shared" si="145"/>
+        <v>11500</v>
       </c>
     </row>
   </sheetData>
